--- a/4月报表/4月摆渡报表.xlsx
+++ b/4月报表/4月摆渡报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D6B20169-C3ED-460A-A8F3-BF9098F40704}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6D6057BF-4A7C-4F40-906D-968CA6FC5EDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="628">
   <si>
     <t>发车日期</t>
   </si>
@@ -2429,6 +2429,22 @@
   </si>
   <si>
     <t>18678</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16995</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028548</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16994</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0078029</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -21598,8 +21614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB000ACE-67CB-45A3-8842-3FEB33AF0350}">
   <dimension ref="A1:BK117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24572,7 +24588,7 @@
         <v>622</v>
       </c>
       <c r="M44" s="7" t="str">
-        <f t="shared" ref="M44" si="25">IF(A44&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="M44:M45" si="25">IF(A44&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N44" s="26" t="str">
@@ -24584,7 +24600,7 @@
         <v>117</v>
       </c>
       <c r="Q44" s="7" t="str">
-        <f t="shared" ref="Q44" si="26">IF(A44&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="Q44:Q45" si="26">IF(A44&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R44" s="14">
@@ -24594,59 +24610,141 @@
         <v>0</v>
       </c>
       <c r="T44" s="14">
-        <f t="shared" ref="T44" si="27">SUM(R44:S44)</f>
+        <f t="shared" ref="T44:T45" si="27">SUM(R44:S44)</f>
         <v>14</v>
       </c>
       <c r="U44" s="7" t="str">
-        <f t="shared" ref="U44" si="28">IF(A44&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="U44:U45" si="28">IF(A44&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="A45" s="8">
+        <v>43196</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="10">
+        <v>2154</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2203</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>431</v>
+      </c>
       <c r="I45" s="12"/>
-      <c r="J45" s="39"/>
+      <c r="J45" s="39" t="s">
+        <v>624</v>
+      </c>
       <c r="K45" s="10"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="26"/>
+      <c r="L45" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="M45" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N45" s="26" t="str">
+        <f>VLOOKUP(P45,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
       <c r="O45" s="10"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="7"/>
+      <c r="P45" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q45" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R45" s="14">
+        <v>5</v>
+      </c>
+      <c r="S45" s="14">
+        <v>0</v>
+      </c>
+      <c r="T45" s="14">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="U45" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="46" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="A46" s="8">
+        <v>43196</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1927</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1949</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>431</v>
+      </c>
       <c r="I46" s="12"/>
-      <c r="J46" s="39"/>
+      <c r="J46" s="39" t="s">
+        <v>626</v>
+      </c>
       <c r="K46" s="10"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="26"/>
+      <c r="L46" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="M46" s="7" t="str">
+        <f t="shared" ref="M46" si="29">IF(A46&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N46" s="26" t="str">
+        <f>VLOOKUP(P46,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
       <c r="O46" s="10"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="7"/>
+      <c r="P46" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q46" s="7" t="str">
+        <f t="shared" ref="Q46" si="30">IF(A46&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R46" s="14">
+        <v>14</v>
+      </c>
+      <c r="S46" s="14">
+        <v>0</v>
+      </c>
+      <c r="T46" s="14">
+        <f t="shared" ref="T46" si="31">SUM(R46:S46)</f>
+        <v>14</v>
+      </c>
+      <c r="U46" s="7" t="str">
+        <f t="shared" ref="U46" si="32">IF(A46&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="47" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A47" s="8"/>

--- a/4月报表/4月摆渡报表.xlsx
+++ b/4月报表/4月摆渡报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{04BCF8AD-79B5-4E58-A602-7F7A7F1292B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{579D61EB-B0B6-4ACD-B0F7-FA510A26BC79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="4-4" sheetId="6" r:id="rId4"/>
     <sheet name="4-5" sheetId="9" r:id="rId5"/>
     <sheet name="4-6" sheetId="10" r:id="rId6"/>
-    <sheet name="ch" sheetId="4" r:id="rId7"/>
-    <sheet name="汇总明线" sheetId="7" r:id="rId8"/>
+    <sheet name="4-7" sheetId="11" r:id="rId7"/>
+    <sheet name="ch" sheetId="4" r:id="rId8"/>
+    <sheet name="汇总明线" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$L$1:$L$110</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="783">
   <si>
     <t>发车日期</t>
   </si>
@@ -2844,6 +2845,138 @@
   </si>
   <si>
     <t>0085725</t>
+  </si>
+  <si>
+    <t>17821</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18996</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17859</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029794</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15571</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029892</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19831</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029795</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19635</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085699</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹才锋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19634</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085708</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16580</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076499</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18058</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029894</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16179</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024221</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商超A个护清洁仓2号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17942</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076514</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17941</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076513</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17940</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085781</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17939</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085779</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17938</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085789</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17935</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085777</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2855,7 +2988,7 @@
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2959,8 +3092,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF002060"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2982,6 +3136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3125,7 +3285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3252,6 +3412,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3276,7 +3451,91 @@
     <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -4249,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH110"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8327,10 +8586,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I24">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8341,8 +8600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ84"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8356,8 +8615,7 @@
     <col min="7" max="7" width="16.625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14" style="3" customWidth="1"/>
     <col min="12" max="12" width="16.625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="3" customWidth="1"/>
@@ -10796,7 +11054,7 @@
       <c r="I38" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="J38" s="12"/>
+      <c r="J38" s="44"/>
       <c r="K38" s="19" t="s">
         <v>337</v>
       </c>
@@ -10858,10 +11116,12 @@
       <c r="H39" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="12" t="s">
+        <v>751</v>
+      </c>
       <c r="K39" s="19" t="s">
         <v>261</v>
       </c>
@@ -13014,7 +13274,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:K1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13024,8 +13284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BJ109"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD35"/>
+    <sheetView topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16606,25 +16866,25 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I28">
-    <cfRule type="duplicateValues" dxfId="49" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="duplicateValues" dxfId="48" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I40">
-    <cfRule type="duplicateValues" dxfId="47" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K22 K29:K40">
-    <cfRule type="duplicateValues" dxfId="46" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I109">
-    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:K1048576 I23:K27 I1:K12">
-    <cfRule type="duplicateValues" dxfId="43" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16634,8 +16894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16648,9 +16908,8 @@
     <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14" style="3" customWidth="1"/>
     <col min="12" max="12" width="16.625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="3" customWidth="1"/>
@@ -17444,10 +17703,12 @@
       <c r="H12" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="42" t="s">
+        <v>750</v>
+      </c>
+      <c r="J12" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="J12" s="10"/>
       <c r="K12" s="19" t="s">
         <v>476</v>
       </c>
@@ -19781,29 +20042,38 @@
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I6:K12 I1:K2 I17:K1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
+  <conditionalFormatting sqref="I6:K11 J12:K12 I1:K2 I17:K1048576">
+    <cfRule type="duplicateValues" dxfId="49" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I12 I16:I64">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+  <conditionalFormatting sqref="I6:I11 J12 I16:I64">
+    <cfRule type="duplicateValues" dxfId="46" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K12 K16:K64">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14 I3:I5">
-    <cfRule type="duplicateValues" dxfId="37" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14 K3:K5">
-    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I76">
-    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+  <conditionalFormatting sqref="I3:I11 I13:I76 J12">
+    <cfRule type="duplicateValues" dxfId="42" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19813,8 +20083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386E10D5-F580-4C8A-B5B2-F2FC4BFE881D}">
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22256,16 +22526,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J34">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L34">
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J46">
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22276,8 +22546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB000ACE-67CB-45A3-8842-3FEB33AF0350}">
   <dimension ref="A1:BK89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25791,22 +26061,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L9:L89">
-    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
-    <cfRule type="duplicateValues" dxfId="29" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:L89">
-    <cfRule type="duplicateValues" dxfId="28" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J89">
-    <cfRule type="duplicateValues" dxfId="27" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:L1048576 I1:L8">
-    <cfRule type="duplicateValues" dxfId="26" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="duplicateValues" dxfId="25" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="58"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25814,6 +26084,2665 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BDB7BF-2FEC-4495-8CFD-3C136154A3C1}">
+  <dimension ref="A1:BK91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="21.75" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+    </row>
+    <row r="2" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A2" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1540</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1718</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="M2" s="7" t="str">
+        <f t="shared" ref="M2:M37" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N2" s="26" t="str">
+        <f>VLOOKUP(P2,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="7" t="str">
+        <f t="shared" ref="Q2:Q37" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R2" s="14">
+        <v>14</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14">
+        <f t="shared" ref="T2:T10" si="2">SUM(R2:S2)</f>
+        <v>14</v>
+      </c>
+      <c r="U2" s="7" t="str">
+        <f t="shared" ref="U2:U37" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A3" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1400</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1526</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3" si="4">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N3" s="26" t="str">
+        <f>VLOOKUP(P3,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AQQ353</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="7" t="str">
+        <f t="shared" ref="Q3" si="5">IF(A3&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R3" s="14">
+        <v>14</v>
+      </c>
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <f t="shared" ref="T3" si="6">SUM(R3:S3)</f>
+        <v>14</v>
+      </c>
+      <c r="U3" s="7" t="str">
+        <f t="shared" ref="U3" si="7">IF(A3&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A4" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1840</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2040</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N4" s="26" t="str">
+        <f>VLOOKUP(P4,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R4" s="14">
+        <v>14</v>
+      </c>
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U4" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A5" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1930</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2115</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f t="shared" ref="M5" si="8">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N5" s="26" t="str">
+        <f>VLOOKUP(P5,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" s="7" t="str">
+        <f t="shared" ref="Q5" si="9">IF(A5&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R5" s="14">
+        <v>7</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <f t="shared" ref="T5" si="10">SUM(R5:S5)</f>
+        <v>7</v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f t="shared" ref="U5" si="11">IF(A5&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A6" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1850</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2040</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N6" s="26" t="str">
+        <f>VLOOKUP(P6,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R6" s="14">
+        <v>14</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A7" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1945</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2028</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N7" s="26" t="str">
+        <f>VLOOKUP(P7,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R7" s="14">
+        <v>14</v>
+      </c>
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A8" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1322</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1338</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="M8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N8" s="26" t="str">
+        <f>VLOOKUP(P8,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R8" s="14">
+        <v>9</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A9" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2152</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2202</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N9" s="26" t="str">
+        <f>VLOOKUP(P9,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R9" s="14">
+        <v>11</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="U9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A10" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1910</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1920</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N10" s="26" t="str">
+        <f>VLOOKUP(P10,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R10" s="14">
+        <v>14</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A11" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1645</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1655</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f t="shared" ref="M11" si="12">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N11" s="26" t="str">
+        <f>VLOOKUP(P11,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q11" s="7" t="str">
+        <f t="shared" ref="Q11" si="13">IF(A11&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R11" s="14">
+        <v>14</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" ref="T11" si="14">SUM(R11:S11)</f>
+        <v>14</v>
+      </c>
+      <c r="U11" s="7" t="str">
+        <f t="shared" ref="U11" si="15">IF(A11&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A12" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1145</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1155</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="shared" ref="M12" si="16">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N12" s="26" t="str">
+        <f>VLOOKUP(P12,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q12" s="7" t="str">
+        <f t="shared" ref="Q12" si="17">IF(A12&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R12" s="14">
+        <v>5</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" ref="T12" si="18">SUM(R12:S12)</f>
+        <v>5</v>
+      </c>
+      <c r="U12" s="7" t="str">
+        <f t="shared" ref="U12" si="19">IF(A12&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A13" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1040</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1050</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f t="shared" ref="M13" si="20">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N13" s="26" t="str">
+        <f>VLOOKUP(P13,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q13" s="7" t="str">
+        <f t="shared" ref="Q13" si="21">IF(A13&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R13" s="14">
+        <v>14</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" ref="T13" si="22">SUM(R13:S13)</f>
+        <v>14</v>
+      </c>
+      <c r="U13" s="7" t="str">
+        <f t="shared" ref="U13" si="23">IF(A13&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A14" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="10">
+        <v>930</v>
+      </c>
+      <c r="D14" s="10">
+        <v>940</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39" t="s">
+        <v>779</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="M14" s="7" t="str">
+        <f t="shared" ref="M14" si="24">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N14" s="26" t="str">
+        <f>VLOOKUP(P14,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q14" s="7" t="str">
+        <f t="shared" ref="Q14" si="25">IF(A14&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R14" s="14">
+        <v>14</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" ref="T14" si="26">SUM(R14:S14)</f>
+        <v>14</v>
+      </c>
+      <c r="U14" s="7" t="str">
+        <f t="shared" ref="U14" si="27">IF(A14&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A15" s="8">
+        <v>43197</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="10">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="M15" s="7" t="str">
+        <f t="shared" ref="M15" si="28">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N15" s="26" t="str">
+        <f>VLOOKUP(P15,ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q15" s="7" t="str">
+        <f t="shared" ref="Q15" si="29">IF(A15&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R15" s="14">
+        <v>14</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" ref="T15" si="30">SUM(R15:S15)</f>
+        <v>14</v>
+      </c>
+      <c r="U15" s="7" t="str">
+        <f t="shared" ref="U15" si="31">IF(A15&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" s="35" customFormat="1" ht="18.75">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N16" s="26" t="e">
+        <f>VLOOKUP(P16,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N17" s="26" t="e">
+        <f>VLOOKUP(P17,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N18" s="26" t="e">
+        <f>VLOOKUP(P18,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N19" s="26" t="e">
+        <f>VLOOKUP(P19,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N20" s="26" t="e">
+        <f>VLOOKUP(P20,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N21" s="26" t="e">
+        <f>VLOOKUP(P21,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N22" s="26" t="e">
+        <f>VLOOKUP(P22,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N23" s="26" t="e">
+        <f>VLOOKUP(P23,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N24" s="26" t="e">
+        <f>VLOOKUP(P24,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N25" s="26" t="e">
+        <f>VLOOKUP(P25,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N26" s="26" t="e">
+        <f>VLOOKUP(P26,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N27" s="26" t="e">
+        <f>VLOOKUP(P27,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N28" s="26" t="e">
+        <f>VLOOKUP(P28,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N29" s="26" t="e">
+        <f>VLOOKUP(P29,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N30" s="26" t="e">
+        <f>VLOOKUP(P30,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N31" s="26" t="e">
+        <f>VLOOKUP(P31,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N32" s="26" t="e">
+        <f>VLOOKUP(P32,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N33" s="26" t="e">
+        <f>VLOOKUP(P33,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N34" s="26" t="e">
+        <f>VLOOKUP(P34,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N35" s="26" t="e">
+        <f>VLOOKUP(P35,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N36" s="26" t="e">
+        <f>VLOOKUP(P36,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>------</v>
+      </c>
+      <c r="N37" s="26" t="e">
+        <f>VLOOKUP(P37,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="7" t="str">
+        <f t="shared" ref="M38:M58" si="32">IF(A38&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>------</v>
+      </c>
+      <c r="N38" s="26" t="e">
+        <f>VLOOKUP(P38,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="7" t="str">
+        <f t="shared" ref="Q38:Q58" si="33">IF(A38&lt;&gt;"","9.6米","--")</f>
+        <v>--</v>
+      </c>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="7" t="str">
+        <f t="shared" ref="U38:U58" si="34">IF(A38&lt;&gt;"","分拣摆渡","----")</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N39" s="26" t="e">
+        <f>VLOOKUP(P39,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N40" s="26" t="e">
+        <f>VLOOKUP(P40,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N41" s="26" t="e">
+        <f>VLOOKUP(P41,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A42" s="8"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N42" s="26" t="e">
+        <f>VLOOKUP(P42,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N43" s="26" t="e">
+        <f>VLOOKUP(P43,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A44" s="8"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N44" s="26" t="e">
+        <f>VLOOKUP(P44,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N45" s="26" t="e">
+        <f>VLOOKUP(P45,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A46" s="8"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N46" s="26" t="e">
+        <f>VLOOKUP(P46,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O46" s="10"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N47" s="26" t="e">
+        <f>VLOOKUP(P47,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O47" s="10"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A48" s="8"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N48" s="26" t="e">
+        <f>VLOOKUP(P48,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O48" s="10"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A49" s="8"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N49" s="26" t="e">
+        <f>VLOOKUP(P49,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O49" s="10"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A50" s="8"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N50" s="26" t="e">
+        <f>VLOOKUP(P50,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A51" s="8"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N51" s="26" t="e">
+        <f>VLOOKUP(P51,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O51" s="10"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N52" s="26" t="e">
+        <f>VLOOKUP(P52,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O52" s="10"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A53" s="8"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N53" s="26" t="e">
+        <f>VLOOKUP(P53,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O53" s="10"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N54" s="26" t="e">
+        <f>VLOOKUP(P54,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O54" s="10"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A55" s="8"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N55" s="26" t="e">
+        <f>VLOOKUP(P55,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O55" s="10"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A56" s="8"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N56" s="26" t="e">
+        <f>VLOOKUP(P56,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O56" s="10"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A57" s="8"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N57" s="26" t="e">
+        <f>VLOOKUP(P57,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O57" s="10"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A58" s="8"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>------</v>
+      </c>
+      <c r="N58" s="26" t="e">
+        <f>VLOOKUP(P58,ch!$A$1:$B$32,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O58" s="10"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>--</v>
+      </c>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A59" s="8"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="7"/>
+    </row>
+    <row r="62" spans="1:21" ht="15"/>
+    <row r="63" spans="1:21" ht="15"/>
+    <row r="64" spans="1:21" ht="15"/>
+    <row r="65" ht="15"/>
+    <row r="66" ht="15"/>
+    <row r="67" ht="15"/>
+    <row r="68" ht="15"/>
+    <row r="69" ht="15"/>
+    <row r="70" ht="15"/>
+    <row r="71" ht="15"/>
+    <row r="72" ht="15"/>
+    <row r="73" ht="15"/>
+    <row r="74" ht="15"/>
+    <row r="75" ht="15"/>
+    <row r="76" ht="15"/>
+    <row r="77" ht="15"/>
+    <row r="78" ht="15"/>
+    <row r="79" ht="15"/>
+    <row r="80" ht="15"/>
+    <row r="81" ht="15"/>
+    <row r="82" ht="15"/>
+    <row r="83" ht="15"/>
+    <row r="84" ht="15"/>
+    <row r="85" ht="15"/>
+    <row r="86" ht="15"/>
+    <row r="87" ht="15"/>
+    <row r="88" ht="15"/>
+    <row r="89" ht="15"/>
+    <row r="90" ht="15"/>
+    <row r="91" ht="15"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I62:L1048576 I1:L1">
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L61">
+    <cfRule type="duplicateValues" dxfId="2" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:L61">
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J61">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -26089,11 +29018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="F66" activeCellId="1" sqref="A40:XFD63 F66"/>
     </sheetView>
   </sheetViews>
@@ -28209,7 +31138,7 @@
         <v>207</v>
       </c>
       <c r="K35" s="7" t="str">
-        <f>IF(A35&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="K35:K66" si="4">IF(A35&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="L35" s="26" t="str">
@@ -28223,7 +31152,7 @@
         <v>48</v>
       </c>
       <c r="O35" s="7" t="str">
-        <f t="shared" ref="O35:O98" si="4">IF(L35&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="O35:O98" si="5">IF(L35&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="P35" s="14">
@@ -28233,11 +31162,11 @@
         <v>0</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" ref="R35:R72" si="5">SUM(P35:Q35)</f>
+        <f t="shared" ref="R35:R72" si="6">SUM(P35:Q35)</f>
         <v>14</v>
       </c>
       <c r="S35" s="7" t="str">
-        <f>IF(A35&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="S35:S66" si="7">IF(A35&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28273,7 +31202,7 @@
         <v>242</v>
       </c>
       <c r="K36" s="7" t="str">
-        <f>IF(A36&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L36" s="26" t="str">
@@ -28301,7 +31230,7 @@
         <v>14</v>
       </c>
       <c r="S36" s="7" t="str">
-        <f>IF(A36&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28337,7 +31266,7 @@
         <v>250</v>
       </c>
       <c r="K37" s="7" t="str">
-        <f>IF(A37&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L37" s="26" t="str">
@@ -28365,7 +31294,7 @@
         <v>14</v>
       </c>
       <c r="S37" s="7" t="str">
-        <f>IF(A37&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28401,7 +31330,7 @@
         <v>239</v>
       </c>
       <c r="K38" s="7" t="str">
-        <f>IF(A38&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L38" s="26" t="str">
@@ -28415,7 +31344,7 @@
         <v>240</v>
       </c>
       <c r="O38" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P38" s="14">
@@ -28425,11 +31354,11 @@
         <v>0</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S38" s="7" t="str">
-        <f>IF(A38&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28465,7 +31394,7 @@
         <v>246</v>
       </c>
       <c r="K39" s="7" t="str">
-        <f>IF(A39&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L39" s="26" t="str">
@@ -28479,7 +31408,7 @@
         <v>198</v>
       </c>
       <c r="O39" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P39" s="14">
@@ -28489,11 +31418,11 @@
         <v>0</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S39" s="7" t="str">
-        <f>IF(A39&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28527,7 +31456,7 @@
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="7" t="str">
-        <f>IF(A40&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L40" s="26" t="str">
@@ -28541,7 +31470,7 @@
         <v>41</v>
       </c>
       <c r="O40" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P40" s="14">
@@ -28551,11 +31480,11 @@
         <v>0</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S40" s="7" t="str">
-        <f>IF(A40&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28589,7 +31518,7 @@
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="7" t="str">
-        <f>IF(A41&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L41" s="26" t="str">
@@ -28603,7 +31532,7 @@
         <v>41</v>
       </c>
       <c r="O41" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P41" s="14">
@@ -28613,11 +31542,11 @@
         <v>0</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S41" s="7" t="str">
-        <f>IF(A41&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28651,7 +31580,7 @@
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="7" t="str">
-        <f>IF(A42&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L42" s="26" t="str">
@@ -28665,7 +31594,7 @@
         <v>41</v>
       </c>
       <c r="O42" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P42" s="14">
@@ -28675,11 +31604,11 @@
         <v>0</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S42" s="7" t="str">
-        <f>IF(A42&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28713,7 +31642,7 @@
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="7" t="str">
-        <f>IF(A43&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L43" s="26" t="str">
@@ -28727,7 +31656,7 @@
         <v>41</v>
       </c>
       <c r="O43" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P43" s="14">
@@ -28737,11 +31666,11 @@
         <v>0</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S43" s="7" t="str">
-        <f>IF(A43&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28775,7 +31704,7 @@
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="7" t="str">
-        <f>IF(A44&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L44" s="26" t="str">
@@ -28789,7 +31718,7 @@
         <v>41</v>
       </c>
       <c r="O44" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P44" s="14">
@@ -28799,11 +31728,11 @@
         <v>0</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S44" s="7" t="str">
-        <f>IF(A44&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28837,7 +31766,7 @@
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="7" t="str">
-        <f>IF(A45&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L45" s="26" t="str">
@@ -28851,7 +31780,7 @@
         <v>41</v>
       </c>
       <c r="O45" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P45" s="14">
@@ -28861,11 +31790,11 @@
         <v>0</v>
       </c>
       <c r="R45" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S45" s="7" t="str">
-        <f>IF(A45&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28899,7 +31828,7 @@
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="7" t="str">
-        <f>IF(A46&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L46" s="26" t="str">
@@ -28913,7 +31842,7 @@
         <v>41</v>
       </c>
       <c r="O46" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P46" s="14">
@@ -28923,11 +31852,11 @@
         <v>0</v>
       </c>
       <c r="R46" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S46" s="7" t="str">
-        <f>IF(A46&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -28961,7 +31890,7 @@
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="7" t="str">
-        <f>IF(A47&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L47" s="26" t="str">
@@ -28975,7 +31904,7 @@
         <v>41</v>
       </c>
       <c r="O47" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P47" s="14">
@@ -28985,11 +31914,11 @@
         <v>0</v>
       </c>
       <c r="R47" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S47" s="7" t="str">
-        <f>IF(A47&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29023,7 +31952,7 @@
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="7" t="str">
-        <f>IF(A48&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L48" s="26" t="str">
@@ -29037,7 +31966,7 @@
         <v>41</v>
       </c>
       <c r="O48" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P48" s="14">
@@ -29047,11 +31976,11 @@
         <v>0</v>
       </c>
       <c r="R48" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S48" s="7" t="str">
-        <f>IF(A48&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29085,7 +32014,7 @@
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="7" t="str">
-        <f>IF(A49&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L49" s="26" t="str">
@@ -29099,7 +32028,7 @@
         <v>41</v>
       </c>
       <c r="O49" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P49" s="14">
@@ -29109,11 +32038,11 @@
         <v>0</v>
       </c>
       <c r="R49" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S49" s="7" t="str">
-        <f>IF(A49&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29147,7 +32076,7 @@
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="7" t="str">
-        <f>IF(A50&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L50" s="26" t="str">
@@ -29161,7 +32090,7 @@
         <v>41</v>
       </c>
       <c r="O50" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P50" s="14">
@@ -29171,11 +32100,11 @@
         <v>0</v>
       </c>
       <c r="R50" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="S50" s="7" t="str">
-        <f>IF(A50&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29209,7 +32138,7 @@
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="7" t="str">
-        <f>IF(A51&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L51" s="26" t="str">
@@ -29223,7 +32152,7 @@
         <v>41</v>
       </c>
       <c r="O51" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P51" s="14">
@@ -29233,11 +32162,11 @@
         <v>0</v>
       </c>
       <c r="R51" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S51" s="7" t="str">
-        <f>IF(A51&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29271,7 +32200,7 @@
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="7" t="str">
-        <f>IF(A52&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L52" s="26" t="str">
@@ -29285,7 +32214,7 @@
         <v>192</v>
       </c>
       <c r="O52" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P52" s="14">
@@ -29295,11 +32224,11 @@
         <v>0</v>
       </c>
       <c r="R52" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S52" s="7" t="str">
-        <f>IF(A52&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29333,7 +32262,7 @@
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="7" t="str">
-        <f>IF(A53&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L53" s="26" t="str">
@@ -29347,7 +32276,7 @@
         <v>192</v>
       </c>
       <c r="O53" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P53" s="14">
@@ -29357,11 +32286,11 @@
         <v>0</v>
       </c>
       <c r="R53" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S53" s="7" t="str">
-        <f>IF(A53&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29395,7 +32324,7 @@
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="7" t="str">
-        <f>IF(A54&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L54" s="26" t="str">
@@ -29409,7 +32338,7 @@
         <v>192</v>
       </c>
       <c r="O54" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P54" s="14">
@@ -29419,11 +32348,11 @@
         <v>0</v>
       </c>
       <c r="R54" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S54" s="7" t="str">
-        <f>IF(A54&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29457,7 +32386,7 @@
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="7" t="str">
-        <f>IF(A55&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L55" s="26" t="str">
@@ -29471,7 +32400,7 @@
         <v>192</v>
       </c>
       <c r="O55" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P55" s="14">
@@ -29481,11 +32410,11 @@
         <v>0</v>
       </c>
       <c r="R55" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S55" s="7" t="str">
-        <f>IF(A55&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29519,7 +32448,7 @@
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="7" t="str">
-        <f>IF(A56&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L56" s="26" t="str">
@@ -29533,7 +32462,7 @@
         <v>192</v>
       </c>
       <c r="O56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P56" s="14">
@@ -29543,11 +32472,11 @@
         <v>0</v>
       </c>
       <c r="R56" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S56" s="7" t="str">
-        <f>IF(A56&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29581,7 +32510,7 @@
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="7" t="str">
-        <f>IF(A57&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L57" s="26" t="str">
@@ -29595,7 +32524,7 @@
         <v>192</v>
       </c>
       <c r="O57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P57" s="14">
@@ -29605,11 +32534,11 @@
         <v>0</v>
       </c>
       <c r="R57" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S57" s="7" t="str">
-        <f>IF(A57&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29643,7 +32572,7 @@
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="7" t="str">
-        <f>IF(A58&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L58" s="26" t="str">
@@ -29657,7 +32586,7 @@
         <v>192</v>
       </c>
       <c r="O58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P58" s="14">
@@ -29667,11 +32596,11 @@
         <v>0</v>
       </c>
       <c r="R58" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S58" s="7" t="str">
-        <f>IF(A58&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29705,7 +32634,7 @@
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="7" t="str">
-        <f>IF(A59&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L59" s="26" t="str">
@@ -29719,7 +32648,7 @@
         <v>192</v>
       </c>
       <c r="O59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P59" s="14">
@@ -29729,11 +32658,11 @@
         <v>0</v>
       </c>
       <c r="R59" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S59" s="7" t="str">
-        <f>IF(A59&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29767,7 +32696,7 @@
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="7" t="str">
-        <f>IF(A60&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L60" s="26" t="str">
@@ -29781,7 +32710,7 @@
         <v>192</v>
       </c>
       <c r="O60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P60" s="14">
@@ -29791,11 +32720,11 @@
         <v>0</v>
       </c>
       <c r="R60" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="S60" s="7" t="str">
-        <f>IF(A60&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29829,7 +32758,7 @@
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="7" t="str">
-        <f>IF(A61&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L61" s="26" t="str">
@@ -29843,7 +32772,7 @@
         <v>192</v>
       </c>
       <c r="O61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P61" s="14">
@@ -29853,11 +32782,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="S61" s="7" t="str">
-        <f>IF(A61&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29891,7 +32820,7 @@
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="7" t="str">
-        <f>IF(A62&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L62" s="26" t="str">
@@ -29905,7 +32834,7 @@
         <v>192</v>
       </c>
       <c r="O62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P62" s="14">
@@ -29915,11 +32844,11 @@
         <v>0</v>
       </c>
       <c r="R62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S62" s="7" t="str">
-        <f>IF(A62&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -29953,7 +32882,7 @@
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="7" t="str">
-        <f>IF(A63&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L63" s="26" t="str">
@@ -29967,7 +32896,7 @@
         <v>192</v>
       </c>
       <c r="O63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P63" s="14">
@@ -29977,11 +32906,11 @@
         <v>0</v>
       </c>
       <c r="R63" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S63" s="7" t="str">
-        <f>IF(A63&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30017,7 +32946,7 @@
         <v>281</v>
       </c>
       <c r="K64" s="7" t="str">
-        <f>IF(A64&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L64" s="26" t="str">
@@ -30031,7 +32960,7 @@
         <v>144</v>
       </c>
       <c r="O64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P64" s="14">
@@ -30041,11 +32970,11 @@
         <v>0</v>
       </c>
       <c r="R64" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S64" s="7" t="str">
-        <f>IF(A64&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30081,7 +33010,7 @@
         <v>283</v>
       </c>
       <c r="K65" s="7" t="str">
-        <f>IF(A65&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L65" s="26" t="str">
@@ -30095,7 +33024,7 @@
         <v>144</v>
       </c>
       <c r="O65" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P65" s="14">
@@ -30105,11 +33034,11 @@
         <v>0</v>
       </c>
       <c r="R65" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="S65" s="7" t="str">
-        <f>IF(A65&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30145,7 +33074,7 @@
         <v>304</v>
       </c>
       <c r="K66" s="7" t="str">
-        <f>IF(A66&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L66" s="26" t="str">
@@ -30173,7 +33102,7 @@
         <v>12</v>
       </c>
       <c r="S66" s="7" t="str">
-        <f>IF(A66&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30209,7 +33138,7 @@
         <v>307</v>
       </c>
       <c r="K67" s="7" t="str">
-        <f>IF(A67&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="K67:K98" si="8">IF(A67&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="L67" s="26" t="str">
@@ -30223,7 +33152,7 @@
         <v>107</v>
       </c>
       <c r="O67" s="7" t="str">
-        <f t="shared" ref="O67:O70" si="6">IF(L67&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="O67:O70" si="9">IF(L67&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="P67" s="14">
@@ -30233,11 +33162,11 @@
         <v>0</v>
       </c>
       <c r="R67" s="14">
-        <f t="shared" ref="R67:R70" si="7">SUM(P67:Q67)</f>
+        <f t="shared" ref="R67:R70" si="10">SUM(P67:Q67)</f>
         <v>14</v>
       </c>
       <c r="S67" s="7" t="str">
-        <f>IF(A67&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="S67:S98" si="11">IF(A67&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30273,7 +33202,7 @@
         <v>310</v>
       </c>
       <c r="K68" s="7" t="str">
-        <f>IF(A68&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L68" s="26" t="str">
@@ -30287,7 +33216,7 @@
         <v>107</v>
       </c>
       <c r="O68" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.6米</v>
       </c>
       <c r="P68" s="14">
@@ -30297,11 +33226,11 @@
         <v>0</v>
       </c>
       <c r="R68" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="S68" s="7" t="str">
-        <f>IF(A68&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30337,7 +33266,7 @@
         <v>313</v>
       </c>
       <c r="K69" s="7" t="str">
-        <f>IF(A69&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L69" s="26" t="str">
@@ -30351,7 +33280,7 @@
         <v>107</v>
       </c>
       <c r="O69" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.6米</v>
       </c>
       <c r="P69" s="14">
@@ -30361,11 +33290,11 @@
         <v>0</v>
       </c>
       <c r="R69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="S69" s="7" t="str">
-        <f>IF(A69&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30401,7 +33330,7 @@
         <v>337</v>
       </c>
       <c r="K70" s="7" t="str">
-        <f>IF(A70&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L70" s="26" t="str">
@@ -30415,7 +33344,7 @@
         <v>58</v>
       </c>
       <c r="O70" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.6米</v>
       </c>
       <c r="P70" s="14">
@@ -30425,11 +33354,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="S70" s="7" t="str">
-        <f>IF(A70&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30465,7 +33394,7 @@
         <v>261</v>
       </c>
       <c r="K71" s="7" t="str">
-        <f>IF(A71&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L71" s="26" t="str">
@@ -30479,7 +33408,7 @@
         <v>117</v>
       </c>
       <c r="O71" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P71" s="14">
@@ -30489,11 +33418,11 @@
         <v>0</v>
       </c>
       <c r="R71" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S71" s="7" t="str">
-        <f>IF(A71&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30529,7 +33458,7 @@
         <v>262</v>
       </c>
       <c r="K72" s="7" t="str">
-        <f>IF(A72&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L72" s="26" t="str">
@@ -30543,7 +33472,7 @@
         <v>117</v>
       </c>
       <c r="O72" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P72" s="14">
@@ -30553,11 +33482,11 @@
         <v>0</v>
       </c>
       <c r="R72" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S72" s="7" t="str">
-        <f>IF(A72&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30593,7 +33522,7 @@
         <v>263</v>
       </c>
       <c r="K73" s="7" t="str">
-        <f>IF(A73&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L73" s="26" t="str">
@@ -30607,7 +33536,7 @@
         <v>117</v>
       </c>
       <c r="O73" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P73" s="14">
@@ -30617,11 +33546,11 @@
         <v>0</v>
       </c>
       <c r="R73" s="14">
-        <f t="shared" ref="R73" si="8">SUM(P73:Q73)</f>
+        <f t="shared" ref="R73" si="12">SUM(P73:Q73)</f>
         <v>14</v>
       </c>
       <c r="S73" s="7" t="str">
-        <f>IF(A73&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30657,7 +33586,7 @@
         <v>264</v>
       </c>
       <c r="K74" s="7" t="str">
-        <f>IF(A74&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L74" s="26" t="str">
@@ -30671,7 +33600,7 @@
         <v>117</v>
       </c>
       <c r="O74" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P74" s="14">
@@ -30681,11 +33610,11 @@
         <v>0</v>
       </c>
       <c r="R74" s="14">
-        <f t="shared" ref="R74:R107" si="9">SUM(P74:Q74)</f>
+        <f t="shared" ref="R74:R107" si="13">SUM(P74:Q74)</f>
         <v>14</v>
       </c>
       <c r="S74" s="7" t="str">
-        <f>IF(A74&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30721,7 +33650,7 @@
         <v>265</v>
       </c>
       <c r="K75" s="7" t="str">
-        <f>IF(A75&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L75" s="26" t="str">
@@ -30735,7 +33664,7 @@
         <v>117</v>
       </c>
       <c r="O75" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P75" s="14">
@@ -30745,11 +33674,11 @@
         <v>0</v>
       </c>
       <c r="R75" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S75" s="7" t="str">
-        <f>IF(A75&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30785,7 +33714,7 @@
         <v>267</v>
       </c>
       <c r="K76" s="7" t="str">
-        <f>IF(A76&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L76" s="26" t="str">
@@ -30799,7 +33728,7 @@
         <v>117</v>
       </c>
       <c r="O76" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P76" s="14">
@@ -30809,11 +33738,11 @@
         <v>0</v>
       </c>
       <c r="R76" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S76" s="7" t="str">
-        <f>IF(A76&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30849,7 +33778,7 @@
         <v>269</v>
       </c>
       <c r="K77" s="7" t="str">
-        <f>IF(A77&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L77" s="26" t="str">
@@ -30863,7 +33792,7 @@
         <v>117</v>
       </c>
       <c r="O77" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P77" s="14">
@@ -30873,11 +33802,11 @@
         <v>0</v>
       </c>
       <c r="R77" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S77" s="7" t="str">
-        <f>IF(A77&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30913,7 +33842,7 @@
         <v>271</v>
       </c>
       <c r="K78" s="7" t="str">
-        <f>IF(A78&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L78" s="26" t="str">
@@ -30927,7 +33856,7 @@
         <v>117</v>
       </c>
       <c r="O78" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P78" s="14">
@@ -30937,11 +33866,11 @@
         <v>0</v>
       </c>
       <c r="R78" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S78" s="7" t="str">
-        <f>IF(A78&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -30977,7 +33906,7 @@
         <v>273</v>
       </c>
       <c r="K79" s="7" t="str">
-        <f>IF(A79&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L79" s="26" t="str">
@@ -30991,7 +33920,7 @@
         <v>117</v>
       </c>
       <c r="O79" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P79" s="14">
@@ -31001,11 +33930,11 @@
         <v>0</v>
       </c>
       <c r="R79" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S79" s="7" t="str">
-        <f>IF(A79&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31041,7 +33970,7 @@
         <v>275</v>
       </c>
       <c r="K80" s="7" t="str">
-        <f>IF(A80&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L80" s="26" t="str">
@@ -31055,7 +33984,7 @@
         <v>51</v>
       </c>
       <c r="O80" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P80" s="14">
@@ -31065,11 +33994,11 @@
         <v>0</v>
       </c>
       <c r="R80" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S80" s="7" t="str">
-        <f>IF(A80&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31105,7 +34034,7 @@
         <v>278</v>
       </c>
       <c r="K81" s="7" t="str">
-        <f>IF(A81&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L81" s="26" t="str">
@@ -31119,7 +34048,7 @@
         <v>144</v>
       </c>
       <c r="O81" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P81" s="14">
@@ -31129,11 +34058,11 @@
         <v>0</v>
       </c>
       <c r="R81" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S81" s="7" t="str">
-        <f>IF(A81&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31169,7 +34098,7 @@
         <v>285</v>
       </c>
       <c r="K82" s="7" t="str">
-        <f>IF(A82&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L82" s="26" t="e">
@@ -31183,7 +34112,7 @@
         <v>79</v>
       </c>
       <c r="O82" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="P82" s="14">
@@ -31193,11 +34122,11 @@
         <v>0</v>
       </c>
       <c r="R82" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="S82" s="7" t="str">
-        <f>IF(A82&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31233,7 +34162,7 @@
         <v>288</v>
       </c>
       <c r="K83" s="7" t="str">
-        <f>IF(A83&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L83" s="26" t="e">
@@ -31247,7 +34176,7 @@
         <v>79</v>
       </c>
       <c r="O83" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="P83" s="14">
@@ -31257,11 +34186,11 @@
         <v>0</v>
       </c>
       <c r="R83" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S83" s="7" t="str">
-        <f>IF(A83&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31297,7 +34226,7 @@
         <v>291</v>
       </c>
       <c r="K84" s="7" t="str">
-        <f>IF(A84&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L84" s="26" t="e">
@@ -31311,7 +34240,7 @@
         <v>79</v>
       </c>
       <c r="O84" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="P84" s="14">
@@ -31321,11 +34250,11 @@
         <v>0</v>
       </c>
       <c r="R84" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="S84" s="7" t="str">
-        <f>IF(A84&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31361,7 +34290,7 @@
         <v>293</v>
       </c>
       <c r="K85" s="7" t="str">
-        <f>IF(A85&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L85" s="26" t="e">
@@ -31375,7 +34304,7 @@
         <v>79</v>
       </c>
       <c r="O85" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="P85" s="14">
@@ -31385,11 +34314,11 @@
         <v>0</v>
       </c>
       <c r="R85" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S85" s="7" t="str">
-        <f>IF(A85&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31425,7 +34354,7 @@
         <v>295</v>
       </c>
       <c r="K86" s="7" t="str">
-        <f>IF(A86&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L86" s="26" t="e">
@@ -31439,7 +34368,7 @@
         <v>79</v>
       </c>
       <c r="O86" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="P86" s="14">
@@ -31449,11 +34378,11 @@
         <v>0</v>
       </c>
       <c r="R86" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="S86" s="7" t="str">
-        <f>IF(A86&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31489,7 +34418,7 @@
         <v>297</v>
       </c>
       <c r="K87" s="7" t="str">
-        <f>IF(A87&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L87" s="26" t="e">
@@ -31503,7 +34432,7 @@
         <v>79</v>
       </c>
       <c r="O87" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="P87" s="14">
@@ -31513,11 +34442,11 @@
         <v>0</v>
       </c>
       <c r="R87" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S87" s="7" t="str">
-        <f>IF(A87&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31553,7 +34482,7 @@
         <v>299</v>
       </c>
       <c r="K88" s="7" t="str">
-        <f>IF(A88&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L88" s="26" t="e">
@@ -31567,7 +34496,7 @@
         <v>79</v>
       </c>
       <c r="O88" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="P88" s="14">
@@ -31577,11 +34506,11 @@
         <v>0</v>
       </c>
       <c r="R88" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S88" s="7" t="str">
-        <f>IF(A88&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31617,7 +34546,7 @@
         <v>301</v>
       </c>
       <c r="K89" s="7" t="str">
-        <f>IF(A89&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L89" s="26" t="e">
@@ -31631,7 +34560,7 @@
         <v>79</v>
       </c>
       <c r="O89" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="P89" s="14">
@@ -31641,11 +34570,11 @@
         <v>0</v>
       </c>
       <c r="R89" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S89" s="7" t="str">
-        <f>IF(A89&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31681,7 +34610,7 @@
         <v>317</v>
       </c>
       <c r="K90" s="7" t="str">
-        <f>IF(A90&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L90" s="26" t="str">
@@ -31695,7 +34624,7 @@
         <v>118</v>
       </c>
       <c r="O90" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P90" s="14">
@@ -31705,11 +34634,11 @@
         <v>0</v>
       </c>
       <c r="R90" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="S90" s="7" t="str">
-        <f>IF(A90&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31745,7 +34674,7 @@
         <v>318</v>
       </c>
       <c r="K91" s="7" t="str">
-        <f>IF(A91&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L91" s="26" t="str">
@@ -31759,7 +34688,7 @@
         <v>118</v>
       </c>
       <c r="O91" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P91" s="14">
@@ -31769,11 +34698,11 @@
         <v>0</v>
       </c>
       <c r="R91" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S91" s="7" t="str">
-        <f>IF(A91&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31809,7 +34738,7 @@
         <v>319</v>
       </c>
       <c r="K92" s="7" t="str">
-        <f>IF(A92&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L92" s="26" t="str">
@@ -31823,7 +34752,7 @@
         <v>118</v>
       </c>
       <c r="O92" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P92" s="14">
@@ -31833,11 +34762,11 @@
         <v>0</v>
       </c>
       <c r="R92" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="S92" s="7" t="str">
-        <f>IF(A92&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31873,7 +34802,7 @@
         <v>320</v>
       </c>
       <c r="K93" s="7" t="str">
-        <f>IF(A93&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L93" s="26" t="str">
@@ -31887,7 +34816,7 @@
         <v>118</v>
       </c>
       <c r="O93" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P93" s="14">
@@ -31897,11 +34826,11 @@
         <v>0</v>
       </c>
       <c r="R93" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="S93" s="7" t="str">
-        <f>IF(A93&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -31937,7 +34866,7 @@
         <v>322</v>
       </c>
       <c r="K94" s="7" t="str">
-        <f>IF(A94&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L94" s="26" t="str">
@@ -31951,7 +34880,7 @@
         <v>118</v>
       </c>
       <c r="O94" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P94" s="14">
@@ -31961,11 +34890,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="S94" s="7" t="str">
-        <f>IF(A94&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32001,7 +34930,7 @@
         <v>324</v>
       </c>
       <c r="K95" s="7" t="str">
-        <f>IF(A95&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L95" s="26" t="str">
@@ -32015,7 +34944,7 @@
         <v>118</v>
       </c>
       <c r="O95" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P95" s="14">
@@ -32025,11 +34954,11 @@
         <v>1</v>
       </c>
       <c r="R95" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="S95" s="7" t="str">
-        <f>IF(A95&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32065,7 +34994,7 @@
         <v>326</v>
       </c>
       <c r="K96" s="7" t="str">
-        <f>IF(A96&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L96" s="26" t="str">
@@ -32079,7 +35008,7 @@
         <v>118</v>
       </c>
       <c r="O96" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P96" s="14">
@@ -32089,11 +35018,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="S96" s="7" t="str">
-        <f>IF(A96&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32129,7 +35058,7 @@
         <v>328</v>
       </c>
       <c r="K97" s="7" t="str">
-        <f>IF(A97&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L97" s="26" t="str">
@@ -32143,7 +35072,7 @@
         <v>118</v>
       </c>
       <c r="O97" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P97" s="14">
@@ -32153,11 +35082,11 @@
         <v>0</v>
       </c>
       <c r="R97" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="S97" s="7" t="str">
-        <f>IF(A97&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32193,7 +35122,7 @@
         <v>341</v>
       </c>
       <c r="K98" s="7" t="str">
-        <f>IF(A98&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L98" s="26" t="str">
@@ -32207,7 +35136,7 @@
         <v>342</v>
       </c>
       <c r="O98" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
       <c r="P98" s="14">
@@ -32217,11 +35146,11 @@
         <v>0</v>
       </c>
       <c r="R98" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="S98" s="7" t="str">
-        <f>IF(A98&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32257,7 +35186,7 @@
         <v>357</v>
       </c>
       <c r="K99" s="7" t="str">
-        <f>IF(A99&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="K99:K130" si="14">IF(A99&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="L99" s="26" t="str">
@@ -32271,7 +35200,7 @@
         <v>44</v>
       </c>
       <c r="O99" s="7" t="str">
-        <f t="shared" ref="O99:O117" si="10">IF(L99&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="O99:O117" si="15">IF(L99&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="P99" s="14">
@@ -32281,11 +35210,11 @@
         <v>0</v>
       </c>
       <c r="R99" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S99" s="7" t="str">
-        <f>IF(A99&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="S99:S130" si="16">IF(A99&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32321,7 +35250,7 @@
         <v>385</v>
       </c>
       <c r="K100" s="7" t="str">
-        <f>IF(A100&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L100" s="26" t="str">
@@ -32335,7 +35264,7 @@
         <v>35</v>
       </c>
       <c r="O100" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P100" s="14">
@@ -32345,11 +35274,11 @@
         <v>0</v>
       </c>
       <c r="R100" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S100" s="7" t="str">
-        <f>IF(A100&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32385,7 +35314,7 @@
         <v>344</v>
       </c>
       <c r="K101" s="7" t="str">
-        <f>IF(A101&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L101" s="26" t="str">
@@ -32399,7 +35328,7 @@
         <v>240</v>
       </c>
       <c r="O101" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P101" s="14">
@@ -32409,11 +35338,11 @@
         <v>0</v>
       </c>
       <c r="R101" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S101" s="7" t="str">
-        <f>IF(A101&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32449,7 +35378,7 @@
         <v>353</v>
       </c>
       <c r="K102" s="7" t="str">
-        <f>IF(A102&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L102" s="26" t="str">
@@ -32463,7 +35392,7 @@
         <v>198</v>
       </c>
       <c r="O102" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P102" s="14">
@@ -32473,11 +35402,11 @@
         <v>0</v>
       </c>
       <c r="R102" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S102" s="7" t="str">
-        <f>IF(A102&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32513,7 +35442,7 @@
         <v>355</v>
       </c>
       <c r="K103" s="7" t="str">
-        <f>IF(A103&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L103" s="26" t="str">
@@ -32527,7 +35456,7 @@
         <v>58</v>
       </c>
       <c r="O103" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P103" s="14">
@@ -32537,11 +35466,11 @@
         <v>0</v>
       </c>
       <c r="R103" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S103" s="7" t="str">
-        <f>IF(A103&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32577,7 +35506,7 @@
         <v>347</v>
       </c>
       <c r="K104" s="7" t="str">
-        <f>IF(A104&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L104" s="26" t="str">
@@ -32591,7 +35520,7 @@
         <v>251</v>
       </c>
       <c r="O104" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P104" s="14">
@@ -32601,11 +35530,11 @@
         <v>0</v>
       </c>
       <c r="R104" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S104" s="7" t="str">
-        <f>IF(A104&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32641,7 +35570,7 @@
         <v>349</v>
       </c>
       <c r="K105" s="7" t="str">
-        <f>IF(A105&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L105" s="26" t="str">
@@ -32655,7 +35584,7 @@
         <v>192</v>
       </c>
       <c r="O105" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P105" s="14">
@@ -32665,11 +35594,11 @@
         <v>0</v>
       </c>
       <c r="R105" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S105" s="7" t="str">
-        <f>IF(A105&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32705,7 +35634,7 @@
         <v>351</v>
       </c>
       <c r="K106" s="7" t="str">
-        <f>IF(A106&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L106" s="26" t="str">
@@ -32719,7 +35648,7 @@
         <v>192</v>
       </c>
       <c r="O106" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P106" s="14">
@@ -32729,11 +35658,11 @@
         <v>0</v>
       </c>
       <c r="R106" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S106" s="7" t="str">
-        <f>IF(A106&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32769,7 +35698,7 @@
         <v>360</v>
       </c>
       <c r="K107" s="7" t="str">
-        <f>IF(A107&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L107" s="26" t="str">
@@ -32783,7 +35712,7 @@
         <v>240</v>
       </c>
       <c r="O107" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P107" s="14">
@@ -32793,11 +35722,11 @@
         <v>0</v>
       </c>
       <c r="R107" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S107" s="7" t="str">
-        <f>IF(A107&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32833,7 +35762,7 @@
         <v>388</v>
       </c>
       <c r="K108" s="7" t="str">
-        <f>IF(A108&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L108" s="26" t="str">
@@ -32845,7 +35774,7 @@
         <v>58</v>
       </c>
       <c r="O108" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P108" s="14">
@@ -32855,11 +35784,11 @@
         <v>0</v>
       </c>
       <c r="R108" s="14">
-        <f t="shared" ref="R108:R110" si="11">SUM(P108:Q108)</f>
+        <f t="shared" ref="R108:R110" si="17">SUM(P108:Q108)</f>
         <v>14</v>
       </c>
       <c r="S108" s="7" t="str">
-        <f>IF(A108&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32895,7 +35824,7 @@
         <v>397</v>
       </c>
       <c r="K109" s="7" t="str">
-        <f>IF(A109&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L109" s="26" t="str">
@@ -32907,7 +35836,7 @@
         <v>58</v>
       </c>
       <c r="O109" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P109" s="14">
@@ -32917,11 +35846,11 @@
         <v>0</v>
       </c>
       <c r="R109" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="S109" s="7" t="str">
-        <f>IF(A109&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -32957,7 +35886,7 @@
         <v>402</v>
       </c>
       <c r="K110" s="7" t="str">
-        <f>IF(A110&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L110" s="26" t="str">
@@ -32969,7 +35898,7 @@
         <v>118</v>
       </c>
       <c r="O110" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P110" s="14">
@@ -32979,11 +35908,11 @@
         <v>1</v>
       </c>
       <c r="R110" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="S110" s="7" t="str">
-        <f>IF(A110&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33019,7 +35948,7 @@
         <v>405</v>
       </c>
       <c r="K111" s="7" t="str">
-        <f>IF(A111&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L111" s="26" t="str">
@@ -33031,7 +35960,7 @@
         <v>118</v>
       </c>
       <c r="O111" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P111" s="14">
@@ -33041,11 +35970,11 @@
         <v>0</v>
       </c>
       <c r="R111" s="14">
-        <f t="shared" ref="R111:R117" si="12">SUM(P111:Q111)</f>
+        <f t="shared" ref="R111:R117" si="18">SUM(P111:Q111)</f>
         <v>2</v>
       </c>
       <c r="S111" s="7" t="str">
-        <f>IF(A111&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33081,7 +36010,7 @@
         <v>407</v>
       </c>
       <c r="K112" s="7" t="str">
-        <f>IF(A112&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L112" s="26" t="str">
@@ -33093,7 +36022,7 @@
         <v>118</v>
       </c>
       <c r="O112" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P112" s="14">
@@ -33103,11 +36032,11 @@
         <v>0</v>
       </c>
       <c r="R112" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S112" s="7" t="str">
-        <f>IF(A112&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33143,7 +36072,7 @@
         <v>409</v>
       </c>
       <c r="K113" s="7" t="str">
-        <f>IF(A113&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L113" s="26" t="str">
@@ -33155,7 +36084,7 @@
         <v>118</v>
       </c>
       <c r="O113" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P113" s="14">
@@ -33165,11 +36094,11 @@
         <v>1</v>
       </c>
       <c r="R113" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="S113" s="7" t="str">
-        <f>IF(A113&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33205,7 +36134,7 @@
         <v>411</v>
       </c>
       <c r="K114" s="7" t="str">
-        <f>IF(A114&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L114" s="26" t="str">
@@ -33217,7 +36146,7 @@
         <v>118</v>
       </c>
       <c r="O114" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P114" s="14">
@@ -33227,11 +36156,11 @@
         <v>0</v>
       </c>
       <c r="R114" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S114" s="7" t="str">
-        <f>IF(A114&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33267,7 +36196,7 @@
         <v>413</v>
       </c>
       <c r="K115" s="7" t="str">
-        <f>IF(A115&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L115" s="26" t="str">
@@ -33279,7 +36208,7 @@
         <v>118</v>
       </c>
       <c r="O115" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P115" s="14">
@@ -33289,11 +36218,11 @@
         <v>0</v>
       </c>
       <c r="R115" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="S115" s="7" t="str">
-        <f>IF(A115&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33329,7 +36258,7 @@
         <v>415</v>
       </c>
       <c r="K116" s="7" t="str">
-        <f>IF(A116&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L116" s="26" t="str">
@@ -33341,7 +36270,7 @@
         <v>118</v>
       </c>
       <c r="O116" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P116" s="14">
@@ -33351,11 +36280,11 @@
         <v>0</v>
       </c>
       <c r="R116" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S116" s="7" t="str">
-        <f>IF(A116&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33391,7 +36320,7 @@
         <v>417</v>
       </c>
       <c r="K117" s="7" t="str">
-        <f>IF(A117&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L117" s="26" t="str">
@@ -33403,7 +36332,7 @@
         <v>118</v>
       </c>
       <c r="O117" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.6米</v>
       </c>
       <c r="P117" s="14">
@@ -33413,11 +36342,11 @@
         <v>1</v>
       </c>
       <c r="R117" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S117" s="7" t="str">
-        <f>IF(A117&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33453,7 +36382,7 @@
         <v>372</v>
       </c>
       <c r="K118" s="7" t="str">
-        <f>IF(A118&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L118" s="26" t="s">
@@ -33480,7 +36409,7 @@
         <v>11</v>
       </c>
       <c r="S118" s="7" t="str">
-        <f>IF(A118&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33516,7 +36445,7 @@
         <v>375</v>
       </c>
       <c r="K119" s="7" t="str">
-        <f>IF(A119&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L119" s="26" t="str">
@@ -33530,7 +36459,7 @@
         <v>373</v>
       </c>
       <c r="O119" s="7" t="str">
-        <f t="shared" ref="O119:O130" si="13">IF(L119&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="O119:O130" si="19">IF(L119&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="P119" s="14">
@@ -33544,7 +36473,7 @@
         <v>14</v>
       </c>
       <c r="S119" s="7" t="str">
-        <f>IF(A119&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33580,7 +36509,7 @@
         <v>378</v>
       </c>
       <c r="K120" s="7" t="str">
-        <f>IF(A120&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L120" s="26" t="str">
@@ -33594,7 +36523,7 @@
         <v>373</v>
       </c>
       <c r="O120" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P120" s="14">
@@ -33604,11 +36533,11 @@
         <v>0</v>
       </c>
       <c r="R120" s="14">
-        <f t="shared" ref="R120:R122" si="14">SUM(P120:Q120)</f>
+        <f t="shared" ref="R120:R122" si="20">SUM(P120:Q120)</f>
         <v>14</v>
       </c>
       <c r="S120" s="7" t="str">
-        <f>IF(A120&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33644,7 +36573,7 @@
         <v>380</v>
       </c>
       <c r="K121" s="7" t="str">
-        <f>IF(A121&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L121" s="26" t="str">
@@ -33658,7 +36587,7 @@
         <v>373</v>
       </c>
       <c r="O121" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P121" s="14">
@@ -33668,11 +36597,11 @@
         <v>0</v>
       </c>
       <c r="R121" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="S121" s="7" t="str">
-        <f>IF(A121&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33708,7 +36637,7 @@
         <v>382</v>
       </c>
       <c r="K122" s="7" t="str">
-        <f>IF(A122&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L122" s="26" t="str">
@@ -33722,7 +36651,7 @@
         <v>373</v>
       </c>
       <c r="O122" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P122" s="14">
@@ -33732,11 +36661,11 @@
         <v>0</v>
       </c>
       <c r="R122" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="S122" s="7" t="str">
-        <f>IF(A122&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33772,7 +36701,7 @@
         <v>384</v>
       </c>
       <c r="K123" s="7" t="str">
-        <f>IF(A123&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L123" s="26" t="str">
@@ -33784,7 +36713,7 @@
         <v>373</v>
       </c>
       <c r="O123" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P123" s="14">
@@ -33794,11 +36723,11 @@
         <v>0</v>
       </c>
       <c r="R123" s="14">
-        <f t="shared" ref="R123:R130" si="15">SUM(P123:Q123)</f>
+        <f t="shared" ref="R123:R130" si="21">SUM(P123:Q123)</f>
         <v>14</v>
       </c>
       <c r="S123" s="7" t="str">
-        <f>IF(A123&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33834,7 +36763,7 @@
         <v>394</v>
       </c>
       <c r="K124" s="7" t="str">
-        <f>IF(A124&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L124" s="26" t="str">
@@ -33846,7 +36775,7 @@
         <v>58</v>
       </c>
       <c r="O124" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P124" s="14">
@@ -33856,11 +36785,11 @@
         <v>0</v>
       </c>
       <c r="R124" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="S124" s="7" t="str">
-        <f>IF(A124&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33896,7 +36825,7 @@
         <v>419</v>
       </c>
       <c r="K125" s="7" t="str">
-        <f>IF(A125&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L125" s="26" t="str">
@@ -33908,7 +36837,7 @@
         <v>117</v>
       </c>
       <c r="O125" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P125" s="14">
@@ -33918,11 +36847,11 @@
         <v>0</v>
       </c>
       <c r="R125" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="S125" s="7" t="str">
-        <f>IF(A125&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -33958,7 +36887,7 @@
         <v>421</v>
       </c>
       <c r="K126" s="7" t="str">
-        <f>IF(A126&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L126" s="26" t="str">
@@ -33970,7 +36899,7 @@
         <v>117</v>
       </c>
       <c r="O126" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P126" s="14">
@@ -33980,11 +36909,11 @@
         <v>0</v>
       </c>
       <c r="R126" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="S126" s="7" t="str">
-        <f>IF(A126&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34020,7 +36949,7 @@
         <v>423</v>
       </c>
       <c r="K127" s="7" t="str">
-        <f>IF(A127&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L127" s="26" t="str">
@@ -34032,7 +36961,7 @@
         <v>117</v>
       </c>
       <c r="O127" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P127" s="14">
@@ -34042,11 +36971,11 @@
         <v>0</v>
       </c>
       <c r="R127" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="S127" s="7" t="str">
-        <f>IF(A127&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34082,7 +37011,7 @@
         <v>425</v>
       </c>
       <c r="K128" s="7" t="str">
-        <f>IF(A128&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L128" s="26" t="str">
@@ -34094,7 +37023,7 @@
         <v>117</v>
       </c>
       <c r="O128" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P128" s="14">
@@ -34104,11 +37033,11 @@
         <v>0</v>
       </c>
       <c r="R128" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="S128" s="7" t="str">
-        <f>IF(A128&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34144,7 +37073,7 @@
         <v>427</v>
       </c>
       <c r="K129" s="7" t="str">
-        <f>IF(A129&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L129" s="26" t="str">
@@ -34156,7 +37085,7 @@
         <v>117</v>
       </c>
       <c r="O129" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P129" s="14">
@@ -34166,11 +37095,11 @@
         <v>0</v>
       </c>
       <c r="R129" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="S129" s="7" t="str">
-        <f>IF(A129&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34206,7 +37135,7 @@
         <v>429</v>
       </c>
       <c r="K130" s="7" t="str">
-        <f>IF(A130&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="14"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L130" s="26" t="str">
@@ -34218,7 +37147,7 @@
         <v>117</v>
       </c>
       <c r="O130" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.6米</v>
       </c>
       <c r="P130" s="14">
@@ -34228,11 +37157,11 @@
         <v>0</v>
       </c>
       <c r="R130" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="S130" s="7" t="str">
-        <f>IF(A130&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="16"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34268,7 +37197,7 @@
         <v>433</v>
       </c>
       <c r="K131" s="7" t="str">
-        <f>IF(A131&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="K131:K160" si="22">IF(A131&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="L131" s="26" t="str">
@@ -34282,7 +37211,7 @@
         <v>51</v>
       </c>
       <c r="O131" s="7" t="str">
-        <f>IF(A131&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="O131:O160" si="23">IF(A131&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="P131" s="14">
@@ -34292,11 +37221,11 @@
         <v>0</v>
       </c>
       <c r="R131" s="14">
-        <f t="shared" ref="R131:R160" si="16">SUM(P131:Q131)</f>
+        <f t="shared" ref="R131:R160" si="24">SUM(P131:Q131)</f>
         <v>8</v>
       </c>
       <c r="S131" s="7" t="str">
-        <f>IF(A131&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="S131:S160" si="25">IF(A131&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34332,7 +37261,7 @@
         <v>435</v>
       </c>
       <c r="K132" s="7" t="str">
-        <f>IF(A132&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L132" s="26" t="str">
@@ -34346,7 +37275,7 @@
         <v>243</v>
       </c>
       <c r="O132" s="7" t="str">
-        <f>IF(A132&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P132" s="14">
@@ -34356,11 +37285,11 @@
         <v>0</v>
       </c>
       <c r="R132" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S132" s="7" t="str">
-        <f>IF(A132&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34396,7 +37325,7 @@
         <v>437</v>
       </c>
       <c r="K133" s="7" t="str">
-        <f>IF(A133&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L133" s="26" t="str">
@@ -34410,7 +37339,7 @@
         <v>48</v>
       </c>
       <c r="O133" s="7" t="str">
-        <f>IF(A133&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P133" s="14">
@@ -34420,11 +37349,11 @@
         <v>0</v>
       </c>
       <c r="R133" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S133" s="7" t="str">
-        <f>IF(A133&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34460,7 +37389,7 @@
         <v>454</v>
       </c>
       <c r="K134" s="7" t="str">
-        <f>IF(A134&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L134" s="26" t="str">
@@ -34474,7 +37403,7 @@
         <v>198</v>
       </c>
       <c r="O134" s="7" t="str">
-        <f>IF(A134&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P134" s="14">
@@ -34488,7 +37417,7 @@
         <v>14</v>
       </c>
       <c r="S134" s="7" t="str">
-        <f>IF(A134&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34524,7 +37453,7 @@
         <v>456</v>
       </c>
       <c r="K135" s="7" t="str">
-        <f>IF(A135&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L135" s="26" t="str">
@@ -34538,7 +37467,7 @@
         <v>58</v>
       </c>
       <c r="O135" s="7" t="str">
-        <f>IF(A135&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P135" s="14">
@@ -34552,7 +37481,7 @@
         <v>12</v>
       </c>
       <c r="S135" s="7" t="str">
-        <f>IF(A135&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34588,7 +37517,7 @@
         <v>461</v>
       </c>
       <c r="K136" s="7" t="str">
-        <f>IF(A136&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L136" s="26" t="str">
@@ -34602,7 +37531,7 @@
         <v>58</v>
       </c>
       <c r="O136" s="7" t="str">
-        <f>IF(A136&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P136" s="14">
@@ -34612,11 +37541,11 @@
         <v>0</v>
       </c>
       <c r="R136" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S136" s="7" t="str">
-        <f>IF(A136&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34652,7 +37581,7 @@
         <v>463</v>
       </c>
       <c r="K137" s="7" t="str">
-        <f>IF(A137&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L137" s="26" t="str">
@@ -34666,7 +37595,7 @@
         <v>240</v>
       </c>
       <c r="O137" s="7" t="str">
-        <f>IF(A137&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P137" s="14">
@@ -34676,11 +37605,11 @@
         <v>0</v>
       </c>
       <c r="R137" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="S137" s="7" t="str">
-        <f>IF(A137&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34716,7 +37645,7 @@
         <v>465</v>
       </c>
       <c r="K138" s="7" t="str">
-        <f>IF(A138&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L138" s="26" t="str">
@@ -34730,7 +37659,7 @@
         <v>240</v>
       </c>
       <c r="O138" s="7" t="str">
-        <f>IF(A138&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P138" s="14">
@@ -34740,11 +37669,11 @@
         <v>0</v>
       </c>
       <c r="R138" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="S138" s="7" t="str">
-        <f>IF(A138&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34780,7 +37709,7 @@
         <v>467</v>
       </c>
       <c r="K139" s="7" t="str">
-        <f>IF(A139&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L139" s="26" t="str">
@@ -34794,7 +37723,7 @@
         <v>240</v>
       </c>
       <c r="O139" s="7" t="str">
-        <f>IF(A139&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P139" s="14">
@@ -34804,11 +37733,11 @@
         <v>0</v>
       </c>
       <c r="R139" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S139" s="7" t="str">
-        <f>IF(A139&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34844,7 +37773,7 @@
         <v>476</v>
       </c>
       <c r="K140" s="7" t="str">
-        <f>IF(A140&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L140" s="26" t="str">
@@ -34858,7 +37787,7 @@
         <v>373</v>
       </c>
       <c r="O140" s="7" t="str">
-        <f>IF(A140&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P140" s="14">
@@ -34868,11 +37797,11 @@
         <v>0</v>
       </c>
       <c r="R140" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="S140" s="7" t="str">
-        <f>IF(A140&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34908,7 +37837,7 @@
         <v>443</v>
       </c>
       <c r="K141" s="7" t="str">
-        <f>IF(A141&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L141" s="26" t="str">
@@ -34922,7 +37851,7 @@
         <v>117</v>
       </c>
       <c r="O141" s="7" t="str">
-        <f>IF(A141&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P141" s="14">
@@ -34932,11 +37861,11 @@
         <v>0</v>
       </c>
       <c r="R141" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="S141" s="7" t="str">
-        <f>IF(A141&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -34972,7 +37901,7 @@
         <v>440</v>
       </c>
       <c r="K142" s="7" t="str">
-        <f>IF(A142&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L142" s="26" t="str">
@@ -34986,7 +37915,7 @@
         <v>117</v>
       </c>
       <c r="O142" s="7" t="str">
-        <f>IF(A142&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P142" s="14">
@@ -34996,11 +37925,11 @@
         <v>0</v>
       </c>
       <c r="R142" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S142" s="7" t="str">
-        <f>IF(A142&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35036,7 +37965,7 @@
         <v>445</v>
       </c>
       <c r="K143" s="7" t="str">
-        <f>IF(A143&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L143" s="26" t="str">
@@ -35050,7 +37979,7 @@
         <v>117</v>
       </c>
       <c r="O143" s="7" t="str">
-        <f>IF(A143&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P143" s="14">
@@ -35060,11 +37989,11 @@
         <v>0</v>
       </c>
       <c r="R143" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S143" s="7" t="str">
-        <f>IF(A143&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35100,7 +38029,7 @@
         <v>447</v>
       </c>
       <c r="K144" s="7" t="str">
-        <f>IF(A144&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L144" s="26" t="str">
@@ -35114,7 +38043,7 @@
         <v>117</v>
       </c>
       <c r="O144" s="7" t="str">
-        <f>IF(A144&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P144" s="14">
@@ -35124,11 +38053,11 @@
         <v>0</v>
       </c>
       <c r="R144" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S144" s="7" t="str">
-        <f>IF(A144&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35164,7 +38093,7 @@
         <v>449</v>
       </c>
       <c r="K145" s="7" t="str">
-        <f>IF(A145&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L145" s="26" t="str">
@@ -35178,7 +38107,7 @@
         <v>117</v>
       </c>
       <c r="O145" s="7" t="str">
-        <f>IF(A145&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P145" s="14">
@@ -35188,11 +38117,11 @@
         <v>0</v>
       </c>
       <c r="R145" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S145" s="7" t="str">
-        <f>IF(A145&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35228,7 +38157,7 @@
         <v>451</v>
       </c>
       <c r="K146" s="7" t="str">
-        <f>IF(A146&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L146" s="26" t="str">
@@ -35242,7 +38171,7 @@
         <v>117</v>
       </c>
       <c r="O146" s="7" t="str">
-        <f>IF(A146&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P146" s="14">
@@ -35252,11 +38181,11 @@
         <v>0</v>
       </c>
       <c r="R146" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S146" s="7" t="str">
-        <f>IF(A146&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35292,7 +38221,7 @@
         <v>459</v>
       </c>
       <c r="K147" s="7" t="str">
-        <f>IF(A147&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L147" s="26" t="str">
@@ -35306,7 +38235,7 @@
         <v>58</v>
       </c>
       <c r="O147" s="7" t="str">
-        <f>IF(A147&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P147" s="14">
@@ -35316,11 +38245,11 @@
         <v>0</v>
       </c>
       <c r="R147" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S147" s="7" t="str">
-        <f>IF(A147&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35356,7 +38285,7 @@
         <v>470</v>
       </c>
       <c r="K148" s="7" t="str">
-        <f>IF(A148&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L148" s="26" t="str">
@@ -35370,7 +38299,7 @@
         <v>373</v>
       </c>
       <c r="O148" s="7" t="str">
-        <f>IF(A148&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P148" s="14">
@@ -35380,11 +38309,11 @@
         <v>0</v>
       </c>
       <c r="R148" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="S148" s="7" t="str">
-        <f>IF(A148&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35420,7 +38349,7 @@
         <v>472</v>
       </c>
       <c r="K149" s="7" t="str">
-        <f>IF(A149&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L149" s="26" t="str">
@@ -35434,7 +38363,7 @@
         <v>373</v>
       </c>
       <c r="O149" s="7" t="str">
-        <f>IF(A149&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P149" s="14">
@@ -35444,11 +38373,11 @@
         <v>0</v>
       </c>
       <c r="R149" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S149" s="7" t="str">
-        <f>IF(A149&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35484,7 +38413,7 @@
         <v>474</v>
       </c>
       <c r="K150" s="7" t="str">
-        <f>IF(A150&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L150" s="26" t="str">
@@ -35498,7 +38427,7 @@
         <v>373</v>
       </c>
       <c r="O150" s="7" t="str">
-        <f>IF(A150&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P150" s="14">
@@ -35508,11 +38437,11 @@
         <v>0</v>
       </c>
       <c r="R150" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="S150" s="7" t="str">
-        <f>IF(A150&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35548,7 +38477,7 @@
         <v>478</v>
       </c>
       <c r="K151" s="7" t="str">
-        <f>IF(A151&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L151" s="26" t="str">
@@ -35562,7 +38491,7 @@
         <v>373</v>
       </c>
       <c r="O151" s="7" t="str">
-        <f>IF(A151&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P151" s="14">
@@ -35572,11 +38501,11 @@
         <v>0</v>
       </c>
       <c r="R151" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="S151" s="7" t="str">
-        <f>IF(A151&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35612,7 +38541,7 @@
         <v>480</v>
       </c>
       <c r="K152" s="7" t="str">
-        <f>IF(A152&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L152" s="26" t="str">
@@ -35626,7 +38555,7 @@
         <v>373</v>
       </c>
       <c r="O152" s="7" t="str">
-        <f>IF(A152&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P152" s="14">
@@ -35636,11 +38565,11 @@
         <v>0</v>
       </c>
       <c r="R152" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="S152" s="7" t="str">
-        <f>IF(A152&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35676,7 +38605,7 @@
         <v>484</v>
       </c>
       <c r="K153" s="7" t="str">
-        <f>IF(A153&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L153" s="26" t="str">
@@ -35690,7 +38619,7 @@
         <v>118</v>
       </c>
       <c r="O153" s="7" t="str">
-        <f>IF(A153&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P153" s="14">
@@ -35700,11 +38629,11 @@
         <v>0</v>
       </c>
       <c r="R153" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S153" s="7" t="str">
-        <f>IF(A153&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35740,7 +38669,7 @@
         <v>486</v>
       </c>
       <c r="K154" s="7" t="str">
-        <f>IF(A154&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L154" s="26" t="str">
@@ -35754,7 +38683,7 @@
         <v>118</v>
       </c>
       <c r="O154" s="7" t="str">
-        <f>IF(A154&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P154" s="14">
@@ -35764,11 +38693,11 @@
         <v>1</v>
       </c>
       <c r="R154" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="S154" s="7" t="str">
-        <f>IF(A154&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35804,7 +38733,7 @@
         <v>488</v>
       </c>
       <c r="K155" s="7" t="str">
-        <f>IF(A155&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L155" s="26" t="str">
@@ -35818,7 +38747,7 @@
         <v>118</v>
       </c>
       <c r="O155" s="7" t="str">
-        <f>IF(A155&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P155" s="14">
@@ -35828,11 +38757,11 @@
         <v>0</v>
       </c>
       <c r="R155" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S155" s="7" t="str">
-        <f>IF(A155&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35868,7 +38797,7 @@
         <v>490</v>
       </c>
       <c r="K156" s="7" t="str">
-        <f>IF(A156&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L156" s="26" t="str">
@@ -35882,7 +38811,7 @@
         <v>118</v>
       </c>
       <c r="O156" s="7" t="str">
-        <f>IF(A156&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P156" s="14">
@@ -35892,11 +38821,11 @@
         <v>0</v>
       </c>
       <c r="R156" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S156" s="7" t="str">
-        <f>IF(A156&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35932,7 +38861,7 @@
         <v>492</v>
       </c>
       <c r="K157" s="7" t="str">
-        <f>IF(A157&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L157" s="26" t="str">
@@ -35946,7 +38875,7 @@
         <v>118</v>
       </c>
       <c r="O157" s="7" t="str">
-        <f>IF(A157&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P157" s="14">
@@ -35956,11 +38885,11 @@
         <v>0</v>
       </c>
       <c r="R157" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S157" s="7" t="str">
-        <f>IF(A157&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -35996,7 +38925,7 @@
         <v>494</v>
       </c>
       <c r="K158" s="7" t="str">
-        <f>IF(A158&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L158" s="26" t="str">
@@ -36010,7 +38939,7 @@
         <v>118</v>
       </c>
       <c r="O158" s="7" t="str">
-        <f>IF(A158&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P158" s="14">
@@ -36020,11 +38949,11 @@
         <v>0</v>
       </c>
       <c r="R158" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S158" s="7" t="str">
-        <f>IF(A158&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36060,7 +38989,7 @@
         <v>496</v>
       </c>
       <c r="K159" s="7" t="str">
-        <f>IF(A159&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L159" s="26" t="str">
@@ -36074,7 +39003,7 @@
         <v>118</v>
       </c>
       <c r="O159" s="7" t="str">
-        <f>IF(A159&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P159" s="14">
@@ -36084,11 +39013,11 @@
         <v>1</v>
       </c>
       <c r="R159" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="S159" s="7" t="str">
-        <f>IF(A159&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36124,7 +39053,7 @@
         <v>498</v>
       </c>
       <c r="K160" s="7" t="str">
-        <f>IF(A160&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="22"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L160" s="26" t="str">
@@ -36138,7 +39067,7 @@
         <v>118</v>
       </c>
       <c r="O160" s="7" t="str">
-        <f>IF(A160&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="23"/>
         <v>9.6米</v>
       </c>
       <c r="P160" s="14">
@@ -36148,11 +39077,11 @@
         <v>0</v>
       </c>
       <c r="R160" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S160" s="7" t="str">
-        <f>IF(A160&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="25"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36191,7 +39120,7 @@
         <v>691</v>
       </c>
       <c r="L161" s="7" t="str">
-        <f>IF(A161&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="L161:L192" si="26">IF(A161&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M161" s="26" t="str">
@@ -36205,7 +39134,7 @@
         <v>144</v>
       </c>
       <c r="P161" s="7" t="str">
-        <f>IF(A161&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="P161:P192" si="27">IF(A161&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="Q161" s="14">
@@ -36215,11 +39144,11 @@
         <v>0</v>
       </c>
       <c r="S161" s="14">
-        <f t="shared" ref="S161:S189" si="17">SUM(Q161:R161)</f>
+        <f t="shared" ref="S161:S189" si="28">SUM(Q161:R161)</f>
         <v>11</v>
       </c>
       <c r="T161" s="7" t="str">
-        <f>IF(A161&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="T161:T192" si="29">IF(A161&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36258,7 +39187,7 @@
         <v>692</v>
       </c>
       <c r="L162" s="7" t="str">
-        <f>IF(A162&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M162" s="26" t="str">
@@ -36272,7 +39201,7 @@
         <v>251</v>
       </c>
       <c r="P162" s="7" t="str">
-        <f>IF(A162&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q162" s="14">
@@ -36282,11 +39211,11 @@
         <v>0</v>
       </c>
       <c r="S162" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T162" s="7" t="str">
-        <f>IF(A162&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36325,7 +39254,7 @@
         <v>693</v>
       </c>
       <c r="L163" s="7" t="str">
-        <f>IF(A163&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M163" s="26" t="str">
@@ -36339,7 +39268,7 @@
         <v>192</v>
       </c>
       <c r="P163" s="7" t="str">
-        <f>IF(A163&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q163" s="14">
@@ -36349,11 +39278,11 @@
         <v>0</v>
       </c>
       <c r="S163" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="T163" s="7" t="str">
-        <f>IF(A163&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36392,7 +39321,7 @@
         <v>694</v>
       </c>
       <c r="L164" s="7" t="str">
-        <f>IF(A164&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M164" s="26" t="str">
@@ -36406,7 +39335,7 @@
         <v>66</v>
       </c>
       <c r="P164" s="7" t="str">
-        <f>IF(A164&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q164" s="14">
@@ -36416,11 +39345,11 @@
         <v>0</v>
       </c>
       <c r="S164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="T164" s="7" t="str">
-        <f>IF(A164&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36459,7 +39388,7 @@
         <v>695</v>
       </c>
       <c r="L165" s="7" t="str">
-        <f>IF(A165&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M165" s="26" t="str">
@@ -36473,7 +39402,7 @@
         <v>251</v>
       </c>
       <c r="P165" s="7" t="str">
-        <f>IF(A165&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q165" s="14">
@@ -36483,11 +39412,11 @@
         <v>0</v>
       </c>
       <c r="S165" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="T165" s="7" t="str">
-        <f>IF(A165&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36526,7 +39455,7 @@
         <v>696</v>
       </c>
       <c r="L166" s="7" t="str">
-        <f>IF(A166&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M166" s="26" t="str">
@@ -36540,7 +39469,7 @@
         <v>58</v>
       </c>
       <c r="P166" s="7" t="str">
-        <f>IF(A166&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q166" s="14">
@@ -36550,11 +39479,11 @@
         <v>0</v>
       </c>
       <c r="S166" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="T166" s="7" t="str">
-        <f>IF(A166&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36593,7 +39522,7 @@
         <v>697</v>
       </c>
       <c r="L167" s="7" t="str">
-        <f>IF(A167&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M167" s="26" t="str">
@@ -36607,7 +39536,7 @@
         <v>240</v>
       </c>
       <c r="P167" s="7" t="str">
-        <f>IF(A167&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q167" s="14">
@@ -36617,11 +39546,11 @@
         <v>0</v>
       </c>
       <c r="S167" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="T167" s="7" t="str">
-        <f>IF(A167&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36660,7 +39589,7 @@
         <v>698</v>
       </c>
       <c r="L168" s="7" t="str">
-        <f>IF(A168&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M168" s="26" t="str">
@@ -36674,7 +39603,7 @@
         <v>58</v>
       </c>
       <c r="P168" s="7" t="str">
-        <f>IF(A168&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q168" s="14">
@@ -36684,11 +39613,11 @@
         <v>0</v>
       </c>
       <c r="S168" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="T168" s="7" t="str">
-        <f>IF(A168&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36727,7 +39656,7 @@
         <v>699</v>
       </c>
       <c r="L169" s="7" t="str">
-        <f>IF(A169&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M169" s="26" t="str">
@@ -36741,7 +39670,7 @@
         <v>373</v>
       </c>
       <c r="P169" s="7" t="str">
-        <f>IF(A169&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q169" s="14">
@@ -36751,11 +39680,11 @@
         <v>0</v>
       </c>
       <c r="S169" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="T169" s="7" t="str">
-        <f>IF(A169&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36794,7 +39723,7 @@
         <v>700</v>
       </c>
       <c r="L170" s="7" t="str">
-        <f>IF(A170&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M170" s="26" t="str">
@@ -36808,7 +39737,7 @@
         <v>373</v>
       </c>
       <c r="P170" s="7" t="str">
-        <f>IF(A170&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q170" s="14">
@@ -36818,11 +39747,11 @@
         <v>0</v>
       </c>
       <c r="S170" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T170" s="7" t="str">
-        <f>IF(A170&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36861,7 +39790,7 @@
         <v>701</v>
       </c>
       <c r="L171" s="7" t="str">
-        <f>IF(A171&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M171" s="26" t="str">
@@ -36875,7 +39804,7 @@
         <v>373</v>
       </c>
       <c r="P171" s="7" t="str">
-        <f>IF(A171&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q171" s="14">
@@ -36885,11 +39814,11 @@
         <v>0</v>
       </c>
       <c r="S171" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T171" s="7" t="str">
-        <f>IF(A171&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36928,7 +39857,7 @@
         <v>702</v>
       </c>
       <c r="L172" s="7" t="str">
-        <f>IF(A172&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M172" s="26" t="str">
@@ -36942,7 +39871,7 @@
         <v>373</v>
       </c>
       <c r="P172" s="7" t="str">
-        <f>IF(A172&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q172" s="14">
@@ -36952,11 +39881,11 @@
         <v>0</v>
       </c>
       <c r="S172" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T172" s="7" t="str">
-        <f>IF(A172&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -36995,7 +39924,7 @@
         <v>703</v>
       </c>
       <c r="L173" s="7" t="str">
-        <f>IF(A173&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M173" s="26" t="str">
@@ -37009,7 +39938,7 @@
         <v>373</v>
       </c>
       <c r="P173" s="7" t="str">
-        <f>IF(A173&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q173" s="14">
@@ -37019,11 +39948,11 @@
         <v>0</v>
       </c>
       <c r="S173" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="T173" s="7" t="str">
-        <f>IF(A173&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37062,7 +39991,7 @@
         <v>704</v>
       </c>
       <c r="L174" s="7" t="str">
-        <f>IF(A174&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M174" s="26" t="str">
@@ -37076,7 +40005,7 @@
         <v>117</v>
       </c>
       <c r="P174" s="7" t="str">
-        <f>IF(A174&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q174" s="14">
@@ -37086,11 +40015,11 @@
         <v>0</v>
       </c>
       <c r="S174" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T174" s="7" t="str">
-        <f>IF(A174&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37129,7 +40058,7 @@
         <v>705</v>
       </c>
       <c r="L175" s="7" t="str">
-        <f>IF(A175&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M175" s="26" t="str">
@@ -37143,7 +40072,7 @@
         <v>117</v>
       </c>
       <c r="P175" s="7" t="str">
-        <f>IF(A175&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q175" s="14">
@@ -37153,11 +40082,11 @@
         <v>0</v>
       </c>
       <c r="S175" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T175" s="7" t="str">
-        <f>IF(A175&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37196,7 +40125,7 @@
         <v>706</v>
       </c>
       <c r="L176" s="7" t="str">
-        <f>IF(A176&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M176" s="26" t="str">
@@ -37210,7 +40139,7 @@
         <v>117</v>
       </c>
       <c r="P176" s="7" t="str">
-        <f>IF(A176&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q176" s="14">
@@ -37220,11 +40149,11 @@
         <v>0</v>
       </c>
       <c r="S176" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T176" s="7" t="str">
-        <f>IF(A176&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37263,7 +40192,7 @@
         <v>707</v>
       </c>
       <c r="L177" s="7" t="str">
-        <f>IF(A177&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M177" s="26" t="str">
@@ -37277,7 +40206,7 @@
         <v>117</v>
       </c>
       <c r="P177" s="7" t="str">
-        <f>IF(A177&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q177" s="14">
@@ -37287,11 +40216,11 @@
         <v>0</v>
       </c>
       <c r="S177" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T177" s="7" t="str">
-        <f>IF(A177&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37330,7 +40259,7 @@
         <v>708</v>
       </c>
       <c r="L178" s="7" t="str">
-        <f>IF(A178&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M178" s="26" t="str">
@@ -37344,7 +40273,7 @@
         <v>117</v>
       </c>
       <c r="P178" s="7" t="str">
-        <f>IF(A178&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q178" s="14">
@@ -37354,11 +40283,11 @@
         <v>0</v>
       </c>
       <c r="S178" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T178" s="7" t="str">
-        <f>IF(A178&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37397,7 +40326,7 @@
         <v>709</v>
       </c>
       <c r="L179" s="7" t="str">
-        <f>IF(A179&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M179" s="26" t="str">
@@ -37411,7 +40340,7 @@
         <v>117</v>
       </c>
       <c r="P179" s="7" t="str">
-        <f>IF(A179&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q179" s="14">
@@ -37421,11 +40350,11 @@
         <v>0</v>
       </c>
       <c r="S179" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T179" s="7" t="str">
-        <f>IF(A179&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37464,7 +40393,7 @@
         <v>710</v>
       </c>
       <c r="L180" s="7" t="str">
-        <f>IF(A180&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M180" s="26" t="str">
@@ -37478,7 +40407,7 @@
         <v>117</v>
       </c>
       <c r="P180" s="7" t="str">
-        <f>IF(A180&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q180" s="14">
@@ -37488,11 +40417,11 @@
         <v>0</v>
       </c>
       <c r="S180" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T180" s="7" t="str">
-        <f>IF(A180&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37531,7 +40460,7 @@
         <v>711</v>
       </c>
       <c r="L181" s="7" t="str">
-        <f>IF(A181&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M181" s="26" t="str">
@@ -37545,7 +40474,7 @@
         <v>117</v>
       </c>
       <c r="P181" s="7" t="str">
-        <f>IF(A181&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q181" s="14">
@@ -37555,11 +40484,11 @@
         <v>0</v>
       </c>
       <c r="S181" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="T181" s="7" t="str">
-        <f>IF(A181&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37598,7 +40527,7 @@
         <v>712</v>
       </c>
       <c r="L182" s="7" t="str">
-        <f>IF(A182&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M182" s="26" t="str">
@@ -37612,7 +40541,7 @@
         <v>118</v>
       </c>
       <c r="P182" s="7" t="str">
-        <f>IF(A182&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q182" s="14">
@@ -37622,11 +40551,11 @@
         <v>1</v>
       </c>
       <c r="S182" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="T182" s="7" t="str">
-        <f>IF(A182&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37665,7 +40594,7 @@
         <v>713</v>
       </c>
       <c r="L183" s="7" t="str">
-        <f>IF(A183&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M183" s="26" t="str">
@@ -37679,7 +40608,7 @@
         <v>118</v>
       </c>
       <c r="P183" s="7" t="str">
-        <f>IF(A183&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q183" s="14">
@@ -37689,11 +40618,11 @@
         <v>0</v>
       </c>
       <c r="S183" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="T183" s="7" t="str">
-        <f>IF(A183&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37732,7 +40661,7 @@
         <v>714</v>
       </c>
       <c r="L184" s="7" t="str">
-        <f>IF(A184&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M184" s="26" t="str">
@@ -37746,7 +40675,7 @@
         <v>118</v>
       </c>
       <c r="P184" s="7" t="str">
-        <f>IF(A184&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q184" s="14">
@@ -37756,11 +40685,11 @@
         <v>0</v>
       </c>
       <c r="S184" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="T184" s="7" t="str">
-        <f>IF(A184&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37799,7 +40728,7 @@
         <v>715</v>
       </c>
       <c r="L185" s="7" t="str">
-        <f>IF(A185&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M185" s="26" t="str">
@@ -37813,7 +40742,7 @@
         <v>118</v>
       </c>
       <c r="P185" s="7" t="str">
-        <f>IF(A185&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q185" s="14">
@@ -37823,11 +40752,11 @@
         <v>0</v>
       </c>
       <c r="S185" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="T185" s="7" t="str">
-        <f>IF(A185&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37866,7 +40795,7 @@
         <v>716</v>
       </c>
       <c r="L186" s="7" t="str">
-        <f>IF(A186&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M186" s="26" t="str">
@@ -37880,7 +40809,7 @@
         <v>118</v>
       </c>
       <c r="P186" s="7" t="str">
-        <f>IF(A186&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q186" s="14">
@@ -37890,11 +40819,11 @@
         <v>0</v>
       </c>
       <c r="S186" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="T186" s="7" t="str">
-        <f>IF(A186&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -37933,7 +40862,7 @@
         <v>717</v>
       </c>
       <c r="L187" s="7" t="str">
-        <f>IF(A187&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M187" s="26" t="str">
@@ -37947,7 +40876,7 @@
         <v>118</v>
       </c>
       <c r="P187" s="7" t="str">
-        <f>IF(A187&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q187" s="14">
@@ -37957,11 +40886,11 @@
         <v>0</v>
       </c>
       <c r="S187" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="T187" s="7" t="str">
-        <f>IF(A187&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38000,7 +40929,7 @@
         <v>718</v>
       </c>
       <c r="L188" s="7" t="str">
-        <f>IF(A188&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M188" s="26" t="str">
@@ -38014,7 +40943,7 @@
         <v>118</v>
       </c>
       <c r="P188" s="7" t="str">
-        <f>IF(A188&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q188" s="14">
@@ -38024,11 +40953,11 @@
         <v>1</v>
       </c>
       <c r="S188" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="T188" s="7" t="str">
-        <f>IF(A188&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38067,7 +40996,7 @@
         <v>719</v>
       </c>
       <c r="L189" s="7" t="str">
-        <f>IF(A189&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M189" s="26" t="str">
@@ -38081,7 +41010,7 @@
         <v>118</v>
       </c>
       <c r="P189" s="7" t="str">
-        <f>IF(A189&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q189" s="14">
@@ -38091,11 +41020,11 @@
         <v>0</v>
       </c>
       <c r="S189" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="T189" s="7" t="str">
-        <f>IF(A189&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38134,7 +41063,7 @@
         <v>720</v>
       </c>
       <c r="L190" s="7" t="str">
-        <f>IF(A190&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M190" s="26" t="str">
@@ -38148,7 +41077,7 @@
         <v>58</v>
       </c>
       <c r="P190" s="7" t="str">
-        <f>IF(A190&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q190" s="14">
@@ -38162,7 +41091,7 @@
         <v>14</v>
       </c>
       <c r="T190" s="7" t="str">
-        <f>IF(A190&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38201,7 +41130,7 @@
         <v>721</v>
       </c>
       <c r="L191" s="7" t="str">
-        <f>IF(A191&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M191" s="26" t="str">
@@ -38215,7 +41144,7 @@
         <v>48</v>
       </c>
       <c r="P191" s="7" t="str">
-        <f>IF(A191&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q191" s="14">
@@ -38229,7 +41158,7 @@
         <v>14</v>
       </c>
       <c r="T191" s="7" t="str">
-        <f>IF(A191&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38268,7 +41197,7 @@
         <v>722</v>
       </c>
       <c r="L192" s="7" t="str">
-        <f>IF(A192&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="26"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M192" s="26" t="str">
@@ -38282,7 +41211,7 @@
         <v>243</v>
       </c>
       <c r="P192" s="7" t="str">
-        <f>IF(A192&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="27"/>
         <v>9.6米</v>
       </c>
       <c r="Q192" s="14">
@@ -38296,7 +41225,7 @@
         <v>11</v>
       </c>
       <c r="T192" s="7" t="str">
-        <f>IF(A192&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="29"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38335,7 +41264,7 @@
         <v>723</v>
       </c>
       <c r="L193" s="7" t="str">
-        <f>IF(A193&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="L193:L219" si="30">IF(A193&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M193" s="26" t="str">
@@ -38349,7 +41278,7 @@
         <v>342</v>
       </c>
       <c r="P193" s="7" t="str">
-        <f>IF(A193&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="P193:P219" si="31">IF(A193&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="Q193" s="14">
@@ -38363,7 +41292,7 @@
         <v>14</v>
       </c>
       <c r="T193" s="7" t="str">
-        <f>IF(A193&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="T193:T219" si="32">IF(A193&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38402,7 +41331,7 @@
         <v>724</v>
       </c>
       <c r="L194" s="7" t="str">
-        <f>IF(A194&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M194" s="26" t="str">
@@ -38416,7 +41345,7 @@
         <v>240</v>
       </c>
       <c r="P194" s="7" t="str">
-        <f>IF(A194&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q194" s="14">
@@ -38430,7 +41359,7 @@
         <v>6</v>
       </c>
       <c r="T194" s="7" t="str">
-        <f>IF(A194&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38469,7 +41398,7 @@
         <v>725</v>
       </c>
       <c r="L195" s="7" t="str">
-        <f>IF(A195&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M195" s="26" t="str">
@@ -38483,7 +41412,7 @@
         <v>144</v>
       </c>
       <c r="P195" s="7" t="str">
-        <f>IF(A195&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q195" s="14">
@@ -38493,11 +41422,11 @@
         <v>0</v>
       </c>
       <c r="S195" s="14">
-        <f t="shared" ref="S195:S219" si="18">SUM(Q195:R195)</f>
+        <f t="shared" ref="S195:S219" si="33">SUM(Q195:R195)</f>
         <v>14</v>
       </c>
       <c r="T195" s="7" t="str">
-        <f>IF(A195&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38536,7 +41465,7 @@
         <v>726</v>
       </c>
       <c r="L196" s="7" t="str">
-        <f>IF(A196&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M196" s="26" t="str">
@@ -38550,7 +41479,7 @@
         <v>144</v>
       </c>
       <c r="P196" s="7" t="str">
-        <f>IF(A196&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q196" s="14">
@@ -38560,11 +41489,11 @@
         <v>0</v>
       </c>
       <c r="S196" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T196" s="7" t="str">
-        <f>IF(A196&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38603,7 +41532,7 @@
         <v>727</v>
       </c>
       <c r="L197" s="7" t="str">
-        <f>IF(A197&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M197" s="26" t="str">
@@ -38617,7 +41546,7 @@
         <v>192</v>
       </c>
       <c r="P197" s="7" t="str">
-        <f>IF(A197&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q197" s="14">
@@ -38627,11 +41556,11 @@
         <v>0</v>
       </c>
       <c r="S197" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T197" s="7" t="str">
-        <f>IF(A197&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38670,7 +41599,7 @@
         <v>728</v>
       </c>
       <c r="L198" s="7" t="str">
-        <f>IF(A198&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M198" s="26" t="str">
@@ -38684,7 +41613,7 @@
         <v>117</v>
       </c>
       <c r="P198" s="7" t="str">
-        <f>IF(A198&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q198" s="14">
@@ -38694,11 +41623,11 @@
         <v>0</v>
       </c>
       <c r="S198" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="T198" s="7" t="str">
-        <f>IF(A198&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38737,7 +41666,7 @@
         <v>729</v>
       </c>
       <c r="L199" s="7" t="str">
-        <f>IF(A199&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M199" s="26" t="str">
@@ -38751,7 +41680,7 @@
         <v>243</v>
       </c>
       <c r="P199" s="7" t="str">
-        <f>IF(A199&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q199" s="14">
@@ -38765,7 +41694,7 @@
         <v>5</v>
       </c>
       <c r="T199" s="7" t="str">
-        <f>IF(A199&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38804,7 +41733,7 @@
         <v>730</v>
       </c>
       <c r="L200" s="7" t="str">
-        <f>IF(A200&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M200" s="26" t="str">
@@ -38818,7 +41747,7 @@
         <v>243</v>
       </c>
       <c r="P200" s="7" t="str">
-        <f>IF(A200&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q200" s="14">
@@ -38828,11 +41757,11 @@
         <v>0</v>
       </c>
       <c r="S200" s="14">
-        <f t="shared" ref="S200" si="19">SUM(Q200:R200)</f>
+        <f t="shared" ref="S200" si="34">SUM(Q200:R200)</f>
         <v>14</v>
       </c>
       <c r="T200" s="7" t="str">
-        <f>IF(A200&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38871,7 +41800,7 @@
         <v>731</v>
       </c>
       <c r="L201" s="7" t="str">
-        <f>IF(A201&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M201" s="26" t="str">
@@ -38885,7 +41814,7 @@
         <v>117</v>
       </c>
       <c r="P201" s="7" t="str">
-        <f>IF(A201&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q201" s="14">
@@ -38895,11 +41824,11 @@
         <v>0</v>
       </c>
       <c r="S201" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T201" s="7" t="str">
-        <f>IF(A201&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -38938,7 +41867,7 @@
         <v>732</v>
       </c>
       <c r="L202" s="7" t="str">
-        <f>IF(A202&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M202" s="26" t="str">
@@ -38952,7 +41881,7 @@
         <v>117</v>
       </c>
       <c r="P202" s="7" t="str">
-        <f>IF(A202&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q202" s="14">
@@ -38962,11 +41891,11 @@
         <v>0</v>
       </c>
       <c r="S202" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T202" s="7" t="str">
-        <f>IF(A202&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39005,7 +41934,7 @@
         <v>733</v>
       </c>
       <c r="L203" s="7" t="str">
-        <f>IF(A203&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M203" s="26" t="str">
@@ -39019,7 +41948,7 @@
         <v>117</v>
       </c>
       <c r="P203" s="7" t="str">
-        <f>IF(A203&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q203" s="14">
@@ -39029,11 +41958,11 @@
         <v>0</v>
       </c>
       <c r="S203" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T203" s="7" t="str">
-        <f>IF(A203&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39072,7 +42001,7 @@
         <v>734</v>
       </c>
       <c r="L204" s="7" t="str">
-        <f>IF(A204&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M204" s="26" t="str">
@@ -39086,7 +42015,7 @@
         <v>117</v>
       </c>
       <c r="P204" s="7" t="str">
-        <f>IF(A204&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q204" s="14">
@@ -39096,11 +42025,11 @@
         <v>0</v>
       </c>
       <c r="S204" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T204" s="7" t="str">
-        <f>IF(A204&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39139,7 +42068,7 @@
         <v>735</v>
       </c>
       <c r="L205" s="7" t="str">
-        <f>IF(A205&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M205" s="26" t="str">
@@ -39153,7 +42082,7 @@
         <v>117</v>
       </c>
       <c r="P205" s="7" t="str">
-        <f>IF(A205&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q205" s="14">
@@ -39163,11 +42092,11 @@
         <v>0</v>
       </c>
       <c r="S205" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T205" s="7" t="str">
-        <f>IF(A205&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39206,7 +42135,7 @@
         <v>736</v>
       </c>
       <c r="L206" s="7" t="str">
-        <f>IF(A206&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M206" s="26" t="str">
@@ -39220,7 +42149,7 @@
         <v>117</v>
       </c>
       <c r="P206" s="7" t="str">
-        <f>IF(A206&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q206" s="14">
@@ -39230,11 +42159,11 @@
         <v>0</v>
       </c>
       <c r="S206" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T206" s="7" t="str">
-        <f>IF(A206&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39273,7 +42202,7 @@
         <v>737</v>
       </c>
       <c r="L207" s="7" t="str">
-        <f>IF(A207&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M207" s="26" t="str">
@@ -39287,7 +42216,7 @@
         <v>118</v>
       </c>
       <c r="P207" s="7" t="str">
-        <f>IF(A207&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q207" s="14">
@@ -39297,11 +42226,11 @@
         <v>0</v>
       </c>
       <c r="S207" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T207" s="7" t="str">
-        <f>IF(A207&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39340,7 +42269,7 @@
         <v>738</v>
       </c>
       <c r="L208" s="7" t="str">
-        <f>IF(A208&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M208" s="26" t="str">
@@ -39354,7 +42283,7 @@
         <v>118</v>
       </c>
       <c r="P208" s="7" t="str">
-        <f>IF(A208&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q208" s="14">
@@ -39364,11 +42293,11 @@
         <v>0</v>
       </c>
       <c r="S208" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T208" s="7" t="str">
-        <f>IF(A208&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39407,7 +42336,7 @@
         <v>739</v>
       </c>
       <c r="L209" s="7" t="str">
-        <f>IF(A209&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M209" s="26" t="str">
@@ -39421,7 +42350,7 @@
         <v>118</v>
       </c>
       <c r="P209" s="7" t="str">
-        <f>IF(A209&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q209" s="14">
@@ -39431,11 +42360,11 @@
         <v>0</v>
       </c>
       <c r="S209" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T209" s="7" t="str">
-        <f>IF(A209&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39474,7 +42403,7 @@
         <v>740</v>
       </c>
       <c r="L210" s="7" t="str">
-        <f>IF(A210&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M210" s="26" t="str">
@@ -39488,7 +42417,7 @@
         <v>118</v>
       </c>
       <c r="P210" s="7" t="str">
-        <f>IF(A210&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q210" s="14">
@@ -39498,11 +42427,11 @@
         <v>0</v>
       </c>
       <c r="S210" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T210" s="7" t="str">
-        <f>IF(A210&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39541,7 +42470,7 @@
         <v>741</v>
       </c>
       <c r="L211" s="7" t="str">
-        <f>IF(A211&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M211" s="26" t="str">
@@ -39555,7 +42484,7 @@
         <v>118</v>
       </c>
       <c r="P211" s="7" t="str">
-        <f>IF(A211&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q211" s="14">
@@ -39565,11 +42494,11 @@
         <v>0</v>
       </c>
       <c r="S211" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T211" s="7" t="str">
-        <f>IF(A211&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39608,7 +42537,7 @@
         <v>742</v>
       </c>
       <c r="L212" s="7" t="str">
-        <f>IF(A212&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M212" s="26" t="str">
@@ -39622,7 +42551,7 @@
         <v>118</v>
       </c>
       <c r="P212" s="7" t="str">
-        <f>IF(A212&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q212" s="14">
@@ -39632,11 +42561,11 @@
         <v>0</v>
       </c>
       <c r="S212" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T212" s="7" t="str">
-        <f>IF(A212&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39675,7 +42604,7 @@
         <v>743</v>
       </c>
       <c r="L213" s="7" t="str">
-        <f>IF(A213&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M213" s="26" t="str">
@@ -39689,7 +42618,7 @@
         <v>118</v>
       </c>
       <c r="P213" s="7" t="str">
-        <f>IF(A213&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q213" s="14">
@@ -39699,11 +42628,11 @@
         <v>0</v>
       </c>
       <c r="S213" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T213" s="7" t="str">
-        <f>IF(A213&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39742,7 +42671,7 @@
         <v>744</v>
       </c>
       <c r="L214" s="7" t="str">
-        <f>IF(A214&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M214" s="26" t="str">
@@ -39756,7 +42685,7 @@
         <v>118</v>
       </c>
       <c r="P214" s="7" t="str">
-        <f>IF(A214&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q214" s="14">
@@ -39766,11 +42695,11 @@
         <v>0</v>
       </c>
       <c r="S214" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T214" s="7" t="str">
-        <f>IF(A214&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39809,7 +42738,7 @@
         <v>745</v>
       </c>
       <c r="L215" s="7" t="str">
-        <f>IF(A215&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M215" s="26" t="str">
@@ -39823,7 +42752,7 @@
         <v>373</v>
       </c>
       <c r="P215" s="7" t="str">
-        <f>IF(A215&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q215" s="14">
@@ -39833,11 +42762,11 @@
         <v>0</v>
       </c>
       <c r="S215" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T215" s="7" t="str">
-        <f>IF(A215&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39876,7 +42805,7 @@
         <v>746</v>
       </c>
       <c r="L216" s="7" t="str">
-        <f>IF(A216&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M216" s="26" t="str">
@@ -39890,7 +42819,7 @@
         <v>373</v>
       </c>
       <c r="P216" s="7" t="str">
-        <f>IF(A216&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q216" s="14">
@@ -39900,11 +42829,11 @@
         <v>0</v>
       </c>
       <c r="S216" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T216" s="7" t="str">
-        <f>IF(A216&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -39943,7 +42872,7 @@
         <v>747</v>
       </c>
       <c r="L217" s="7" t="str">
-        <f>IF(A217&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M217" s="26" t="str">
@@ -39957,7 +42886,7 @@
         <v>373</v>
       </c>
       <c r="P217" s="7" t="str">
-        <f>IF(A217&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q217" s="14">
@@ -39967,11 +42896,11 @@
         <v>0</v>
       </c>
       <c r="S217" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T217" s="7" t="str">
-        <f>IF(A217&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -40010,7 +42939,7 @@
         <v>748</v>
       </c>
       <c r="L218" s="7" t="str">
-        <f>IF(A218&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M218" s="26" t="str">
@@ -40024,7 +42953,7 @@
         <v>373</v>
       </c>
       <c r="P218" s="7" t="str">
-        <f>IF(A218&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q218" s="14">
@@ -40034,11 +42963,11 @@
         <v>0</v>
       </c>
       <c r="S218" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="T218" s="7" t="str">
-        <f>IF(A218&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -40077,7 +43006,7 @@
         <v>749</v>
       </c>
       <c r="L219" s="7" t="str">
-        <f>IF(A219&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="30"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="M219" s="26" t="str">
@@ -40091,7 +43020,7 @@
         <v>373</v>
       </c>
       <c r="P219" s="7" t="str">
-        <f>IF(A219&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="31"/>
         <v>9.6米</v>
       </c>
       <c r="Q219" s="14">
@@ -40101,90 +43030,90 @@
         <v>0</v>
       </c>
       <c r="S219" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="T219" s="7" t="str">
-        <f>IF(A219&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="32"/>
         <v>分拣摆渡</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J34">
-    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I117 I124:I130">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:J117 J124:J130">
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I117 I124:I130">
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I143">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:I140 I144:I160">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:J140 J144:J160">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:I142 I131:I133">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:J142 J131:J133">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:I160">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:J189">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:J189">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:J219">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:J196">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:K189">
-    <cfRule type="duplicateValues" dxfId="5" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:K219">
-    <cfRule type="duplicateValues" dxfId="4" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:K196">
-    <cfRule type="duplicateValues" dxfId="3" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J97">
-    <cfRule type="duplicateValues" dxfId="2" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:J122 I98:J107">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:J140 I145:J160">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="70"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月摆渡报表.xlsx
+++ b/4月报表/4月摆渡报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BD9045E0-7062-4DA2-AE08-140FC4237E78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E03F819B-64D2-4453-8118-1FC347992A53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="8055" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,16 +34,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4-5'!$A$1:$U$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'4-6'!$A$1:$U$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'4-7'!$A$1:$U$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'4-9'!$A$1:$U$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5104" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="1074">
   <si>
     <t>发车日期</t>
   </si>
@@ -3758,10 +3759,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>18132</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>18135</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3787,6 +3784,173 @@
   </si>
   <si>
     <t>0078091</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>|涂爱武</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17947</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076509</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17949</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17950</t>
+  </si>
+  <si>
+    <t>18201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076510</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076511</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076512</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18683</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029882</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19106</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076951</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19107</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076952</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19108</t>
+  </si>
+  <si>
+    <t>19109</t>
+  </si>
+  <si>
+    <t>19110</t>
+  </si>
+  <si>
+    <t>19111</t>
+  </si>
+  <si>
+    <t>0076953</t>
+  </si>
+  <si>
+    <t>0076954</t>
+  </si>
+  <si>
+    <t>0076955</t>
+  </si>
+  <si>
+    <t>0076956</t>
+  </si>
+  <si>
+    <t>涂爱武</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱振</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19844</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028568</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪家国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19845</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028569</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶显军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16585</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代永华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16586</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076498</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周宏桂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16587</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076497</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一备件库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16588</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076496</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18134</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4096,7 +4260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4247,35 +4411,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -4301,127 +4441,7 @@
     <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="101">
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -11903,7 +11923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24E79018-A2BF-43B3-84E1-C5B2C359714D}" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24E79018-A2BF-43B3-84E1-C5B2C359714D}" name="数据透视表2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12391,25 +12411,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -16443,10 +16463,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="duplicateValues" dxfId="100" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I24">
-    <cfRule type="duplicateValues" dxfId="99" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32314,91 +32334,91 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J34">
-    <cfRule type="duplicateValues" dxfId="45" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="duplicateValues" dxfId="44" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="duplicateValues" dxfId="43" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="duplicateValues" dxfId="42" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I117 I124:I130">
-    <cfRule type="duplicateValues" dxfId="41" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:J117 J124:J130">
-    <cfRule type="duplicateValues" dxfId="40" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="duplicateValues" dxfId="39" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I143">
-    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143">
-    <cfRule type="duplicateValues" dxfId="37" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:I140 I144:I160">
-    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:J140 J144:J160">
-    <cfRule type="duplicateValues" dxfId="35" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:I142 I131:I133">
-    <cfRule type="duplicateValues" dxfId="34" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:J142 J131:J133">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:I160">
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:J189">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:J219">
-    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:J196">
-    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J97">
-    <cfRule type="duplicateValues" dxfId="28" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:J122 I98:J107">
-    <cfRule type="duplicateValues" dxfId="27" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:J140 I145:J160">
-    <cfRule type="duplicateValues" dxfId="26" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J220:J243">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J239:J243">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:I243">
-    <cfRule type="duplicateValues" dxfId="23" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I239:I243">
-    <cfRule type="duplicateValues" dxfId="22" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:I189">
-    <cfRule type="duplicateValues" dxfId="21" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:I219">
-    <cfRule type="duplicateValues" dxfId="20" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:I196">
-    <cfRule type="duplicateValues" dxfId="19" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:J243">
-    <cfRule type="duplicateValues" dxfId="18" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I239:J243">
-    <cfRule type="duplicateValues" dxfId="17" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32439,27 +32459,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -37083,7 +37103,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:K1048576">
-    <cfRule type="duplicateValues" dxfId="98" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37124,27 +37144,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -40675,25 +40695,25 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I28">
-    <cfRule type="duplicateValues" dxfId="97" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="duplicateValues" dxfId="96" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I40">
-    <cfRule type="duplicateValues" dxfId="95" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K22 K29:K40">
-    <cfRule type="duplicateValues" dxfId="94" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I109">
-    <cfRule type="duplicateValues" dxfId="93" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:K1048576 I23:K27 I1:K12">
-    <cfRule type="duplicateValues" dxfId="91" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40733,27 +40753,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -43852,37 +43872,37 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I6:K11 J12:K12 I1:K2 I17:K1048576">
-    <cfRule type="duplicateValues" dxfId="90" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="duplicateValues" dxfId="89" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="duplicateValues" dxfId="88" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11 J12 I16:I64">
-    <cfRule type="duplicateValues" dxfId="87" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K12 K16:K64">
-    <cfRule type="duplicateValues" dxfId="86" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14 I3:I5">
-    <cfRule type="duplicateValues" dxfId="85" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14 K3:K5">
-    <cfRule type="duplicateValues" dxfId="84" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I11 I13:I76 J12">
-    <cfRule type="duplicateValues" dxfId="83" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="82" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="81" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="80" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46335,16 +46355,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1048576">
-    <cfRule type="duplicateValues" dxfId="79" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J34">
-    <cfRule type="duplicateValues" dxfId="78" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L34">
-    <cfRule type="duplicateValues" dxfId="77" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J46">
-    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="25"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49870,22 +49890,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L9:L89">
-    <cfRule type="duplicateValues" dxfId="75" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
-    <cfRule type="duplicateValues" dxfId="74" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:L89">
-    <cfRule type="duplicateValues" dxfId="73" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J89">
-    <cfRule type="duplicateValues" dxfId="72" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:L1048576 I1:L8">
-    <cfRule type="duplicateValues" dxfId="71" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="duplicateValues" dxfId="70" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="58"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52645,25 +52665,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I62:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L61">
-    <cfRule type="duplicateValues" dxfId="68" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L61">
-    <cfRule type="duplicateValues" dxfId="67" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J61">
-    <cfRule type="duplicateValues" dxfId="66" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L25">
-    <cfRule type="duplicateValues" dxfId="65" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:L25">
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:J25">
-    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52674,8 +52694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66593AC1-6441-4486-941C-770E8B709605}">
   <dimension ref="A1:BK42"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="J13" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54824,55 +54844,55 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I43:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="62" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L10 L18:L42">
-    <cfRule type="duplicateValues" dxfId="61" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L10 I18:L42">
-    <cfRule type="duplicateValues" dxfId="60" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J10 I18:J42">
-    <cfRule type="duplicateValues" dxfId="59" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L14">
-    <cfRule type="duplicateValues" dxfId="58" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 K12:L14">
-    <cfRule type="duplicateValues" dxfId="57" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14">
-    <cfRule type="duplicateValues" dxfId="56" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J14">
-    <cfRule type="duplicateValues" dxfId="55" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J14">
-    <cfRule type="duplicateValues" dxfId="54" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="duplicateValues" dxfId="53" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:L11">
-    <cfRule type="duplicateValues" dxfId="52" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J11">
-    <cfRule type="duplicateValues" dxfId="51" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L17">
-    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17 K15:L17">
-    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J17">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J17">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -54881,13 +54901,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0695EC-9FCA-4F71-9465-5AB4A6FCCCFC}">
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.25" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="3" bestFit="1" customWidth="1"/>
@@ -54902,8 +54922,8 @@
     <col min="11" max="11" width="17.375" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" customWidth="1"/>
     <col min="13" max="13" width="16.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="3" customWidth="1"/>
     <col min="16" max="16" width="8.875" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="19.25" style="3" bestFit="1" customWidth="1"/>
@@ -55021,16 +55041,16 @@
     </row>
     <row r="2" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A2" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>940</v>
+        <v>501</v>
       </c>
       <c r="C2" s="10">
-        <v>1705</v>
+        <v>1929</v>
       </c>
       <c r="D2" s="10">
-        <v>1903</v>
+        <v>2105</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>26</v>
@@ -55046,26 +55066,28 @@
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
-        <v>941</v>
+        <v>1015</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="19" t="s">
-        <v>942</v>
+        <v>1016</v>
       </c>
       <c r="M2" s="7" t="str">
-        <f t="shared" ref="M2:M27" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="M2:M3" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N2" s="26" t="str">
         <f>VLOOKUP(P2,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ALU291</v>
-      </c>
-      <c r="O2" s="10"/>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="P2" s="29" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="7" t="str">
-        <f t="shared" ref="Q2:Q39" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="Q2:Q20" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R2" s="14">
@@ -55075,26 +55097,26 @@
         <v>0</v>
       </c>
       <c r="T2" s="14">
-        <f t="shared" ref="T2:T27" si="2">SUM(R2:S2)</f>
+        <f t="shared" ref="T2:T3" si="2">SUM(R2:S2)</f>
         <v>14</v>
       </c>
       <c r="U2" s="7" t="str">
-        <f t="shared" ref="U2:U39" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="U2:U20" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="3" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A3" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="C3" s="10">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="D3" s="10">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>26</v>
@@ -55110,11 +55132,11 @@
       </c>
       <c r="I3" s="39"/>
       <c r="J3" s="39" t="s">
-        <v>943</v>
+        <v>1017</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="19" t="s">
-        <v>944</v>
+        <v>1018</v>
       </c>
       <c r="M3" s="7" t="str">
         <f t="shared" si="0"/>
@@ -55122,11 +55144,13 @@
       </c>
       <c r="N3" s="26" t="str">
         <f>VLOOKUP(P3,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="O3" s="10"/>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="P3" s="29" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="7" t="str">
         <f t="shared" si="1"/>
@@ -55149,16 +55173,16 @@
     </row>
     <row r="4" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A4" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>940</v>
+        <v>235</v>
       </c>
       <c r="C4" s="10">
-        <v>1805</v>
+        <v>1640</v>
       </c>
       <c r="D4" s="10">
-        <v>1954</v>
+        <v>1843</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>26</v>
@@ -55174,55 +55198,57 @@
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39" t="s">
-        <v>945</v>
+        <v>1019</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="19" t="s">
-        <v>946</v>
+        <v>1020</v>
       </c>
       <c r="M4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M10" si="4">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N4" s="26" t="str">
         <f>VLOOKUP(P4,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ALU151</v>
-      </c>
-      <c r="O4" s="10"/>
+        <v>粤BGR032</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>511</v>
+      </c>
       <c r="P4" s="29" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q4" si="5">IF(A4&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R4" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S4" s="14">
         <v>0</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" ref="T4:T10" si="6">SUM(R4:S4)</f>
+        <v>15</v>
       </c>
       <c r="U4" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U4" si="7">IF(A4&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="5" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A5" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="C5" s="10">
-        <v>1929</v>
+        <v>1800</v>
       </c>
       <c r="D5" s="10">
-        <v>2125</v>
+        <v>1950</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>26</v>
@@ -55238,26 +55264,28 @@
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="39" t="s">
-        <v>973</v>
+        <v>1039</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="19" t="s">
-        <v>974</v>
+        <v>1040</v>
       </c>
       <c r="M5" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M5" si="8">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N5" s="26" t="str">
         <f>VLOOKUP(P5,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AQQ353</v>
-      </c>
-      <c r="O5" s="10"/>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="P5" s="29" t="s">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q5" si="9">IF(A5&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R5" s="14">
@@ -55267,58 +55295,60 @@
         <v>0</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T5" si="10">SUM(R5:S5)</f>
         <v>14</v>
       </c>
       <c r="U5" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U5" si="11">IF(A5&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="6" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A6" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>501</v>
+        <v>89</v>
       </c>
       <c r="C6" s="10">
-        <v>1910</v>
+        <v>1826</v>
       </c>
       <c r="D6" s="10">
-        <v>2134</v>
+        <v>1836</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>502</v>
+        <v>431</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39" t="s">
-        <v>971</v>
+        <v>1021</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="19" t="s">
-        <v>972</v>
+        <v>1022</v>
       </c>
       <c r="M6" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N6" s="26" t="str">
         <f>VLOOKUP(P6,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AHB101</v>
-      </c>
-      <c r="O6" s="10"/>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="P6" s="29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="str">
         <f t="shared" si="1"/>
@@ -55331,7 +55361,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="U6" s="7" t="str">
@@ -55341,16 +55371,16 @@
     </row>
     <row r="7" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A7" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C7" s="10">
-        <v>31</v>
+        <v>936</v>
       </c>
       <c r="D7" s="10">
-        <v>41</v>
+        <v>946</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>31</v>
@@ -55366,21 +55396,23 @@
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39" t="s">
-        <v>951</v>
+        <v>1073</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="19" t="s">
-        <v>952</v>
+        <v>1025</v>
       </c>
       <c r="M7" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N7" s="26" t="str">
         <f>VLOOKUP(P7,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="P7" s="29" t="s">
         <v>117</v>
       </c>
@@ -55395,7 +55427,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="U7" s="7" t="str">
@@ -55405,16 +55437,16 @@
     </row>
     <row r="8" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A8" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="10">
-        <v>931</v>
+        <v>1110</v>
       </c>
       <c r="D8" s="10">
-        <v>941</v>
+        <v>1120</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>31</v>
@@ -55430,21 +55462,23 @@
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="39" t="s">
-        <v>953</v>
+        <v>1023</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="19" t="s">
-        <v>956</v>
+        <v>1026</v>
       </c>
       <c r="M8" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N8" s="26" t="str">
         <f>VLOOKUP(P8,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="P8" s="29" t="s">
         <v>117</v>
       </c>
@@ -55459,7 +55493,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="U8" s="7" t="str">
@@ -55469,16 +55503,16 @@
     </row>
     <row r="9" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A9" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="10">
-        <v>1118</v>
+        <v>1155</v>
       </c>
       <c r="D9" s="10">
-        <v>1128</v>
+        <v>1205</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>31</v>
@@ -55494,21 +55528,23 @@
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="39" t="s">
-        <v>955</v>
+        <v>1024</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="19" t="s">
-        <v>954</v>
+        <v>1027</v>
       </c>
       <c r="M9" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N9" s="26" t="str">
         <f>VLOOKUP(P9,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="P9" s="29" t="s">
         <v>117</v>
       </c>
@@ -55523,7 +55559,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="U9" s="7" t="str">
@@ -55533,16 +55569,16 @@
     </row>
     <row r="10" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A10" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>1030</v>
       </c>
       <c r="C10" s="10">
-        <v>2030</v>
+        <v>50</v>
       </c>
       <c r="D10" s="10">
-        <v>2040</v>
+        <v>100</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>31</v>
@@ -55558,23 +55594,25 @@
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
-        <v>957</v>
+        <v>1031</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="19" t="s">
-        <v>958</v>
+        <v>1032</v>
       </c>
       <c r="M10" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N10" s="26" t="str">
         <f>VLOOKUP(P10,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="O10" s="10"/>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="P10" s="29" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="str">
         <f t="shared" si="1"/>
@@ -55587,7 +55625,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="U10" s="7" t="str">
@@ -55597,16 +55635,16 @@
     </row>
     <row r="11" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A11" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>975</v>
+        <v>89</v>
       </c>
       <c r="C11" s="10">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D11" s="10">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>31</v>
@@ -55622,21 +55660,23 @@
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39" t="s">
-        <v>976</v>
+        <v>1033</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="19" t="s">
-        <v>977</v>
+        <v>1036</v>
       </c>
       <c r="M11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M11:M13" si="12">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N11" s="26" t="str">
         <f>VLOOKUP(P11,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="P11" s="29" t="s">
         <v>373</v>
       </c>
@@ -55645,14 +55685,14 @@
         <v>9.6米</v>
       </c>
       <c r="R11" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S11" s="14">
         <v>0</v>
       </c>
       <c r="T11" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" ref="T11:T13" si="13">SUM(R11:S11)</f>
+        <v>15</v>
       </c>
       <c r="U11" s="7" t="str">
         <f t="shared" si="3"/>
@@ -55661,16 +55701,16 @@
     </row>
     <row r="12" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A12" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="10">
-        <v>1918</v>
+        <v>1145</v>
       </c>
       <c r="D12" s="10">
-        <v>1928</v>
+        <v>1155</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>31</v>
@@ -55686,21 +55726,23 @@
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39" t="s">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="19" t="s">
-        <v>978</v>
+        <v>1037</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N12" s="26" t="str">
         <f>VLOOKUP(P12,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="P12" s="29" t="s">
         <v>373</v>
       </c>
@@ -55709,14 +55751,14 @@
         <v>9.6米</v>
       </c>
       <c r="R12" s="14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S12" s="14">
         <v>0</v>
       </c>
       <c r="T12" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="U12" s="7" t="str">
         <f t="shared" si="3"/>
@@ -55725,16 +55767,16 @@
     </row>
     <row r="13" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A13" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C13" s="10">
-        <v>2140</v>
+        <v>1435</v>
       </c>
       <c r="D13" s="10">
-        <v>2150</v>
+        <v>1445</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>31</v>
@@ -55750,21 +55792,23 @@
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39" t="s">
-        <v>982</v>
+        <v>1035</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="19" t="s">
-        <v>979</v>
+        <v>1038</v>
       </c>
       <c r="M13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N13" s="26" t="str">
         <f>VLOOKUP(P13,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AMT870</v>
       </c>
-      <c r="O13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="P13" s="29" t="s">
         <v>373</v>
       </c>
@@ -55773,14 +55817,14 @@
         <v>9.6米</v>
       </c>
       <c r="R13" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S13" s="14">
         <v>0</v>
       </c>
       <c r="T13" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="U13" s="7" t="str">
         <f t="shared" si="3"/>
@@ -55789,16 +55833,16 @@
     </row>
     <row r="14" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A14" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C14" s="10">
-        <v>2316</v>
+        <v>1610</v>
       </c>
       <c r="D14" s="10">
-        <v>2326</v>
+        <v>1620</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>31</v>
@@ -55814,26 +55858,28 @@
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
-        <v>983</v>
+        <v>1041</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="19" t="s">
-        <v>980</v>
+        <v>1042</v>
       </c>
       <c r="M14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M14" si="14">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N14" s="26" t="str">
         <f>VLOOKUP(P14,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="O14" s="10"/>
+        <v>鄂AFX299</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="P14" s="29" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q14" si="15">IF(A14&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R14" s="14">
@@ -55843,26 +55889,26 @@
         <v>0</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T14" si="16">SUM(R14:S14)</f>
         <v>14</v>
       </c>
       <c r="U14" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U14" si="17">IF(A14&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="15" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A15" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="C15" s="10">
-        <v>1146</v>
+        <v>1730</v>
       </c>
       <c r="D15" s="10">
-        <v>1156</v>
+        <v>1740</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>31</v>
@@ -55878,55 +55924,57 @@
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="39" t="s">
-        <v>1006</v>
+        <v>1043</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="19" t="s">
-        <v>1009</v>
+        <v>1044</v>
       </c>
       <c r="M15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M15:M20" si="18">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N15" s="26" t="str">
         <f>VLOOKUP(P15,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AFX299</v>
       </c>
-      <c r="O15" s="10"/>
+      <c r="O15" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="P15" s="29" t="s">
         <v>118</v>
       </c>
       <c r="Q15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q15" si="19">IF(A15&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R15" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="T15:T20" si="20">SUM(R15:S15)</f>
+        <v>15</v>
       </c>
       <c r="U15" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U15" si="21">IF(A15&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="16" spans="1:63" s="35" customFormat="1" ht="18.75">
       <c r="A16" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>89</v>
+        <v>1053</v>
       </c>
       <c r="C16" s="10">
-        <v>1455</v>
+        <v>2000</v>
       </c>
       <c r="D16" s="10">
-        <v>1505</v>
+        <v>2010</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>31</v>
@@ -55942,21 +55990,23 @@
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39" t="s">
-        <v>1007</v>
+        <v>1045</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="19" t="s">
-        <v>1010</v>
+        <v>1049</v>
       </c>
       <c r="M16" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N16" s="26" t="str">
         <f>VLOOKUP(P16,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AFX299</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="P16" s="29" t="s">
         <v>118</v>
       </c>
@@ -55971,7 +56021,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="U16" s="7" t="str">
@@ -55981,16 +56031,16 @@
     </row>
     <row r="17" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A17" s="8">
-        <v>43198</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>89</v>
+        <v>43199</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>1053</v>
       </c>
       <c r="C17" s="10">
-        <v>1710</v>
+        <v>2105</v>
       </c>
       <c r="D17" s="10">
-        <v>1720</v>
+        <v>2115</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>31</v>
@@ -56006,21 +56056,23 @@
       </c>
       <c r="I17" s="39"/>
       <c r="J17" s="39" t="s">
-        <v>1008</v>
+        <v>1046</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="19" t="s">
-        <v>1011</v>
+        <v>1050</v>
       </c>
       <c r="M17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N17" s="26" t="str">
         <f>VLOOKUP(P17,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AFX299</v>
       </c>
-      <c r="O17" s="10"/>
+      <c r="O17" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="P17" s="29" t="s">
         <v>118</v>
       </c>
@@ -56029,14 +56081,14 @@
         <v>9.6米</v>
       </c>
       <c r="R17" s="14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S17" s="14">
         <v>0</v>
       </c>
       <c r="T17" s="14">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="20"/>
+        <v>13</v>
       </c>
       <c r="U17" s="7" t="str">
         <f t="shared" si="3"/>
@@ -56045,48 +56097,50 @@
     </row>
     <row r="18" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A18" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>311</v>
+        <v>1053</v>
       </c>
       <c r="C18" s="10">
-        <v>410</v>
+        <v>2250</v>
       </c>
       <c r="D18" s="10">
-        <v>1629</v>
+        <v>2300</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39" t="s">
-        <v>991</v>
+        <v>1047</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="19" t="s">
-        <v>994</v>
+        <v>1051</v>
       </c>
       <c r="M18" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N18" s="26" t="str">
         <f>VLOOKUP(P18,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="O18" s="10"/>
+        <v>鄂AFX299</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="P18" s="29" t="s">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="str">
         <f t="shared" si="1"/>
@@ -56099,7 +56153,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="U18" s="7" t="str">
@@ -56109,62 +56163,64 @@
     </row>
     <row r="19" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A19" s="8">
-        <v>43198</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>108</v>
+        <v>43199</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>1053</v>
       </c>
       <c r="C19" s="10">
-        <v>1650</v>
+        <v>2350</v>
       </c>
       <c r="D19" s="10">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39" t="s">
-        <v>993</v>
+        <v>1048</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="19" t="s">
-        <v>992</v>
+        <v>1052</v>
       </c>
       <c r="M19" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N19" s="26" t="str">
         <f>VLOOKUP(P19,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="O19" s="10"/>
+        <v>鄂AFX299</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="P19" s="29" t="s">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="R19" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S19" s="14">
         <v>0</v>
       </c>
       <c r="T19" s="14">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="20"/>
+        <v>14</v>
       </c>
       <c r="U19" s="7" t="str">
         <f t="shared" si="3"/>
@@ -56173,22 +56229,22 @@
     </row>
     <row r="20" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A20" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>108</v>
+        <v>1054</v>
       </c>
       <c r="C20" s="10">
-        <v>1740</v>
+        <v>2010</v>
       </c>
       <c r="D20" s="10">
-        <v>1756</v>
+        <v>2022</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>31</v>
@@ -56198,37 +56254,39 @@
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39" t="s">
-        <v>995</v>
+        <v>1055</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="19" t="s">
-        <v>996</v>
+        <v>1056</v>
       </c>
       <c r="M20" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="N20" s="26" t="str">
         <f>VLOOKUP(P20,ch!$A$1:$B$32,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="O20" s="10"/>
+      <c r="O20" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="P20" s="29" t="s">
-        <v>251</v>
+        <v>1057</v>
       </c>
       <c r="Q20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="R20" s="14">
+        <v>14</v>
+      </c>
+      <c r="S20" s="14">
         <v>0</v>
       </c>
-      <c r="S20" s="14">
-        <v>10</v>
-      </c>
       <c r="T20" s="14">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>14</v>
       </c>
       <c r="U20" s="7" t="str">
         <f t="shared" si="3"/>
@@ -56237,22 +56295,22 @@
     </row>
     <row r="21" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A21" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>52</v>
+        <v>1054</v>
       </c>
       <c r="C21" s="10">
-        <v>1910</v>
+        <v>2010</v>
       </c>
       <c r="D21" s="10">
-        <v>1936</v>
+        <v>2022</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>31</v>
@@ -56262,26 +56320,28 @@
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="39" t="s">
-        <v>997</v>
+        <v>1058</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="19" t="s">
-        <v>1001</v>
+        <v>1059</v>
       </c>
       <c r="M21" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M21" si="22">IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N21" s="26" t="str">
         <f>VLOOKUP(P21,ch!$A$1:$B$32,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="O21" s="10"/>
+      <c r="O21" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="P21" s="29" t="s">
-        <v>251</v>
+        <v>1057</v>
       </c>
       <c r="Q21" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q21" si="23">IF(A21&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R21" s="14">
@@ -56291,32 +56351,32 @@
         <v>0</v>
       </c>
       <c r="T21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T21" si="24">SUM(R21:S21)</f>
         <v>14</v>
       </c>
       <c r="U21" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U21" si="25">IF(A21&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A22" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>1060</v>
       </c>
       <c r="C22" s="10">
-        <v>2025</v>
+        <v>1623</v>
       </c>
       <c r="D22" s="10">
-        <v>2038</v>
+        <v>1630</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>31</v>
@@ -56326,61 +56386,63 @@
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="39" t="s">
-        <v>998</v>
+        <v>1061</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="19" t="s">
-        <v>1002</v>
+        <v>1062</v>
       </c>
       <c r="M22" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M22" si="26">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N22" s="26" t="str">
         <f>VLOOKUP(P22,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="O22" s="10"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="P22" s="29" t="s">
-        <v>251</v>
+        <v>1063</v>
       </c>
       <c r="Q22" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q22" si="27">IF(A22&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R22" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
       </c>
       <c r="T22" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" ref="T22" si="28">SUM(R22:S22)</f>
+        <v>13</v>
       </c>
       <c r="U22" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U22" si="29">IF(A22&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A23" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>1060</v>
       </c>
       <c r="C23" s="10">
-        <v>2151</v>
+        <v>1814</v>
       </c>
       <c r="D23" s="10">
-        <v>2204</v>
+        <v>1821</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>31</v>
@@ -56390,61 +56452,63 @@
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="39" t="s">
-        <v>999</v>
+        <v>1064</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="19" t="s">
-        <v>1003</v>
+        <v>1065</v>
       </c>
       <c r="M23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M23" si="30">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N23" s="26" t="str">
         <f>VLOOKUP(P23,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="O23" s="10"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="P23" s="29" t="s">
-        <v>251</v>
+        <v>1063</v>
       </c>
       <c r="Q23" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q23" si="31">IF(A23&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R23" s="14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S23" s="14">
         <v>0</v>
       </c>
       <c r="T23" s="14">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="T23" si="32">SUM(R23:S23)</f>
+        <v>11</v>
       </c>
       <c r="U23" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U23" si="33">IF(A23&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A24" s="8">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>988</v>
+        <v>1066</v>
       </c>
       <c r="C24" s="10">
-        <v>2300</v>
+        <v>1922</v>
       </c>
       <c r="D24" s="10">
-        <v>2310</v>
+        <v>1930</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>31</v>
@@ -56454,104 +56518,108 @@
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="39" t="s">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="19" t="s">
-        <v>1004</v>
+        <v>1068</v>
       </c>
       <c r="M24" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M24" si="34">IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N24" s="26" t="str">
         <f>VLOOKUP(P24,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="O24" s="10"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="P24" s="29" t="s">
-        <v>251</v>
+        <v>1063</v>
       </c>
       <c r="Q24" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q24" si="35">IF(A24&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R24" s="14">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S24" s="14">
         <v>0</v>
       </c>
       <c r="T24" s="14">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" ref="T24" si="36">SUM(R24:S24)</f>
+        <v>14</v>
       </c>
       <c r="U24" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U24" si="37">IF(A24&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="59" customFormat="1" ht="18.75">
-      <c r="A25" s="51">
-        <v>43198</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="52">
-        <v>1955</v>
-      </c>
-      <c r="D25" s="52">
-        <v>2049</v>
-      </c>
-      <c r="E25" s="53" t="s">
+    <row r="25" spans="1:21" s="35" customFormat="1" ht="18.75">
+      <c r="A25" s="8">
+        <v>43199</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2052</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2100</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="G25" s="53" t="s">
+      <c r="F25" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54" t="s">
-        <v>1012</v>
-      </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="55" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M25" s="56" t="str">
-        <f t="shared" si="0"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M25" s="7" t="str">
+        <f t="shared" ref="M25" si="38">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="N25" s="57" t="str">
+      <c r="N25" s="26" t="str">
         <f>VLOOKUP(P25,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="O25" s="52"/>
-      <c r="P25" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q25" s="56" t="str">
-        <f t="shared" si="1"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Q25" s="7" t="str">
+        <f t="shared" ref="Q25" si="39">IF(A25&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
-      <c r="R25" s="53">
-        <v>14</v>
-      </c>
-      <c r="S25" s="53">
+      <c r="R25" s="14">
+        <v>11</v>
+      </c>
+      <c r="S25" s="14">
         <v>0</v>
       </c>
-      <c r="T25" s="53">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="U25" s="56" t="str">
-        <f t="shared" si="3"/>
+      <c r="T25" s="14">
+        <f t="shared" ref="T25" si="40">SUM(R25:S25)</f>
+        <v>11</v>
+      </c>
+      <c r="U25" s="7" t="str">
+        <f t="shared" ref="U25" si="41">IF(A25&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -56560,17 +56628,19 @@
         <v>43199</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>501</v>
+        <v>60</v>
       </c>
       <c r="C26" s="10">
-        <v>1929</v>
-      </c>
-      <c r="D26" s="10"/>
+        <v>1025</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1050</v>
+      </c>
       <c r="E26" s="11" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>252</v>
+        <v>468</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>31</v>
@@ -56580,26 +56650,28 @@
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="19" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="M26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="N26" s="26" t="str">
         <f>VLOOKUP(P26,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="O26" s="10"/>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="P26" s="29" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A26&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="R26" s="14">
@@ -56609,461 +56681,174 @@
         <v>0</v>
       </c>
       <c r="T26" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(R26:S26)</f>
         <v>14</v>
       </c>
       <c r="U26" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(A26&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A27" s="8">
-        <v>43199</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1828</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2018</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="39" t="s">
-        <v>1017</v>
-      </c>
+      <c r="J27" s="39"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="19" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="N27" s="26" t="str">
-        <f>VLOOKUP(P27,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ALU291</v>
-      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="26"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="R27" s="14">
-        <v>14</v>
-      </c>
-      <c r="S27" s="14">
-        <v>0</v>
-      </c>
-      <c r="T27" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="U27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="7"/>
     </row>
     <row r="28" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A28" s="8">
-        <v>43199</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1640</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1843</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="39" t="s">
-        <v>1019</v>
-      </c>
+      <c r="J28" s="39"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="19" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M28" s="7" t="str">
-        <f t="shared" ref="M28:M33" si="4">IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="N28" s="26" t="str">
-        <f>VLOOKUP(P28,ch!$A$1:$B$32,2,0)</f>
-        <v>粤BGR032</v>
-      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" s="7" t="str">
-        <f t="shared" ref="Q28" si="5">IF(A28&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="R28" s="14">
-        <v>15</v>
-      </c>
-      <c r="S28" s="14">
-        <v>0</v>
-      </c>
-      <c r="T28" s="14">
-        <f t="shared" ref="T28:T33" si="6">SUM(R28:S28)</f>
-        <v>15</v>
-      </c>
-      <c r="U28" s="7" t="str">
-        <f t="shared" ref="U28" si="7">IF(A28&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="7"/>
     </row>
     <row r="29" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A29" s="8">
-        <v>43199</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1826</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1836</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="39" t="s">
-        <v>1021</v>
-      </c>
+      <c r="J29" s="39"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="19" t="s">
-        <v>1022</v>
-      </c>
-      <c r="M29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="N29" s="26" t="str">
-        <f>VLOOKUP(P29,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ALU151</v>
-      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="R29" s="14">
-        <v>14</v>
-      </c>
-      <c r="S29" s="14">
-        <v>0</v>
-      </c>
-      <c r="T29" s="14">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="U29" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="7"/>
     </row>
     <row r="30" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A30" s="8">
-        <v>43199</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="10">
-        <v>936</v>
-      </c>
-      <c r="D30" s="10">
-        <v>946</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="39" t="s">
-        <v>1023</v>
-      </c>
+      <c r="J30" s="39"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="19" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M30" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="N30" s="26" t="str">
-        <f>VLOOKUP(P30,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q30" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="R30" s="14">
-        <v>14</v>
-      </c>
-      <c r="S30" s="14">
-        <v>0</v>
-      </c>
-      <c r="T30" s="14">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="U30" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="7"/>
     </row>
     <row r="31" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A31" s="8">
-        <v>43199</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1110</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1120</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="39" t="s">
-        <v>1024</v>
-      </c>
+      <c r="J31" s="39"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="19" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M31" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="N31" s="26" t="str">
-        <f>VLOOKUP(P31,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="R31" s="14">
-        <v>14</v>
-      </c>
-      <c r="S31" s="14">
-        <v>0</v>
-      </c>
-      <c r="T31" s="14">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="U31" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A32" s="8">
-        <v>43199</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1155</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1205</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="39" t="s">
-        <v>1025</v>
-      </c>
+      <c r="J32" s="39"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="19" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M32" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="N32" s="26" t="str">
-        <f>VLOOKUP(P32,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q32" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="R32" s="14">
-        <v>14</v>
-      </c>
-      <c r="S32" s="14">
-        <v>0</v>
-      </c>
-      <c r="T32" s="14">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="U32" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="7"/>
     </row>
     <row r="33" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A33" s="8">
-        <v>43199</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1025</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1050</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="39" t="s">
-        <v>1029</v>
-      </c>
+      <c r="J33" s="39"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="19" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M33" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="N33" s="26" t="str">
-        <f>VLOOKUP(P33,ch!$A$1:$B$32,2,0)</f>
-        <v>鄂FJU350</v>
-      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="R33" s="14">
-        <v>14</v>
-      </c>
-      <c r="S33" s="14">
-        <v>0</v>
-      </c>
-      <c r="T33" s="14">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="U33" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="7"/>
     </row>
     <row r="34" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A34" s="8"/>
@@ -57082,17 +56867,11 @@
       <c r="N34" s="26"/>
       <c r="O34" s="10"/>
       <c r="P34" s="29"/>
-      <c r="Q34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
+      <c r="Q34" s="7"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
+      <c r="U34" s="7"/>
     </row>
     <row r="35" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A35" s="8"/>
@@ -57111,17 +56890,11 @@
       <c r="N35" s="26"/>
       <c r="O35" s="10"/>
       <c r="P35" s="29"/>
-      <c r="Q35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
+      <c r="Q35" s="7"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
+      <c r="U35" s="7"/>
     </row>
     <row r="36" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A36" s="8"/>
@@ -57140,17 +56913,11 @@
       <c r="N36" s="26"/>
       <c r="O36" s="10"/>
       <c r="P36" s="29"/>
-      <c r="Q36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
+      <c r="Q36" s="7"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
-      <c r="U36" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
+      <c r="U36" s="7"/>
     </row>
     <row r="37" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A37" s="8"/>
@@ -57169,17 +56936,11 @@
       <c r="N37" s="26"/>
       <c r="O37" s="10"/>
       <c r="P37" s="29"/>
-      <c r="Q37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
+      <c r="Q37" s="7"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
+      <c r="U37" s="7"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="18.75">
       <c r="A38" s="8"/>
@@ -57198,168 +56959,34 @@
       <c r="N38" s="26"/>
       <c r="O38" s="10"/>
       <c r="P38" s="29"/>
-      <c r="Q38" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
+      <c r="Q38" s="7"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A39" s="8"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>--</v>
-      </c>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A40" s="8"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="7"/>
-    </row>
-    <row r="41" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A41" s="8"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="7"/>
-    </row>
-    <row r="42" spans="1:21" s="35" customFormat="1" ht="18.75">
-      <c r="A42" s="8"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="7"/>
+      <c r="U38" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I43:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+  <conditionalFormatting sqref="I39:L1048576 I1:L1">
+    <cfRule type="duplicateValues" dxfId="35" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L10 L18:L42">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  <conditionalFormatting sqref="L2:L26">
+    <cfRule type="duplicateValues" dxfId="34" priority="187"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:L10 I18:L42">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+  <conditionalFormatting sqref="I2:L26">
+    <cfRule type="duplicateValues" dxfId="33" priority="188"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J10 I18:J42">
-    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+  <conditionalFormatting sqref="I2:J26">
+    <cfRule type="duplicateValues" dxfId="32" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L14">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  <conditionalFormatting sqref="L27:L38">
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14 K12:L14">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  <conditionalFormatting sqref="I27:L38">
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14">
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J14">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J14">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:L11">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:J11">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:L17">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I17 K15:L17">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I17">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J17">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J17">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="I27:J38">
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月摆渡报表.xlsx
+++ b/4月报表/4月摆渡报表.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5571" uniqueCount="1213">
   <si>
     <t>发车日期</t>
   </si>
@@ -4455,6 +4455,26 @@
   </si>
   <si>
     <t>0029926</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣程园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16852</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16851</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029925</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4770,7 +4790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4933,9 +4953,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4966,6 +4983,12 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4990,1003 +5013,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="常规 9 2" xfId="19"/>
   </cellStyles>
-  <dxfs count="194">
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="111">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -8050,11 +7077,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="72536448"/>
-        <c:axId val="72537984"/>
+        <c:axId val="54833920"/>
+        <c:axId val="54835456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72536448"/>
+        <c:axId val="54833920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8095,14 +7122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72537984"/>
+        <c:crossAx val="54835456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72537984"/>
+        <c:axId val="54835456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8151,7 +7178,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72536448"/>
+        <c:crossAx val="54833920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8165,7 +7192,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8231,7 +7257,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -8816,7 +7842,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C878D89-33DC-4675-90AC-A875001D4C75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C878D89-33DC-4675-90AC-A875001D4C75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18303,10 +17329,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="duplicateValues" dxfId="193" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="duplicateValues" dxfId="192" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20320,131 +19346,131 @@
       </c>
     </row>
     <row r="29" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A29" s="55">
+      <c r="A29" s="54">
         <v>43200</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="55">
         <v>40</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="55">
         <v>50</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="56" t="s">
         <v>468</v>
       </c>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58" t="s">
+      <c r="I29" s="57"/>
+      <c r="J29" s="57" t="s">
         <v>1175</v>
       </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="59" t="s">
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="58" t="s">
         <v>1176</v>
       </c>
-      <c r="N29" s="60" t="str">
+      <c r="N29" s="59" t="str">
         <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="O29" s="61" t="str">
+      <c r="O29" s="60" t="str">
         <f>VLOOKUP(Q29,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AFX299</v>
       </c>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="62" t="s">
+      <c r="P29" s="55"/>
+      <c r="Q29" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="R29" s="60" t="str">
+      <c r="R29" s="59" t="str">
         <f t="shared" si="9"/>
         <v>9.6米</v>
       </c>
-      <c r="S29" s="57">
-        <v>14</v>
-      </c>
-      <c r="T29" s="57">
+      <c r="S29" s="56">
+        <v>14</v>
+      </c>
+      <c r="T29" s="56">
         <v>0</v>
       </c>
-      <c r="U29" s="57">
+      <c r="U29" s="56">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="V29" s="60" t="str">
+      <c r="V29" s="59" t="str">
         <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A30" s="55">
+      <c r="A30" s="54">
         <v>43200</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="55" t="s">
         <v>1093</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="55">
         <v>1052</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="55">
         <v>1102</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="56" t="s">
         <v>468</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58" t="s">
+      <c r="I30" s="57"/>
+      <c r="J30" s="57" t="s">
         <v>1177</v>
       </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="59" t="s">
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="58" t="s">
         <v>1178</v>
       </c>
-      <c r="N30" s="60" t="str">
+      <c r="N30" s="59" t="str">
         <f t="shared" ref="N30" si="12">IF(A30&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="O30" s="61" t="str">
+      <c r="O30" s="60" t="str">
         <f>VLOOKUP(Q30,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AFX299</v>
       </c>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="62" t="s">
+      <c r="P30" s="55"/>
+      <c r="Q30" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="R30" s="60" t="str">
+      <c r="R30" s="59" t="str">
         <f t="shared" ref="R30" si="13">IF(A30&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
-      <c r="S30" s="57">
-        <v>14</v>
-      </c>
-      <c r="T30" s="57">
+      <c r="S30" s="56">
+        <v>14</v>
+      </c>
+      <c r="T30" s="56">
         <v>0</v>
       </c>
-      <c r="U30" s="57">
+      <c r="U30" s="56">
         <f t="shared" ref="U30" si="14">SUM(S30:T30)</f>
         <v>14</v>
       </c>
-      <c r="V30" s="60" t="str">
+      <c r="V30" s="59" t="str">
         <f t="shared" ref="V30" si="15">IF(A30&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
@@ -20524,37 +19550,37 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I12:M14 I1:M1 I21:M1048576">
-    <cfRule type="duplicateValues" dxfId="148" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M11 M15:M28">
-    <cfRule type="duplicateValues" dxfId="147" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M28 I2:M11">
-    <cfRule type="duplicateValues" dxfId="146" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J11 I15:J28">
-    <cfRule type="duplicateValues" dxfId="145" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M14 M21:M33">
-    <cfRule type="duplicateValues" dxfId="144" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:M14 I21:M33">
-    <cfRule type="duplicateValues" dxfId="143" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J14 I21:J33">
-    <cfRule type="duplicateValues" dxfId="142" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:M33">
-    <cfRule type="duplicateValues" dxfId="95" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M33">
-    <cfRule type="duplicateValues" dxfId="94" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J33">
-    <cfRule type="duplicateValues" dxfId="93" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L31">
-    <cfRule type="duplicateValues" dxfId="92" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20562,10 +19588,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL91"/>
+  <dimension ref="A1:BL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20705,16 +19731,16 @@
     </row>
     <row r="2" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A2" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>235</v>
       </c>
       <c r="C2" s="10">
-        <v>1650</v>
+        <v>1630</v>
       </c>
       <c r="D2" s="10">
-        <v>1834</v>
+        <v>1809</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>236</v>
@@ -20723,38 +19749,34 @@
         <v>252</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>431</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
-        <v>1073</v>
+        <v>1179</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
-        <v>1144</v>
-      </c>
+      <c r="L2" s="10"/>
       <c r="M2" s="19" t="s">
-        <v>1074</v>
+        <v>1180</v>
       </c>
       <c r="N2" s="7" t="str">
-        <f t="shared" ref="N2:N31" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="N2" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O2" s="26" t="str">
         <f>VLOOKUP(Q2,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AQQ353</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>181</v>
-      </c>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="P2" s="10"/>
       <c r="Q2" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R2" s="7" t="str">
-        <f t="shared" ref="R2:R31" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="R2" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S2" s="14">
@@ -20764,26 +19786,26 @@
         <v>0</v>
       </c>
       <c r="U2" s="14">
-        <f t="shared" ref="U2:U31" si="2">SUM(S2:T2)</f>
+        <f t="shared" ref="U2" si="2">SUM(S2:T2)</f>
         <v>14</v>
       </c>
       <c r="V2" s="7" t="str">
-        <f t="shared" ref="V2:V31" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="V2" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="3" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A3" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="10">
-        <v>1750</v>
+        <v>1459</v>
       </c>
       <c r="D3" s="10">
-        <v>1926</v>
+        <v>1658</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>236</v>
@@ -20792,38 +19814,34 @@
         <v>252</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>431</v>
       </c>
       <c r="I3" s="39"/>
       <c r="J3" s="39" t="s">
-        <v>1096</v>
+        <v>1181</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="10" t="s">
-        <v>1145</v>
-      </c>
+      <c r="L3" s="10"/>
       <c r="M3" s="19" t="s">
-        <v>1097</v>
+        <v>1182</v>
       </c>
       <c r="N3" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N3:N6" si="4">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O3" s="26" t="str">
         <f>VLOOKUP(Q3,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMR731</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>1141</v>
-      </c>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="P3" s="10"/>
       <c r="Q3" s="29" t="s">
-        <v>1098</v>
+        <v>198</v>
       </c>
       <c r="R3" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R3:R6" si="5">IF(A3&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S3" s="14">
@@ -20833,26 +19851,26 @@
         <v>0</v>
       </c>
       <c r="U3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U3:U6" si="6">SUM(S3:T3)</f>
         <v>14</v>
       </c>
       <c r="V3" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V3:V6" si="7">IF(A3&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="4" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A4" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C4" s="10">
-        <v>1929</v>
+        <v>1810</v>
       </c>
       <c r="D4" s="10">
-        <v>2108</v>
+        <v>1943</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>236</v>
@@ -20861,142 +19879,136 @@
         <v>252</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>431</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39" t="s">
-        <v>1099</v>
+        <v>1206</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
-        <v>1146</v>
-      </c>
+      <c r="L4" s="10"/>
       <c r="M4" s="19" t="s">
-        <v>1100</v>
+        <v>1207</v>
       </c>
       <c r="N4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N4:N5" si="8">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O4" s="26" t="str">
         <f>VLOOKUP(Q4,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂ALU291</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>182</v>
-      </c>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="P4" s="10"/>
       <c r="Q4" s="29" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="R4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R4:R5" si="9">IF(A4&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S4" s="14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T4" s="14">
         <v>0</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" ref="U4:U5" si="10">SUM(S4:T4)</f>
+        <v>14</v>
       </c>
       <c r="V4" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V4:V5" si="11">IF(A4&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="5" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A5" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>244</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="10">
-        <v>1902</v>
+        <v>1929</v>
       </c>
       <c r="D5" s="10">
-        <v>2044</v>
+        <v>2112</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>236</v>
+        <v>1209</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>252</v>
+        <v>502</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>431</v>
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="39" t="s">
-        <v>1105</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10" t="s">
-        <v>1147</v>
-      </c>
+        <v>1210</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="19" t="s">
-        <v>1106</v>
+        <v>1212</v>
       </c>
       <c r="N5" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="O5" s="26" t="str">
         <f>VLOOKUP(Q5,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZR992</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>184</v>
-      </c>
+        <v>鄂AMR731</v>
+      </c>
+      <c r="P5" s="10"/>
       <c r="Q5" s="29" t="s">
-        <v>107</v>
+        <v>1098</v>
       </c>
       <c r="R5" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9.6米</v>
       </c>
       <c r="S5" s="14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T5" s="14">
         <v>0</v>
       </c>
       <c r="U5" s="14">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="V5" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A6" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="C6" s="10">
-        <v>1920</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10">
-        <v>2106</v>
+        <v>22</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>204</v>
@@ -21006,60 +20018,56 @@
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39" t="s">
-        <v>1102</v>
+        <v>1183</v>
       </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
-        <v>1148</v>
-      </c>
+      <c r="L6" s="10"/>
       <c r="M6" s="19" t="s">
-        <v>1103</v>
+        <v>1184</v>
       </c>
       <c r="N6" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="O6" s="26" t="str">
         <f>VLOOKUP(Q6,ch!$A$1:$B$34,2,0)</f>
-        <v>粤BES791</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>1142</v>
-      </c>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="P6" s="10"/>
       <c r="Q6" s="29" t="s">
-        <v>1104</v>
+        <v>240</v>
       </c>
       <c r="R6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
-      <c r="S6" s="14">
-        <v>8</v>
+      <c r="S6" s="63" t="s">
+        <v>1185</v>
       </c>
       <c r="T6" s="14">
         <v>0</v>
       </c>
       <c r="U6" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="V6" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="7" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A7" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="10">
-        <v>1739</v>
+        <v>1418</v>
       </c>
       <c r="D7" s="10">
-        <v>1800</v>
+        <v>1437</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>210</v>
@@ -21075,60 +20083,56 @@
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39" t="s">
-        <v>1075</v>
+        <v>1186</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="10" t="s">
-        <v>1149</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="19" t="s">
-        <v>1081</v>
+        <v>1187</v>
       </c>
       <c r="N7" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N7" si="12">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O7" s="26" t="str">
         <f>VLOOKUP(Q7,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="P7" s="10"/>
       <c r="Q7" s="29" t="s">
         <v>240</v>
       </c>
       <c r="R7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R7" si="13">IF(A7&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S7" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T7" s="14">
         <v>0</v>
       </c>
       <c r="U7" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" ref="U7" si="14">SUM(S7:T7)</f>
+        <v>13</v>
       </c>
       <c r="V7" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V7" si="15">IF(A7&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="8" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A8" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>111</v>
+        <v>1188</v>
       </c>
       <c r="C8" s="10">
-        <v>1100</v>
+        <v>1803</v>
       </c>
       <c r="D8" s="10">
-        <v>1120</v>
+        <v>1826</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>210</v>
@@ -21144,169 +20148,157 @@
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="39" t="s">
-        <v>1082</v>
+        <v>1189</v>
       </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="10" t="s">
-        <v>1150</v>
-      </c>
+      <c r="L8" s="10"/>
       <c r="M8" s="19" t="s">
-        <v>1076</v>
+        <v>1190</v>
       </c>
       <c r="N8" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N8:N9" si="16">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O8" s="26" t="str">
         <f>VLOOKUP(Q8,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂ANH299</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>165</v>
-      </c>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="P8" s="10"/>
       <c r="Q8" s="29" t="s">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="R8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R8:R9" si="17">IF(A8&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S8" s="14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T8" s="14">
         <v>0</v>
       </c>
       <c r="U8" s="14">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" ref="U8:U9" si="18">SUM(S8:T8)</f>
+        <v>9</v>
       </c>
       <c r="V8" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V8:V9" si="19">IF(A8&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="9" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A9" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1067</v>
+        <v>1191</v>
       </c>
       <c r="C9" s="10">
-        <v>2030</v>
+        <v>1955</v>
       </c>
       <c r="D9" s="10">
-        <v>2119</v>
+        <v>2005</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="39" t="s">
-        <v>1107</v>
+        <v>1192</v>
       </c>
       <c r="K9" s="10"/>
-      <c r="L9" s="10" t="s">
-        <v>1151</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="19" t="s">
-        <v>1108</v>
+        <v>1193</v>
       </c>
       <c r="N9" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="O9" s="26" t="str">
         <f>VLOOKUP(Q9,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>176</v>
-      </c>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="P9" s="10"/>
       <c r="Q9" s="29" t="s">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="R9" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>9.6米</v>
       </c>
       <c r="S9" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T9" s="14">
         <v>0</v>
       </c>
       <c r="U9" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="V9" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A10" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="C10" s="10">
-        <v>2015</v>
+        <v>1731</v>
       </c>
       <c r="D10" s="10">
-        <v>2052</v>
+        <v>1741</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
-        <v>1111</v>
+        <v>1194</v>
       </c>
       <c r="K10" s="10"/>
-      <c r="L10" s="10" t="s">
-        <v>1152</v>
-      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="19" t="s">
-        <v>1112</v>
+        <v>1195</v>
       </c>
       <c r="N10" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N10" si="20">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O10" s="26" t="str">
         <f>VLOOKUP(Q10,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="P10" s="10"/>
       <c r="Q10" s="29" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="R10" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R10" si="21">IF(A10&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S10" s="14">
@@ -21316,204 +20308,192 @@
         <v>0</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U10" si="22">SUM(S10:T10)</f>
         <v>14</v>
       </c>
       <c r="V10" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V10" si="23">IF(A10&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A11" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1113</v>
+        <v>259</v>
       </c>
       <c r="C11" s="10">
-        <v>1720</v>
+        <v>1215</v>
       </c>
       <c r="D11" s="10">
-        <v>1752</v>
+        <v>1225</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39" t="s">
-        <v>1114</v>
+        <v>1196</v>
       </c>
       <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
-        <v>1153</v>
-      </c>
+      <c r="L11" s="10"/>
       <c r="M11" s="19" t="s">
-        <v>1115</v>
+        <v>1197</v>
       </c>
       <c r="N11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N11" si="24">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O11" s="26" t="str">
         <f>VLOOKUP(Q11,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="P11" s="10"/>
       <c r="Q11" s="29" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="R11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R11" si="25">IF(A11&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S11" s="14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T11" s="14">
         <v>0</v>
       </c>
       <c r="U11" s="14">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" ref="U11" si="26">SUM(S11:T11)</f>
+        <v>14</v>
       </c>
       <c r="V11" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V11" si="27">IF(A11&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="12" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A12" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1067</v>
+        <v>289</v>
       </c>
       <c r="C12" s="10">
-        <v>2100</v>
+        <v>1515</v>
       </c>
       <c r="D12" s="10">
-        <v>2210</v>
+        <v>1525</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39" t="s">
-        <v>1118</v>
+        <v>1198</v>
       </c>
       <c r="K12" s="10"/>
-      <c r="L12" s="10" t="s">
-        <v>1154</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="19" t="s">
-        <v>1119</v>
+        <v>1199</v>
       </c>
       <c r="N12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N12" si="28">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O12" s="26" t="str">
         <f>VLOOKUP(Q12,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMR731</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>1141</v>
-      </c>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="P12" s="10"/>
       <c r="Q12" s="29" t="s">
-        <v>1098</v>
+        <v>117</v>
       </c>
       <c r="R12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R12" si="29">IF(A12&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S12" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T12" s="14">
         <v>0</v>
       </c>
       <c r="U12" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="U12" si="30">SUM(S12:T12)</f>
+        <v>14</v>
       </c>
       <c r="V12" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V12" si="31">IF(A12&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A13" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C13" s="10">
-        <v>2036</v>
+        <v>1057</v>
       </c>
       <c r="D13" s="10">
-        <v>2110</v>
+        <v>1107</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39" t="s">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="K13" s="10"/>
-      <c r="L13" s="10" t="s">
-        <v>1155</v>
-      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="19" t="s">
-        <v>1121</v>
+        <v>1201</v>
       </c>
       <c r="N13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N13" si="32">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O13" s="26" t="str">
         <f>VLOOKUP(Q13,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>177</v>
-      </c>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="P13" s="10"/>
       <c r="Q13" s="29" t="s">
-        <v>1122</v>
+        <v>117</v>
       </c>
       <c r="R13" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R13" si="33">IF(A13&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S13" s="14">
@@ -21523,95 +20503,91 @@
         <v>0</v>
       </c>
       <c r="U13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U13" si="34">SUM(S13:T13)</f>
         <v>14</v>
       </c>
       <c r="V13" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V13" si="35">IF(A13&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A14" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C14" s="10">
-        <v>2215</v>
+        <v>940</v>
       </c>
       <c r="D14" s="10">
-        <v>2238</v>
+        <v>950</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
-        <v>1123</v>
+        <v>1202</v>
       </c>
       <c r="K14" s="10"/>
-      <c r="L14" s="10" t="s">
-        <v>1156</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="19" t="s">
-        <v>1124</v>
+        <v>1203</v>
       </c>
       <c r="N14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N14" si="36">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O14" s="26" t="str">
         <f>VLOOKUP(Q14,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>177</v>
-      </c>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="P14" s="10"/>
       <c r="Q14" s="29" t="s">
-        <v>1122</v>
+        <v>117</v>
       </c>
       <c r="R14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R14" si="37">IF(A14&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S14" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T14" s="14">
         <v>0</v>
       </c>
       <c r="U14" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="U14" si="38">SUM(S14:T14)</f>
+        <v>14</v>
       </c>
       <c r="V14" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V14" si="39">IF(A14&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="15" spans="1:64" s="35" customFormat="1" ht="18.75">
       <c r="A15" s="8">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="C15" s="10">
-        <v>1950</v>
+        <v>50</v>
       </c>
       <c r="D15" s="10">
-        <v>2000</v>
+        <v>107</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>204</v>
@@ -21627,1919 +20603,715 @@
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="39" t="s">
-        <v>1083</v>
+        <v>1204</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="10" t="s">
-        <v>1157</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="19" t="s">
-        <v>1084</v>
+        <v>1205</v>
       </c>
       <c r="N15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N15" si="40">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O15" s="26" t="str">
         <f>VLOOKUP(Q15,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="P15" s="10"/>
       <c r="Q15" s="29" t="s">
-        <v>373</v>
+        <v>117</v>
       </c>
       <c r="R15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R15" si="41">IF(A15&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S15" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T15" s="14">
         <v>0</v>
       </c>
       <c r="U15" s="14">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" ref="U15" si="42">SUM(S15:T15)</f>
+        <v>14</v>
       </c>
       <c r="V15" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V15" si="43">IF(A15&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
     <row r="16" spans="1:64" s="35" customFormat="1" ht="18.75">
-      <c r="A16" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1830</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1840</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="39" t="s">
-        <v>1085</v>
-      </c>
+      <c r="J16" s="39"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="10" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>1086</v>
-      </c>
-      <c r="N16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O16" s="26" t="str">
-        <f>VLOOKUP(Q16,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="R16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S16" s="14">
-        <v>14</v>
-      </c>
-      <c r="T16" s="14">
-        <v>0</v>
-      </c>
-      <c r="U16" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V16" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A17" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1535</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1545</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="39" t="s">
-        <v>1087</v>
-      </c>
+      <c r="J17" s="39"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10" t="s">
-        <v>1159</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>1088</v>
-      </c>
-      <c r="N17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O17" s="26" t="str">
-        <f>VLOOKUP(Q17,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="R17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S17" s="14">
-        <v>14</v>
-      </c>
-      <c r="T17" s="14">
-        <v>0</v>
-      </c>
-      <c r="U17" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V17" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A18" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1202</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1212</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="39"/>
-      <c r="J18" s="39" t="s">
-        <v>1089</v>
-      </c>
+      <c r="J18" s="39"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>1090</v>
-      </c>
-      <c r="N18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O18" s="26" t="str">
-        <f>VLOOKUP(Q18,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q18" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="R18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S18" s="14">
-        <v>6</v>
-      </c>
-      <c r="T18" s="14">
-        <v>0</v>
-      </c>
-      <c r="U18" s="14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="V18" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A19" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1120</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1130</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="39" t="s">
-        <v>1091</v>
-      </c>
+      <c r="J19" s="39"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="10" t="s">
-        <v>1161</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>1092</v>
-      </c>
-      <c r="N19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O19" s="26" t="str">
-        <f>VLOOKUP(Q19,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="R19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S19" s="14">
-        <v>14</v>
-      </c>
-      <c r="T19" s="14">
-        <v>0</v>
-      </c>
-      <c r="U19" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V19" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A20" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1017</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1027</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="39" t="s">
-        <v>1094</v>
-      </c>
+      <c r="J20" s="39"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>1095</v>
-      </c>
-      <c r="N20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O20" s="26" t="str">
-        <f>VLOOKUP(Q20,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMT870</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="R20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S20" s="14">
-        <v>14</v>
-      </c>
-      <c r="T20" s="14">
-        <v>0</v>
-      </c>
-      <c r="U20" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V20" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A21" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2355</v>
-      </c>
-      <c r="D21" s="10">
-        <v>5</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="39" t="s">
-        <v>1125</v>
-      </c>
+      <c r="J21" s="39"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>1126</v>
-      </c>
-      <c r="N21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O21" s="26" t="str">
-        <f>VLOOKUP(Q21,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q21" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S21" s="14">
-        <v>14</v>
-      </c>
-      <c r="T21" s="14">
-        <v>0</v>
-      </c>
-      <c r="U21" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V21" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A22" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2258</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2308</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="39" t="s">
-        <v>1127</v>
-      </c>
+      <c r="J22" s="39"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>1128</v>
-      </c>
-      <c r="N22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O22" s="26" t="str">
-        <f>VLOOKUP(Q22,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S22" s="14">
-        <v>14</v>
-      </c>
-      <c r="T22" s="14">
-        <v>0</v>
-      </c>
-      <c r="U22" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V22" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A23" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2220</v>
-      </c>
-      <c r="D23" s="10">
-        <v>2230</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="39"/>
-      <c r="J23" s="39" t="s">
-        <v>1129</v>
-      </c>
+      <c r="J23" s="39"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>1130</v>
-      </c>
-      <c r="N23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O23" s="26" t="str">
-        <f>VLOOKUP(Q23,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S23" s="14">
-        <v>14</v>
-      </c>
-      <c r="T23" s="14">
-        <v>0</v>
-      </c>
-      <c r="U23" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V23" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="7"/>
     </row>
     <row r="24" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A24" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2105</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2115</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="39" t="s">
-        <v>1131</v>
-      </c>
+      <c r="J24" s="39"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>1132</v>
-      </c>
-      <c r="N24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O24" s="26" t="str">
-        <f>VLOOKUP(Q24,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S24" s="14">
-        <v>12</v>
-      </c>
-      <c r="T24" s="14">
-        <v>0</v>
-      </c>
-      <c r="U24" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="V24" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A25" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1920</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1930</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="39"/>
-      <c r="J25" s="39" t="s">
-        <v>1133</v>
-      </c>
+      <c r="J25" s="39"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="10" t="s">
-        <v>1167</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>1134</v>
-      </c>
-      <c r="N25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O25" s="26" t="str">
-        <f>VLOOKUP(Q25,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q25" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S25" s="14">
-        <v>14</v>
-      </c>
-      <c r="T25" s="14">
-        <v>0</v>
-      </c>
-      <c r="U25" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V25" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A26" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="10">
-        <v>1605</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1615</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="39"/>
-      <c r="J26" s="39" t="s">
-        <v>1135</v>
-      </c>
+      <c r="J26" s="39"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O26" s="26" t="str">
-        <f>VLOOKUP(Q26,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q26" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S26" s="14">
-        <v>8</v>
-      </c>
-      <c r="T26" s="14">
-        <v>0</v>
-      </c>
-      <c r="U26" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="V26" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A27" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1355</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1405</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="39" t="s">
-        <v>1137</v>
-      </c>
+      <c r="J27" s="39"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>1138</v>
-      </c>
-      <c r="N27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O27" s="26" t="str">
-        <f>VLOOKUP(Q27,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q27" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S27" s="14">
-        <v>12</v>
-      </c>
-      <c r="T27" s="14">
-        <v>0</v>
-      </c>
-      <c r="U27" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="V27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A28" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1151</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1201</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="39" t="s">
-        <v>1139</v>
-      </c>
+      <c r="J28" s="39"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>1140</v>
-      </c>
-      <c r="N28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O28" s="26" t="str">
-        <f>VLOOKUP(Q28,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S28" s="14">
-        <v>14</v>
-      </c>
-      <c r="T28" s="14">
-        <v>0</v>
-      </c>
-      <c r="U28" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A29" s="55">
-        <v>43200</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="56">
-        <v>40</v>
-      </c>
-      <c r="D29" s="56">
-        <v>50</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>431</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="59" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N29" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O29" s="61" t="str">
-        <f>VLOOKUP(Q29,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AFX299</v>
-      </c>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="R29" s="60" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S29" s="57">
-        <v>14</v>
-      </c>
-      <c r="T29" s="57">
-        <v>0</v>
-      </c>
-      <c r="U29" s="57">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V29" s="60" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="7"/>
     </row>
     <row r="30" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A30" s="55">
-        <v>43200</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C30" s="56">
-        <v>1052</v>
-      </c>
-      <c r="D30" s="56">
-        <v>1102</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>431</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="59" t="s">
-        <v>1178</v>
-      </c>
-      <c r="N30" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O30" s="61" t="str">
-        <f>VLOOKUP(Q30,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AFX299</v>
-      </c>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="R30" s="60" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S30" s="57">
-        <v>14</v>
-      </c>
-      <c r="T30" s="57">
-        <v>0</v>
-      </c>
-      <c r="U30" s="57">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V30" s="60" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="7"/>
     </row>
     <row r="31" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A31" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1630</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1809</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="39" t="s">
-        <v>1179</v>
-      </c>
+      <c r="J31" s="39"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="19" t="s">
-        <v>1180</v>
-      </c>
-      <c r="N31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O31" s="26" t="str">
-        <f>VLOOKUP(Q31,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZV373</v>
-      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="26"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="R31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S31" s="14">
-        <v>14</v>
-      </c>
-      <c r="T31" s="14">
-        <v>0</v>
-      </c>
-      <c r="U31" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V31" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="7"/>
     </row>
     <row r="32" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A32" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1459</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1658</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="39" t="s">
-        <v>1181</v>
-      </c>
+      <c r="J32" s="39"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="19" t="s">
-        <v>1182</v>
-      </c>
-      <c r="N32" s="7" t="str">
-        <f t="shared" ref="N32:N34" si="4">IF(A32&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O32" s="26" t="str">
-        <f>VLOOKUP(Q32,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂ALU291</v>
-      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="26"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="R32" s="7" t="str">
-        <f t="shared" ref="R32:R34" si="5">IF(A32&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S32" s="14">
-        <v>14</v>
-      </c>
-      <c r="T32" s="14">
-        <v>0</v>
-      </c>
-      <c r="U32" s="14">
-        <f t="shared" ref="U32:U34" si="6">SUM(S32:T32)</f>
-        <v>14</v>
-      </c>
-      <c r="V32" s="7" t="str">
-        <f t="shared" ref="V32:V34" si="7">IF(A32&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="7"/>
     </row>
     <row r="33" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A33" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1810</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1944</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="39" t="s">
-        <v>1206</v>
-      </c>
+      <c r="J33" s="39"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="19" t="s">
-        <v>1207</v>
-      </c>
-      <c r="N33" s="7" t="str">
-        <f t="shared" ref="N33" si="8">IF(A33&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O33" s="26" t="str">
-        <f>VLOOKUP(Q33,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂ALU151</v>
-      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="26"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="R33" s="7" t="str">
-        <f t="shared" ref="R33" si="9">IF(A33&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S33" s="14">
-        <v>14</v>
-      </c>
-      <c r="T33" s="14">
-        <v>0</v>
-      </c>
-      <c r="U33" s="14">
-        <f t="shared" ref="U33" si="10">SUM(S33:T33)</f>
-        <v>14</v>
-      </c>
-      <c r="V33" s="7" t="str">
-        <f t="shared" ref="V33" si="11">IF(A33&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="7"/>
     </row>
     <row r="34" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A34" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C34" s="10">
-        <v>9</v>
-      </c>
-      <c r="D34" s="10">
-        <v>22</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="39" t="s">
-        <v>1183</v>
-      </c>
+      <c r="J34" s="39"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="19" t="s">
-        <v>1184</v>
-      </c>
-      <c r="N34" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O34" s="26" t="str">
-        <f>VLOOKUP(Q34,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="R34" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S34" s="64" t="s">
-        <v>1185</v>
-      </c>
-      <c r="T34" s="14">
-        <v>0</v>
-      </c>
-      <c r="U34" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="7"/>
     </row>
     <row r="35" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A35" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="10">
-        <v>1418</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1437</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="39" t="s">
-        <v>1186</v>
-      </c>
+      <c r="J35" s="39"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="19" t="s">
-        <v>1187</v>
-      </c>
-      <c r="N35" s="7" t="str">
-        <f t="shared" ref="N35" si="12">IF(A35&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O35" s="26" t="str">
-        <f>VLOOKUP(Q35,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="R35" s="7" t="str">
-        <f t="shared" ref="R35" si="13">IF(A35&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S35" s="14">
-        <v>13</v>
-      </c>
-      <c r="T35" s="14">
-        <v>0</v>
-      </c>
-      <c r="U35" s="14">
-        <f t="shared" ref="U35" si="14">SUM(S35:T35)</f>
-        <v>13</v>
-      </c>
-      <c r="V35" s="7" t="str">
-        <f t="shared" ref="V35" si="15">IF(A35&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="7"/>
     </row>
     <row r="36" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A36" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C36" s="10">
-        <v>1803</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1826</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="39" t="s">
-        <v>1189</v>
-      </c>
+      <c r="J36" s="39"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="19" t="s">
-        <v>1190</v>
-      </c>
-      <c r="N36" s="7" t="str">
-        <f t="shared" ref="N36:N37" si="16">IF(A36&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O36" s="26" t="str">
-        <f>VLOOKUP(Q36,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="26"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="R36" s="7" t="str">
-        <f t="shared" ref="R36:R37" si="17">IF(A36&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S36" s="14">
-        <v>9</v>
-      </c>
-      <c r="T36" s="14">
-        <v>0</v>
-      </c>
-      <c r="U36" s="14">
-        <f t="shared" ref="U36:U37" si="18">SUM(S36:T36)</f>
-        <v>9</v>
-      </c>
-      <c r="V36" s="7" t="str">
-        <f t="shared" ref="V36:V37" si="19">IF(A36&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="7"/>
     </row>
     <row r="37" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A37" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C37" s="10">
-        <v>1955</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2005</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="39" t="s">
-        <v>1192</v>
-      </c>
+      <c r="J37" s="39"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="19" t="s">
-        <v>1193</v>
-      </c>
-      <c r="N37" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O37" s="26" t="str">
-        <f>VLOOKUP(Q37,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="26"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R37" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v>9.6米</v>
-      </c>
-      <c r="S37" s="14">
-        <v>14</v>
-      </c>
-      <c r="T37" s="14">
-        <v>0</v>
-      </c>
-      <c r="U37" s="14">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="V37" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="7"/>
     </row>
     <row r="38" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A38" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1731</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1741</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="39" t="s">
-        <v>1194</v>
-      </c>
+      <c r="J38" s="39"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="19" t="s">
-        <v>1195</v>
-      </c>
-      <c r="N38" s="7" t="str">
-        <f t="shared" ref="N38" si="20">IF(A38&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O38" s="26" t="str">
-        <f>VLOOKUP(Q38,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="26"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R38" s="7" t="str">
-        <f t="shared" ref="R38" si="21">IF(A38&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S38" s="14">
-        <v>14</v>
-      </c>
-      <c r="T38" s="14">
-        <v>0</v>
-      </c>
-      <c r="U38" s="14">
-        <f t="shared" ref="U38" si="22">SUM(S38:T38)</f>
-        <v>14</v>
-      </c>
-      <c r="V38" s="7" t="str">
-        <f t="shared" ref="V38" si="23">IF(A38&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="7"/>
     </row>
     <row r="39" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A39" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" s="10">
-        <v>1215</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1225</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="39" t="s">
-        <v>1196</v>
-      </c>
+      <c r="J39" s="39"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="19" t="s">
-        <v>1197</v>
-      </c>
-      <c r="N39" s="7" t="str">
-        <f t="shared" ref="N39" si="24">IF(A39&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O39" s="26" t="str">
-        <f>VLOOKUP(Q39,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="26"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R39" s="7" t="str">
-        <f t="shared" ref="R39" si="25">IF(A39&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S39" s="14">
-        <v>14</v>
-      </c>
-      <c r="T39" s="14">
-        <v>0</v>
-      </c>
-      <c r="U39" s="14">
-        <f t="shared" ref="U39" si="26">SUM(S39:T39)</f>
-        <v>14</v>
-      </c>
-      <c r="V39" s="7" t="str">
-        <f t="shared" ref="V39" si="27">IF(A39&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="7"/>
     </row>
     <row r="40" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A40" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" s="10">
-        <v>1515</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1525</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="39" t="s">
-        <v>1198</v>
-      </c>
+      <c r="J40" s="39"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="19" t="s">
-        <v>1199</v>
-      </c>
-      <c r="N40" s="7" t="str">
-        <f t="shared" ref="N40" si="28">IF(A40&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O40" s="26" t="str">
-        <f>VLOOKUP(Q40,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="26"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R40" s="7" t="str">
-        <f t="shared" ref="R40" si="29">IF(A40&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S40" s="14">
-        <v>14</v>
-      </c>
-      <c r="T40" s="14">
-        <v>0</v>
-      </c>
-      <c r="U40" s="14">
-        <f t="shared" ref="U40" si="30">SUM(S40:T40)</f>
-        <v>14</v>
-      </c>
-      <c r="V40" s="7" t="str">
-        <f t="shared" ref="V40" si="31">IF(A40&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="7"/>
     </row>
     <row r="41" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A41" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="10">
-        <v>1057</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1107</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="39" t="s">
-        <v>1200</v>
-      </c>
+      <c r="J41" s="39"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="19" t="s">
-        <v>1201</v>
-      </c>
-      <c r="N41" s="7" t="str">
-        <f t="shared" ref="N41" si="32">IF(A41&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O41" s="26" t="str">
-        <f>VLOOKUP(Q41,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="26"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R41" s="7" t="str">
-        <f t="shared" ref="R41" si="33">IF(A41&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S41" s="14">
-        <v>14</v>
-      </c>
-      <c r="T41" s="14">
-        <v>0</v>
-      </c>
-      <c r="U41" s="14">
-        <f t="shared" ref="U41" si="34">SUM(S41:T41)</f>
-        <v>14</v>
-      </c>
-      <c r="V41" s="7" t="str">
-        <f t="shared" ref="V41" si="35">IF(A41&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="7"/>
     </row>
     <row r="42" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A42" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C42" s="10">
-        <v>940</v>
-      </c>
-      <c r="D42" s="10">
-        <v>950</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A42" s="8"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="39" t="s">
-        <v>1202</v>
-      </c>
+      <c r="J42" s="39"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="19" t="s">
-        <v>1203</v>
-      </c>
-      <c r="N42" s="7" t="str">
-        <f t="shared" ref="N42" si="36">IF(A42&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O42" s="26" t="str">
-        <f>VLOOKUP(Q42,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="26"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R42" s="7" t="str">
-        <f t="shared" ref="R42" si="37">IF(A42&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S42" s="14">
-        <v>14</v>
-      </c>
-      <c r="T42" s="14">
-        <v>0</v>
-      </c>
-      <c r="U42" s="14">
-        <f t="shared" ref="U42" si="38">SUM(S42:T42)</f>
-        <v>14</v>
-      </c>
-      <c r="V42" s="7" t="str">
-        <f t="shared" ref="V42" si="39">IF(A42&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="7"/>
     </row>
     <row r="43" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A43" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C43" s="10">
-        <v>50</v>
-      </c>
-      <c r="D43" s="10">
-        <v>107</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>468</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="39" t="s">
-        <v>1204</v>
-      </c>
+      <c r="J43" s="39"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="19" t="s">
-        <v>1205</v>
-      </c>
-      <c r="N43" s="7" t="str">
-        <f t="shared" ref="N43" si="40">IF(A43&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="O43" s="26" t="str">
-        <f>VLOOKUP(Q43,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="26"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="R43" s="7" t="str">
-        <f t="shared" ref="R43" si="41">IF(A43&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="S43" s="14">
-        <v>14</v>
-      </c>
-      <c r="T43" s="14">
-        <v>0</v>
-      </c>
-      <c r="U43" s="14">
-        <f t="shared" ref="U43" si="42">SUM(S43:T43)</f>
-        <v>14</v>
-      </c>
-      <c r="V43" s="7" t="str">
-        <f t="shared" ref="V43" si="43">IF(A43&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="7"/>
     </row>
     <row r="44" spans="1:22" s="35" customFormat="1" ht="18.75">
       <c r="A44" s="8"/>
@@ -24021,715 +21793,34 @@
       <c r="U63" s="14"/>
       <c r="V63" s="7"/>
     </row>
-    <row r="64" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A64" s="8"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="7"/>
-    </row>
-    <row r="65" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A65" s="8"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14"/>
-      <c r="V65" s="7"/>
-    </row>
-    <row r="66" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A66" s="8"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="14"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="7"/>
-    </row>
-    <row r="67" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A67" s="8"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="7"/>
-    </row>
-    <row r="68" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A68" s="8"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="7"/>
-    </row>
-    <row r="69" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A69" s="8"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="7"/>
-    </row>
-    <row r="70" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A70" s="8"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="7"/>
-    </row>
-    <row r="71" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A71" s="8"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="7"/>
-    </row>
-    <row r="72" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A72" s="8"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="7"/>
-    </row>
-    <row r="73" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A73" s="8"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="7"/>
-    </row>
-    <row r="74" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A74" s="8"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="7"/>
-    </row>
-    <row r="75" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A75" s="8"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="7"/>
-    </row>
-    <row r="76" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A76" s="8"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="14"/>
-      <c r="V76" s="7"/>
-    </row>
-    <row r="77" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A77" s="8"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="14"/>
-      <c r="V77" s="7"/>
-    </row>
-    <row r="78" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A78" s="8"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="U78" s="14"/>
-      <c r="V78" s="7"/>
-    </row>
-    <row r="79" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A79" s="8"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="7"/>
-    </row>
-    <row r="80" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A80" s="8"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="7"/>
-    </row>
-    <row r="81" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A81" s="8"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="7"/>
-    </row>
-    <row r="82" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A82" s="8"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="7"/>
-    </row>
-    <row r="83" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A83" s="8"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="7"/>
-    </row>
-    <row r="84" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A84" s="8"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="7"/>
-    </row>
-    <row r="85" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A85" s="8"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="14"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="7"/>
-    </row>
-    <row r="86" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A86" s="8"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="14"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="7"/>
-    </row>
-    <row r="87" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A87" s="8"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="14"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="7"/>
-    </row>
-    <row r="88" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A88" s="8"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="14"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="7"/>
-    </row>
-    <row r="89" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A89" s="8"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="14"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="7"/>
-    </row>
-    <row r="90" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A90" s="8"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="14"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="7"/>
-    </row>
-    <row r="91" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A91" s="8"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I12:M14 I1:M1 I21:M1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+  <conditionalFormatting sqref="L6:L63">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M11 M15:M28">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+  <conditionalFormatting sqref="I1:M1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:M28 I2:M11">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+  <conditionalFormatting sqref="M2:M63">
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J11 I15:J28">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+  <conditionalFormatting sqref="I2:M63">
+    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M14 M21:M91">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  <conditionalFormatting sqref="I2:J63">
+    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:M14 I21:M91">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+  <conditionalFormatting sqref="M2:M63">
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:J14 I21:J91">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+  <conditionalFormatting sqref="I2:M63">
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:M91">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+  <conditionalFormatting sqref="I2:J63">
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:M91">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:J91">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L33">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:L91">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40612,91 +37703,91 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J34">
-    <cfRule type="duplicateValues" dxfId="141" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="duplicateValues" dxfId="140" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="duplicateValues" dxfId="139" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="duplicateValues" dxfId="138" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I117 I124:I130">
-    <cfRule type="duplicateValues" dxfId="137" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:J117 J124:J130">
-    <cfRule type="duplicateValues" dxfId="136" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="duplicateValues" dxfId="135" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I143">
-    <cfRule type="duplicateValues" dxfId="134" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143">
-    <cfRule type="duplicateValues" dxfId="133" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:I140 I144:I160">
-    <cfRule type="duplicateValues" dxfId="132" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:J140 J144:J160">
-    <cfRule type="duplicateValues" dxfId="131" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:I142 I131:I133">
-    <cfRule type="duplicateValues" dxfId="130" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:J142 J131:J133">
-    <cfRule type="duplicateValues" dxfId="129" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:I160">
-    <cfRule type="duplicateValues" dxfId="128" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:J189">
-    <cfRule type="duplicateValues" dxfId="127" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:J219">
-    <cfRule type="duplicateValues" dxfId="126" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:J196">
-    <cfRule type="duplicateValues" dxfId="125" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J97">
-    <cfRule type="duplicateValues" dxfId="124" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:J122 I98:J107">
-    <cfRule type="duplicateValues" dxfId="123" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:J140 I145:J160">
-    <cfRule type="duplicateValues" dxfId="122" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J220:J243">
-    <cfRule type="duplicateValues" dxfId="121" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J239:J243">
-    <cfRule type="duplicateValues" dxfId="120" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:I243">
-    <cfRule type="duplicateValues" dxfId="119" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I239:I243">
-    <cfRule type="duplicateValues" dxfId="118" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:I189">
-    <cfRule type="duplicateValues" dxfId="117" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:I219">
-    <cfRule type="duplicateValues" dxfId="116" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:I196">
-    <cfRule type="duplicateValues" dxfId="115" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:J243">
-    <cfRule type="duplicateValues" dxfId="114" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I239:J243">
-    <cfRule type="duplicateValues" dxfId="113" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="152"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40737,27 +37828,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -45381,7 +42472,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:K1048576">
-    <cfRule type="duplicateValues" dxfId="191" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45422,27 +42513,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -49009,25 +46100,25 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I28">
-    <cfRule type="duplicateValues" dxfId="190" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="duplicateValues" dxfId="189" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I40">
-    <cfRule type="duplicateValues" dxfId="188" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K22 K29:K40">
-    <cfRule type="duplicateValues" dxfId="187" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I109">
-    <cfRule type="duplicateValues" dxfId="186" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="duplicateValues" dxfId="185" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:K1048576 I23:K27 I1:K12">
-    <cfRule type="duplicateValues" dxfId="184" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49067,27 +46158,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -52186,37 +49277,37 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I6:K11 J12:K12 I1:K2 I17:K1048576">
-    <cfRule type="duplicateValues" dxfId="183" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="duplicateValues" dxfId="182" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="duplicateValues" dxfId="181" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11 J12 I16:I64">
-    <cfRule type="duplicateValues" dxfId="180" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K12 K16:K64">
-    <cfRule type="duplicateValues" dxfId="179" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14 I3:I5">
-    <cfRule type="duplicateValues" dxfId="178" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14 K3:K5">
-    <cfRule type="duplicateValues" dxfId="177" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I11 I13:I76 J12">
-    <cfRule type="duplicateValues" dxfId="176" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="175" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="174" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="173" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54669,16 +51760,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1048576">
-    <cfRule type="duplicateValues" dxfId="172" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J34">
-    <cfRule type="duplicateValues" dxfId="171" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L34">
-    <cfRule type="duplicateValues" dxfId="170" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J46">
-    <cfRule type="duplicateValues" dxfId="169" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="25"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58204,22 +55295,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L9:L89">
-    <cfRule type="duplicateValues" dxfId="168" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
-    <cfRule type="duplicateValues" dxfId="167" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:L89">
-    <cfRule type="duplicateValues" dxfId="166" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J89">
-    <cfRule type="duplicateValues" dxfId="165" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:L1048576 I1:L8">
-    <cfRule type="duplicateValues" dxfId="164" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="duplicateValues" dxfId="163" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="58"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60979,25 +58070,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I62:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="162" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L61">
-    <cfRule type="duplicateValues" dxfId="161" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L61">
-    <cfRule type="duplicateValues" dxfId="160" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J61">
-    <cfRule type="duplicateValues" dxfId="159" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L25">
-    <cfRule type="duplicateValues" dxfId="158" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:L25">
-    <cfRule type="duplicateValues" dxfId="157" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:J25">
-    <cfRule type="duplicateValues" dxfId="156" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61672,68 +58763,68 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="10" spans="1:63" s="63" customFormat="1" ht="18.75">
-      <c r="A10" s="55">
+    <row r="10" spans="1:63" s="62" customFormat="1" ht="18.75">
+      <c r="A10" s="54">
         <v>43198</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>2030</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <v>2040</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="56" t="s">
         <v>468</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58" t="s">
+      <c r="I10" s="57"/>
+      <c r="J10" s="57" t="s">
         <v>957</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="59" t="s">
+      <c r="K10" s="55"/>
+      <c r="L10" s="58" t="s">
         <v>958</v>
       </c>
-      <c r="M10" s="60" t="str">
+      <c r="M10" s="59" t="str">
         <f t="shared" ref="M10:M14" si="20">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="N10" s="61" t="str">
+      <c r="N10" s="60" t="str">
         <f>VLOOKUP(P10,ch!$A$1:$B$32,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="O10" s="56" t="s">
+      <c r="O10" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="62" t="s">
+      <c r="P10" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="Q10" s="60" t="str">
+      <c r="Q10" s="59" t="str">
         <f t="shared" ref="Q10:Q14" si="21">IF(A10&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
-      <c r="R10" s="57">
-        <v>14</v>
-      </c>
-      <c r="S10" s="57">
+      <c r="R10" s="56">
+        <v>14</v>
+      </c>
+      <c r="S10" s="56">
         <v>0</v>
       </c>
-      <c r="T10" s="57">
+      <c r="T10" s="56">
         <f t="shared" ref="T10:T14" si="22">SUM(R10:S10)</f>
         <v>14</v>
       </c>
-      <c r="U10" s="60" t="str">
+      <c r="U10" s="59" t="str">
         <f t="shared" ref="U10:U14" si="23">IF(A10&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
@@ -63272,55 +60363,55 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I44:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="112" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L43 L2:L11">
-    <cfRule type="duplicateValues" dxfId="111" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:L43 I2:L11">
-    <cfRule type="duplicateValues" dxfId="110" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J43 I2:J11">
-    <cfRule type="duplicateValues" dxfId="109" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L15">
-    <cfRule type="duplicateValues" dxfId="108" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15 K13:L15">
-    <cfRule type="duplicateValues" dxfId="107" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="duplicateValues" dxfId="106" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="duplicateValues" dxfId="105" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="duplicateValues" dxfId="104" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="duplicateValues" dxfId="103" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:L12">
-    <cfRule type="duplicateValues" dxfId="102" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J12">
-    <cfRule type="duplicateValues" dxfId="101" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L18">
-    <cfRule type="duplicateValues" dxfId="100" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18 K16:L18">
-    <cfRule type="duplicateValues" dxfId="99" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18">
-    <cfRule type="duplicateValues" dxfId="98" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="duplicateValues" dxfId="97" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="duplicateValues" dxfId="96" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -65396,25 +62487,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I39:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="155" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="duplicateValues" dxfId="154" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L26">
-    <cfRule type="duplicateValues" dxfId="153" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J26">
-    <cfRule type="duplicateValues" dxfId="152" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L38">
-    <cfRule type="duplicateValues" dxfId="151" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:L38">
-    <cfRule type="duplicateValues" dxfId="150" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J38">
-    <cfRule type="duplicateValues" dxfId="149" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月摆渡报表.xlsx
+++ b/4月报表/4月摆渡报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="8055" tabRatio="647" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="8055" tabRatio="647" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$L$1:$L$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'4-10'!$A$1:$V$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'4-11'!$A$1:$V$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-2'!$A$2:$T$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4-3'!$A$2:$T$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4-4'!$A$2:$T$64</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5571" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="1282">
   <si>
     <t>发车日期</t>
   </si>
@@ -4476,6 +4477,253 @@
   <si>
     <t>0029925</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19847</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028672</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶方俊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一五号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉丰树外单分拣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19849</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028570</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶显军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19644</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085701</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘涛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周宏兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19647</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085709</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19646</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085702</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张改英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18221</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076533</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周华安</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076568</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18218</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076532</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18217</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076531</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076530</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18215</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076529</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18214</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085788</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18213</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085785</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18220</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076569</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧文科</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17762</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0069928</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017862</t>
+  </si>
+  <si>
+    <t>WW0019993</t>
+  </si>
+  <si>
+    <t>WW0017483</t>
+  </si>
+  <si>
+    <t>WW0019847</t>
+  </si>
+  <si>
+    <t>WW0016852</t>
+  </si>
+  <si>
+    <t>WW0016600</t>
+  </si>
+  <si>
+    <t>WW0016904</t>
+  </si>
+  <si>
+    <t>WW0016906</t>
+  </si>
+  <si>
+    <t>WW0018154</t>
+  </si>
+  <si>
+    <t>WW0018153</t>
+  </si>
+  <si>
+    <t>WW0018151</t>
+  </si>
+  <si>
+    <t>WW0018152</t>
+  </si>
+  <si>
+    <t>WW0018150</t>
+  </si>
+  <si>
+    <t>WW0018149</t>
+  </si>
+  <si>
+    <t>WW0018146</t>
+  </si>
+  <si>
+    <t>WW0019849</t>
+  </si>
+  <si>
+    <t>WW0019644</t>
+  </si>
+  <si>
+    <t>WW0019647</t>
+  </si>
+  <si>
+    <t>WW0019646</t>
+  </si>
+  <si>
+    <t>WW0018221</t>
+  </si>
+  <si>
+    <t>WW0018219</t>
+  </si>
+  <si>
+    <t>WW0018218</t>
+  </si>
+  <si>
+    <t>WW0018217</t>
+  </si>
+  <si>
+    <t>WW0018216</t>
+  </si>
+  <si>
+    <t>WW0018215</t>
+  </si>
+  <si>
+    <t>WW0018214</t>
+  </si>
+  <si>
+    <t>WW0018213</t>
+  </si>
+  <si>
+    <t>WW0018220</t>
+  </si>
+  <si>
+    <t>WW0017762</t>
   </si>
 </sst>
 </file>
@@ -4983,11 +5231,11 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -5013,7 +5261,931 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="常规 9 2" xfId="19"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="188">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -7077,11 +8249,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="54833920"/>
-        <c:axId val="54835456"/>
+        <c:axId val="64688896"/>
+        <c:axId val="64690432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54833920"/>
+        <c:axId val="64688896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7122,14 +8294,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54835456"/>
+        <c:crossAx val="64690432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54835456"/>
+        <c:axId val="64690432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7178,7 +8350,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54833920"/>
+        <c:crossAx val="64688896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7257,7 +8429,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -7842,7 +9014,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C878D89-33DC-4675-90AC-A875001D4C75}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C878D89-33DC-4675-90AC-A875001D4C75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17329,10 +18501,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="duplicateValues" dxfId="110" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="duplicateValues" dxfId="109" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19550,37 +20722,37 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I12:M14 I1:M1 I21:M1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M11 M15:M28">
-    <cfRule type="duplicateValues" dxfId="47" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M28 I2:M11">
-    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J11 I15:J28">
-    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M14 M21:M33">
-    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:M14 I21:M33">
-    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J14 I21:J33">
-    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:M33">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M33">
-    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J33">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L31">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19588,10 +20760,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL63"/>
+  <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19605,12 +20777,12 @@
     <col min="7" max="7" width="16.625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="17.375" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="17.375" style="3" customWidth="1"/>
     <col min="13" max="13" width="14" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.25" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.25" style="3" customWidth="1"/>
     <col min="17" max="17" width="8.875" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="19.25" style="3" bestFit="1" customWidth="1"/>
@@ -19651,10 +20823,10 @@
         <v>1143</v>
       </c>
       <c r="K1" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>332</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>659</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>9</v>
@@ -19758,7 +20930,9 @@
       <c r="J2" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>1253</v>
+      </c>
       <c r="L2" s="10"/>
       <c r="M2" s="19" t="s">
         <v>1180</v>
@@ -19771,7 +20945,9 @@
         <f>VLOOKUP(Q2,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AZV373</v>
       </c>
-      <c r="P2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="Q2" s="29" t="s">
         <v>196</v>
       </c>
@@ -19823,25 +20999,29 @@
       <c r="J3" s="39" t="s">
         <v>1181</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>1254</v>
+      </c>
       <c r="L3" s="10"/>
       <c r="M3" s="19" t="s">
         <v>1182</v>
       </c>
       <c r="N3" s="7" t="str">
-        <f t="shared" ref="N3:N6" si="4">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="N3:N7" si="4">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O3" s="26" t="str">
         <f>VLOOKUP(Q3,ch!$A$1:$B$34,2,0)</f>
         <v>鄂ALU291</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="Q3" s="29" t="s">
         <v>198</v>
       </c>
       <c r="R3" s="7" t="str">
-        <f t="shared" ref="R3:R6" si="5">IF(A3&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="R3:R7" si="5">IF(A3&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S3" s="14">
@@ -19851,11 +21031,11 @@
         <v>0</v>
       </c>
       <c r="U3" s="14">
-        <f t="shared" ref="U3:U6" si="6">SUM(S3:T3)</f>
+        <f t="shared" ref="U3:U7" si="6">SUM(S3:T3)</f>
         <v>14</v>
       </c>
       <c r="V3" s="7" t="str">
-        <f t="shared" ref="V3:V6" si="7">IF(A3&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="V3:V7" si="7">IF(A3&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -19888,25 +21068,29 @@
       <c r="J4" s="39" t="s">
         <v>1206</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>1255</v>
+      </c>
       <c r="L4" s="10"/>
       <c r="M4" s="19" t="s">
         <v>1207</v>
       </c>
       <c r="N4" s="7" t="str">
-        <f t="shared" ref="N4:N5" si="8">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="N4:N6" si="8">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O4" s="26" t="str">
         <f>VLOOKUP(Q4,ch!$A$1:$B$34,2,0)</f>
         <v>鄂ALU151</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="Q4" s="29" t="s">
         <v>362</v>
       </c>
       <c r="R4" s="7" t="str">
-        <f t="shared" ref="R4:R5" si="9">IF(A4&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="R4:R6" si="9">IF(A4&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S4" s="14">
@@ -19916,11 +21100,11 @@
         <v>0</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" ref="U4:U5" si="10">SUM(S4:T4)</f>
+        <f t="shared" ref="U4:U6" si="10">SUM(S4:T4)</f>
         <v>14</v>
       </c>
       <c r="V4" s="7" t="str">
-        <f t="shared" ref="V4:V5" si="11">IF(A4&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="V4:V6" si="11">IF(A4&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -19929,19 +21113,19 @@
         <v>43201</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="C5" s="10">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="D5" s="10">
-        <v>2112</v>
+        <v>2102</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1209</v>
+        <v>236</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>502</v>
+        <v>252</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>204</v>
@@ -19951,43 +21135,45 @@
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="39" t="s">
-        <v>1210</v>
-      </c>
-      <c r="K5" s="65" t="s">
-        <v>1211</v>
+        <v>1214</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1256</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="19" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="N5" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N5" si="12">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O5" s="26" t="str">
         <f>VLOOKUP(Q5,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AMR731</v>
-      </c>
-      <c r="P5" s="10"/>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="Q5" s="29" t="s">
-        <v>1098</v>
+        <v>251</v>
       </c>
       <c r="R5" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="R5" si="13">IF(A5&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S5" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T5" s="14">
         <v>0</v>
       </c>
       <c r="U5" s="14">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" ref="U5" si="14">SUM(S5:T5)</f>
+        <v>14</v>
       </c>
       <c r="V5" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="V5" si="15">IF(A5&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -19996,19 +21182,19 @@
         <v>43201</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>531</v>
+        <v>1208</v>
       </c>
       <c r="C6" s="10">
-        <v>9</v>
+        <v>1929</v>
       </c>
       <c r="D6" s="10">
-        <v>22</v>
+        <v>2112</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>210</v>
+        <v>1209</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>204</v>
@@ -20018,41 +21204,47 @@
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+        <v>1210</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>1211</v>
+      </c>
       <c r="M6" s="19" t="s">
-        <v>1184</v>
+        <v>1212</v>
       </c>
       <c r="N6" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="O6" s="26" t="str">
         <f>VLOOKUP(Q6,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
-      <c r="P6" s="10"/>
+        <v>鄂AMR731</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>1141</v>
+      </c>
       <c r="Q6" s="29" t="s">
-        <v>240</v>
+        <v>1098</v>
       </c>
       <c r="R6" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.6米</v>
       </c>
-      <c r="S6" s="63" t="s">
-        <v>1185</v>
+      <c r="S6" s="14">
+        <v>9</v>
       </c>
       <c r="T6" s="14">
         <v>0</v>
       </c>
       <c r="U6" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="V6" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -20061,19 +21253,19 @@
         <v>43201</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>531</v>
       </c>
       <c r="C7" s="10">
-        <v>1418</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
-        <v>1437</v>
+        <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>210</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>204</v>
@@ -20083,41 +21275,45 @@
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K7" s="10"/>
+        <v>1183</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1258</v>
+      </c>
       <c r="L7" s="10"/>
       <c r="M7" s="19" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="N7" s="7" t="str">
-        <f t="shared" ref="N7" si="12">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="4"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="O7" s="26" t="str">
         <f>VLOOKUP(Q7,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="P7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="Q7" s="29" t="s">
         <v>240</v>
       </c>
       <c r="R7" s="7" t="str">
-        <f t="shared" ref="R7" si="13">IF(A7&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="5"/>
         <v>9.6米</v>
       </c>
-      <c r="S7" s="14">
-        <v>13</v>
+      <c r="S7" s="63" t="s">
+        <v>1185</v>
       </c>
       <c r="T7" s="14">
         <v>0</v>
       </c>
       <c r="U7" s="14">
-        <f t="shared" ref="U7" si="14">SUM(S7:T7)</f>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="V7" s="7" t="str">
-        <f t="shared" ref="V7" si="15">IF(A7&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="7"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -20126,13 +21322,13 @@
         <v>43201</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1188</v>
+        <v>111</v>
       </c>
       <c r="C8" s="10">
-        <v>1803</v>
+        <v>1418</v>
       </c>
       <c r="D8" s="10">
-        <v>1826</v>
+        <v>1437</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>210</v>
@@ -20148,41 +21344,45 @@
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="39" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K8" s="10"/>
+        <v>1186</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1259</v>
+      </c>
       <c r="L8" s="10"/>
       <c r="M8" s="19" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="N8" s="7" t="str">
-        <f t="shared" ref="N8:N9" si="16">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="N8" si="16">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O8" s="26" t="str">
         <f>VLOOKUP(Q8,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="P8" s="10"/>
+      <c r="P8" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="Q8" s="29" t="s">
         <v>240</v>
       </c>
       <c r="R8" s="7" t="str">
-        <f t="shared" ref="R8:R9" si="17">IF(A8&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="R8" si="17">IF(A8&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S8" s="14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T8" s="14">
         <v>0</v>
       </c>
       <c r="U8" s="14">
-        <f t="shared" ref="U8:U9" si="18">SUM(S8:T8)</f>
-        <v>9</v>
+        <f t="shared" ref="U8" si="18">SUM(S8:T8)</f>
+        <v>13</v>
       </c>
       <c r="V8" s="7" t="str">
-        <f t="shared" ref="V8:V9" si="19">IF(A8&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="V8" si="19">IF(A8&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -20191,63 +21391,67 @@
         <v>43201</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C9" s="10">
-        <v>1955</v>
+        <v>1803</v>
       </c>
       <c r="D9" s="10">
-        <v>2005</v>
+        <v>1826</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="39" t="s">
-        <v>1192</v>
-      </c>
-      <c r="K9" s="10"/>
+        <v>1189</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1260</v>
+      </c>
       <c r="L9" s="10"/>
       <c r="M9" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="N9" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="N9:N10" si="20">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="O9" s="26" t="str">
         <f>VLOOKUP(Q9,ch!$A$1:$B$34,2,0)</f>
-        <v>鄂AF1588</v>
-      </c>
-      <c r="P9" s="10"/>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="Q9" s="29" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="R9" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="R9:R10" si="21">IF(A9&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="S9" s="14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T9" s="14">
         <v>0</v>
       </c>
       <c r="U9" s="14">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f t="shared" ref="U9:U10" si="22">SUM(S9:T9)</f>
+        <v>9</v>
       </c>
       <c r="V9" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="V9:V10" si="23">IF(A9&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -20256,13 +21460,13 @@
         <v>43201</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>1191</v>
       </c>
       <c r="C10" s="10">
-        <v>1731</v>
+        <v>1955</v>
       </c>
       <c r="D10" s="10">
-        <v>1741</v>
+        <v>2005</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>204</v>
@@ -20278,27 +21482,31 @@
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K10" s="10"/>
+        <v>1192</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>1261</v>
+      </c>
       <c r="L10" s="10"/>
       <c r="M10" s="19" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="N10" s="7" t="str">
-        <f t="shared" ref="N10" si="20">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="20"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="O10" s="26" t="str">
         <f>VLOOKUP(Q10,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="P10" s="10"/>
+      <c r="P10" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="Q10" s="29" t="s">
         <v>117</v>
       </c>
       <c r="R10" s="7" t="str">
-        <f t="shared" ref="R10" si="21">IF(A10&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="21"/>
         <v>9.6米</v>
       </c>
       <c r="S10" s="14">
@@ -20308,11 +21516,11 @@
         <v>0</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" ref="U10" si="22">SUM(S10:T10)</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="V10" s="7" t="str">
-        <f t="shared" ref="V10" si="23">IF(A10&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" si="23"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -20321,13 +21529,13 @@
         <v>43201</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="C11" s="10">
-        <v>1215</v>
+        <v>1731</v>
       </c>
       <c r="D11" s="10">
-        <v>1225</v>
+        <v>1741</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>204</v>
@@ -20343,12 +21551,14 @@
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39" t="s">
-        <v>1196</v>
-      </c>
-      <c r="K11" s="10"/>
+        <v>1194</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>1262</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="19" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="N11" s="7" t="str">
         <f t="shared" ref="N11" si="24">IF(A11&lt;&gt;"","武汉威伟机械","------")</f>
@@ -20358,7 +21568,9 @@
         <f>VLOOKUP(Q11,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="P11" s="10"/>
+      <c r="P11" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="Q11" s="29" t="s">
         <v>117</v>
       </c>
@@ -20386,13 +21598,13 @@
         <v>43201</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C12" s="10">
-        <v>1515</v>
+        <v>1215</v>
       </c>
       <c r="D12" s="10">
-        <v>1525</v>
+        <v>1225</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>204</v>
@@ -20408,12 +21620,14 @@
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K12" s="10"/>
+        <v>1196</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>1263</v>
+      </c>
       <c r="L12" s="10"/>
       <c r="M12" s="19" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="N12" s="7" t="str">
         <f t="shared" ref="N12" si="28">IF(A12&lt;&gt;"","武汉威伟机械","------")</f>
@@ -20423,7 +21637,9 @@
         <f>VLOOKUP(Q12,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="P12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="Q12" s="29" t="s">
         <v>117</v>
       </c>
@@ -20454,10 +21670,10 @@
         <v>289</v>
       </c>
       <c r="C13" s="10">
-        <v>1057</v>
+        <v>1515</v>
       </c>
       <c r="D13" s="10">
-        <v>1107</v>
+        <v>1525</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>204</v>
@@ -20473,12 +21689,14 @@
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K13" s="10"/>
+        <v>1198</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>1264</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="19" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="N13" s="7" t="str">
         <f t="shared" ref="N13" si="32">IF(A13&lt;&gt;"","武汉威伟机械","------")</f>
@@ -20488,7 +21706,9 @@
         <f>VLOOKUP(Q13,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="P13" s="10"/>
+      <c r="P13" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="Q13" s="29" t="s">
         <v>117</v>
       </c>
@@ -20519,10 +21739,10 @@
         <v>289</v>
       </c>
       <c r="C14" s="10">
-        <v>940</v>
+        <v>1057</v>
       </c>
       <c r="D14" s="10">
-        <v>950</v>
+        <v>1107</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>204</v>
@@ -20538,12 +21758,14 @@
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K14" s="10"/>
+        <v>1200</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>1265</v>
+      </c>
       <c r="L14" s="10"/>
       <c r="M14" s="19" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="N14" s="7" t="str">
         <f t="shared" ref="N14" si="36">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
@@ -20553,7 +21775,9 @@
         <f>VLOOKUP(Q14,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="P14" s="10"/>
+      <c r="P14" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="Q14" s="29" t="s">
         <v>117</v>
       </c>
@@ -20581,13 +21805,13 @@
         <v>43201</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C15" s="10">
-        <v>50</v>
+        <v>940</v>
       </c>
       <c r="D15" s="10">
-        <v>107</v>
+        <v>950</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>204</v>
@@ -20603,12 +21827,14 @@
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="39" t="s">
-        <v>1204</v>
-      </c>
-      <c r="K15" s="10"/>
+        <v>1202</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>1266</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="19" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="N15" s="7" t="str">
         <f t="shared" ref="N15" si="40">IF(A15&lt;&gt;"","武汉威伟机械","------")</f>
@@ -20618,7 +21844,9 @@
         <f>VLOOKUP(Q15,ch!$A$1:$B$34,2,0)</f>
         <v>鄂AF1588</v>
       </c>
-      <c r="P15" s="10"/>
+      <c r="P15" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="Q15" s="29" t="s">
         <v>117</v>
       </c>
@@ -20642,364 +21870,1039 @@
       </c>
     </row>
     <row r="16" spans="1:64" s="35" customFormat="1" ht="18.75">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="10">
+        <v>50</v>
+      </c>
+      <c r="D16" s="10">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>1267</v>
+      </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="7"/>
+      <c r="M16" s="19" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f t="shared" ref="N16:N17" si="44">IF(A16&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O16" s="26" t="str">
+        <f>VLOOKUP(Q16,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AF1588</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="7" t="str">
+        <f t="shared" ref="R16:R18" si="45">IF(A16&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S16" s="14">
+        <v>14</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" ref="U16:U18" si="46">SUM(S16:T16)</f>
+        <v>14</v>
+      </c>
+      <c r="V16" s="7" t="str">
+        <f t="shared" ref="V16:V18" si="47">IF(A16&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="17" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2159</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2216</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1218</v>
+      </c>
       <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="10"/>
+      <c r="J17" s="39" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>1268</v>
+      </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="7"/>
+      <c r="M17" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f t="shared" si="44"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O17" s="26" t="str">
+        <f>VLOOKUP(Q17,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="R17" s="7" t="str">
+        <f t="shared" si="45"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S17" s="14">
+        <v>10</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="V17" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="18" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1026</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1050</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>1218</v>
+      </c>
       <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="39" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>1269</v>
+      </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="7"/>
+      <c r="M18" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f t="shared" ref="N18" si="48">IF(A18&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O18" s="26" t="str">
+        <f>VLOOKUP(Q18,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R18" s="7" t="str">
+        <f t="shared" si="45"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S18" s="14">
+        <v>14</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14">
+        <f t="shared" si="46"/>
+        <v>14</v>
+      </c>
+      <c r="V18" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="19" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="A19" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2034</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2059</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>1218</v>
+      </c>
       <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="10"/>
+      <c r="J19" s="39" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>1270</v>
+      </c>
       <c r="L19" s="10"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="7"/>
+      <c r="M19" s="19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f t="shared" ref="N19" si="49">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O19" s="26" t="str">
+        <f>VLOOKUP(Q19,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R19" s="7" t="str">
+        <f t="shared" ref="R19" si="50">IF(A19&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S19" s="14">
+        <v>11</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="14">
+        <f t="shared" ref="U19" si="51">SUM(S19:T19)</f>
+        <v>11</v>
+      </c>
+      <c r="V19" s="7" t="str">
+        <f t="shared" ref="V19" si="52">IF(A19&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="20" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1922</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1940</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>1218</v>
+      </c>
       <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="10"/>
+      <c r="J20" s="39" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>1271</v>
+      </c>
       <c r="L20" s="10"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="7"/>
+      <c r="M20" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N20" s="7" t="str">
+        <f t="shared" ref="N20:N21" si="53">IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O20" s="26" t="str">
+        <f>VLOOKUP(Q20,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R20" s="7" t="str">
+        <f t="shared" ref="R20:R21" si="54">IF(A20&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S20" s="14">
+        <v>14</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <f t="shared" ref="U20:U21" si="55">SUM(S20:T20)</f>
+        <v>14</v>
+      </c>
+      <c r="V20" s="7" t="str">
+        <f t="shared" ref="V20:V21" si="56">IF(A20&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="21" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="A21" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2354</v>
+      </c>
+      <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="10"/>
+      <c r="J21" s="39" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>1272</v>
+      </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="7"/>
+      <c r="M21" s="19" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N21" s="7" t="str">
+        <f t="shared" si="53"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O21" s="26" t="str">
+        <f>VLOOKUP(Q21,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R21" s="7" t="str">
+        <f t="shared" si="54"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S21" s="14">
+        <v>12</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" si="55"/>
+        <v>12</v>
+      </c>
+      <c r="V21" s="7" t="str">
+        <f t="shared" si="56"/>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="22" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="A22" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2324</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2334</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="10"/>
+      <c r="J22" s="39" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>1273</v>
+      </c>
       <c r="L22" s="10"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="7"/>
+      <c r="M22" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N22" s="7" t="str">
+        <f t="shared" ref="N22" si="57">IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O22" s="26" t="str">
+        <f>VLOOKUP(Q22,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R22" s="7" t="str">
+        <f t="shared" ref="R22" si="58">IF(A22&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S22" s="14">
+        <v>14</v>
+      </c>
+      <c r="T22" s="14">
+        <v>0</v>
+      </c>
+      <c r="U22" s="14">
+        <f t="shared" ref="U22" si="59">SUM(S22:T22)</f>
+        <v>14</v>
+      </c>
+      <c r="V22" s="7" t="str">
+        <f t="shared" ref="V22" si="60">IF(A22&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="23" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="A23" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2116</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2126</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="10"/>
+      <c r="J23" s="39" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>1274</v>
+      </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="7"/>
+      <c r="M23" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N23" s="7" t="str">
+        <f t="shared" ref="N23" si="61">IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O23" s="26" t="str">
+        <f>VLOOKUP(Q23,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R23" s="7" t="str">
+        <f t="shared" ref="R23" si="62">IF(A23&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S23" s="14">
+        <v>14</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" ref="U23" si="63">SUM(S23:T23)</f>
+        <v>14</v>
+      </c>
+      <c r="V23" s="7" t="str">
+        <f t="shared" ref="V23" si="64">IF(A23&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="24" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1903</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1913</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="10"/>
+      <c r="J24" s="39" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>1275</v>
+      </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="7"/>
+      <c r="M24" s="19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f t="shared" ref="N24" si="65">IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O24" s="26" t="str">
+        <f>VLOOKUP(Q24,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R24" s="7" t="str">
+        <f t="shared" ref="R24" si="66">IF(A24&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S24" s="14">
+        <v>14</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="U24" s="14">
+        <f t="shared" ref="U24" si="67">SUM(S24:T24)</f>
+        <v>14</v>
+      </c>
+      <c r="V24" s="7" t="str">
+        <f t="shared" ref="V24" si="68">IF(A24&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="25" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1615</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1625</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="10"/>
+      <c r="J25" s="39" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>1276</v>
+      </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="7"/>
+      <c r="M25" s="19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f t="shared" ref="N25" si="69">IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O25" s="26" t="str">
+        <f>VLOOKUP(Q25,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R25" s="7" t="str">
+        <f t="shared" ref="R25" si="70">IF(A25&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S25" s="14">
+        <v>14</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
+        <f t="shared" ref="U25" si="71">SUM(S25:T25)</f>
+        <v>14</v>
+      </c>
+      <c r="V25" s="7" t="str">
+        <f t="shared" ref="V25" si="72">IF(A25&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="26" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A26" s="8"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="A26" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1217</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1227</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="10"/>
+      <c r="J26" s="39" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>1277</v>
+      </c>
       <c r="L26" s="10"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="7"/>
+      <c r="M26" s="19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f t="shared" ref="N26" si="73">IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O26" s="26" t="str">
+        <f>VLOOKUP(Q26,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R26" s="7" t="str">
+        <f t="shared" ref="R26" si="74">IF(A26&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S26" s="14">
+        <v>7</v>
+      </c>
+      <c r="T26" s="14">
+        <v>0</v>
+      </c>
+      <c r="U26" s="14">
+        <f t="shared" ref="U26" si="75">SUM(S26:T26)</f>
+        <v>7</v>
+      </c>
+      <c r="V26" s="7" t="str">
+        <f t="shared" ref="V26" si="76">IF(A26&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="27" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1140</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1150</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="10"/>
+      <c r="J27" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>1278</v>
+      </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="7"/>
+      <c r="M27" s="19" t="s">
+        <v>1245</v>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f t="shared" ref="N27" si="77">IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O27" s="26" t="str">
+        <f>VLOOKUP(Q27,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R27" s="7" t="str">
+        <f t="shared" ref="R27" si="78">IF(A27&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S27" s="14">
+        <v>14</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0</v>
+      </c>
+      <c r="U27" s="14">
+        <f t="shared" ref="U27" si="79">SUM(S27:T27)</f>
+        <v>14</v>
+      </c>
+      <c r="V27" s="7" t="str">
+        <f t="shared" ref="V27" si="80">IF(A27&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="28" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="A28" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1020</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1030</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="10"/>
+      <c r="J28" s="39" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>1279</v>
+      </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="7"/>
+      <c r="M28" s="19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f t="shared" ref="N28" si="81">IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O28" s="26" t="str">
+        <f>VLOOKUP(Q28,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R28" s="7" t="str">
+        <f t="shared" ref="R28" si="82">IF(A28&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S28" s="14">
+        <v>14</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <f t="shared" ref="U28" si="83">SUM(S28:T28)</f>
+        <v>14</v>
+      </c>
+      <c r="V28" s="7" t="str">
+        <f t="shared" ref="V28" si="84">IF(A28&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="29" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A29" s="8"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2223</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2233</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>990</v>
+      </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="10"/>
+      <c r="J29" s="39" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>1280</v>
+      </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="7"/>
+      <c r="M29" s="19" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f t="shared" ref="N29" si="85">IF(A29&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O29" s="26" t="str">
+        <f>VLOOKUP(Q29,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>1250</v>
+      </c>
+      <c r="R29" s="7" t="str">
+        <f t="shared" ref="R29" si="86">IF(A29&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S29" s="14">
+        <v>14</v>
+      </c>
+      <c r="T29" s="14">
+        <v>0</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" ref="U29" si="87">SUM(S29:T29)</f>
+        <v>14</v>
+      </c>
+      <c r="V29" s="7" t="str">
+        <f t="shared" ref="V29" si="88">IF(A29&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="30" spans="1:22" s="35" customFormat="1" ht="18.75">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="8">
+        <v>43201</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1930</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2003</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1218</v>
+      </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="10"/>
+      <c r="J30" s="39" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>1281</v>
+      </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="7"/>
+      <c r="M30" s="19" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f t="shared" ref="N30" si="89">IF(A30&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O30" s="26" t="str">
+        <f>VLOOKUP(Q30,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>1250</v>
+      </c>
+      <c r="R30" s="7" t="str">
+        <f t="shared" ref="R30" si="90">IF(A30&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S30" s="14">
+        <v>14</v>
+      </c>
+      <c r="T30" s="14">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <f t="shared" ref="U30" si="91">SUM(S30:T30)</f>
+        <v>14</v>
+      </c>
+      <c r="V30" s="7" t="str">
+        <f t="shared" ref="V30" si="92">IF(A30&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
     <row r="31" spans="1:22" s="35" customFormat="1" ht="18.75">
       <c r="A31" s="8"/>
@@ -21793,33 +23696,48 @@
       <c r="U63" s="14"/>
       <c r="V63" s="7"/>
     </row>
+    <row r="64" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A64" s="8"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="L6:L63">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="K7:K64">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:M1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M63">
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+  <conditionalFormatting sqref="M2:M64">
+    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:M63">
-    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
+  <conditionalFormatting sqref="I2:M64">
+    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J63">
-    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
+  <conditionalFormatting sqref="I2:J64">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M63">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:M63">
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J63">
-    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L5">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37703,91 +39621,91 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J34">
-    <cfRule type="duplicateValues" dxfId="37" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I117 I124:I130">
-    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:J117 J124:J130">
-    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I143">
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143">
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:I140 I144:I160">
-    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:J140 J144:J160">
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:I142 I131:I133">
-    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:J142 J131:J133">
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:I160">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:J189">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:J219">
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:J196">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J97">
-    <cfRule type="duplicateValues" dxfId="20" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:J122 I98:J107">
-    <cfRule type="duplicateValues" dxfId="19" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:J140 I145:J160">
-    <cfRule type="duplicateValues" dxfId="18" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J220:J243">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J239:J243">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:I243">
-    <cfRule type="duplicateValues" dxfId="15" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I239:I243">
-    <cfRule type="duplicateValues" dxfId="14" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:I189">
-    <cfRule type="duplicateValues" dxfId="13" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:I219">
-    <cfRule type="duplicateValues" dxfId="12" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:I196">
-    <cfRule type="duplicateValues" dxfId="11" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:J243">
-    <cfRule type="duplicateValues" dxfId="10" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I239:J243">
-    <cfRule type="duplicateValues" dxfId="9" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="152"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37828,27 +39746,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -42472,7 +44390,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:K1048576">
-    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42513,27 +44431,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -46100,25 +48018,25 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I28">
-    <cfRule type="duplicateValues" dxfId="107" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="duplicateValues" dxfId="106" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I40">
-    <cfRule type="duplicateValues" dxfId="105" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K22 K29:K40">
-    <cfRule type="duplicateValues" dxfId="104" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I109">
-    <cfRule type="duplicateValues" dxfId="103" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="duplicateValues" dxfId="102" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:K1048576 I23:K27 I1:K12">
-    <cfRule type="duplicateValues" dxfId="101" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46158,27 +48076,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -49277,37 +51195,37 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I6:K11 J12:K12 I1:K2 I17:K1048576">
-    <cfRule type="duplicateValues" dxfId="100" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="duplicateValues" dxfId="99" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="duplicateValues" dxfId="98" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11 J12 I16:I64">
-    <cfRule type="duplicateValues" dxfId="97" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K12 K16:K64">
-    <cfRule type="duplicateValues" dxfId="96" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14 I3:I5">
-    <cfRule type="duplicateValues" dxfId="95" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14 K3:K5">
-    <cfRule type="duplicateValues" dxfId="94" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I11 I13:I76 J12">
-    <cfRule type="duplicateValues" dxfId="93" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="91" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="90" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51760,16 +53678,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1048576">
-    <cfRule type="duplicateValues" dxfId="89" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J34">
-    <cfRule type="duplicateValues" dxfId="88" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L34">
-    <cfRule type="duplicateValues" dxfId="87" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J46">
-    <cfRule type="duplicateValues" dxfId="86" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="25"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -55295,22 +57213,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L9:L89">
-    <cfRule type="duplicateValues" dxfId="85" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
-    <cfRule type="duplicateValues" dxfId="84" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:L89">
-    <cfRule type="duplicateValues" dxfId="83" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J89">
-    <cfRule type="duplicateValues" dxfId="82" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:L1048576 I1:L8">
-    <cfRule type="duplicateValues" dxfId="81" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="duplicateValues" dxfId="80" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="58"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58070,25 +59988,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I62:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="79" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L61">
-    <cfRule type="duplicateValues" dxfId="78" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L61">
-    <cfRule type="duplicateValues" dxfId="77" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J61">
-    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L25">
-    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:L25">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:J25">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60363,55 +62281,55 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I44:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="72" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L43 L2:L11">
-    <cfRule type="duplicateValues" dxfId="71" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:L43 I2:L11">
-    <cfRule type="duplicateValues" dxfId="70" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J43 I2:J11">
-    <cfRule type="duplicateValues" dxfId="69" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L15">
-    <cfRule type="duplicateValues" dxfId="68" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15 K13:L15">
-    <cfRule type="duplicateValues" dxfId="67" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="duplicateValues" dxfId="66" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="duplicateValues" dxfId="63" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:L12">
-    <cfRule type="duplicateValues" dxfId="62" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J12">
-    <cfRule type="duplicateValues" dxfId="61" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L18">
-    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18 K16:L18">
-    <cfRule type="duplicateValues" dxfId="59" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18">
-    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -62487,25 +64405,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I39:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="55" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="duplicateValues" dxfId="54" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L26">
-    <cfRule type="duplicateValues" dxfId="53" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J26">
-    <cfRule type="duplicateValues" dxfId="52" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L38">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:L38">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J38">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月摆渡报表.xlsx
+++ b/4月报表/4月摆渡报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D23F539F-2EE7-4424-989D-70CE06B0AC0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="8055" tabRatio="647" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="8055" tabRatio="647" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,10 @@
     <sheet name="4-9" sheetId="14" r:id="rId9"/>
     <sheet name="4-10" sheetId="15" r:id="rId10"/>
     <sheet name="4-11" sheetId="16" r:id="rId11"/>
-    <sheet name="ch" sheetId="4" r:id="rId12"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
-    <sheet name="汇总明线" sheetId="7" r:id="rId14"/>
+    <sheet name="4-12" sheetId="17" r:id="rId12"/>
+    <sheet name="ch" sheetId="4" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId14"/>
+    <sheet name="汇总明线" sheetId="7" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1'!$L$1:$L$109</definedName>
@@ -35,15 +42,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'4-8'!$A$1:$U$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'4-9'!$A$1:$U$25</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="3" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="1323">
   <si>
     <t>发车日期</t>
   </si>
@@ -4724,12 +4731,172 @@
   </si>
   <si>
     <t>WW0017762</t>
+  </si>
+  <si>
+    <t>16184</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024224</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16853</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029887</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16734</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029914</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076570</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18223</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076571</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17952</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076572</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17954</t>
+  </si>
+  <si>
+    <t>17955</t>
+  </si>
+  <si>
+    <t>17956</t>
+  </si>
+  <si>
+    <t>0076535</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076537</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076536</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076581</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076586</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17957</t>
+  </si>
+  <si>
+    <t>17958</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076585</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16912</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076559</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18070</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029939</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17953</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19754</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19755</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028571</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028578</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17077</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085710</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0085713</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17079</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17569</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076642</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴义超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17567</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076641</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
@@ -5240,28 +5407,28 @@
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="常规 2 3" xfId="8"/>
-    <cellStyle name="常规 2 3 2" xfId="16"/>
-    <cellStyle name="常规 2 4" xfId="12"/>
-    <cellStyle name="常规 3" xfId="5"/>
-    <cellStyle name="常规 3 2" xfId="9"/>
-    <cellStyle name="常规 3 2 2" xfId="17"/>
-    <cellStyle name="常规 3 3" xfId="13"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 4 2" xfId="14"/>
-    <cellStyle name="常规 5" xfId="7"/>
-    <cellStyle name="常规 5 2" xfId="15"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 7" xfId="10"/>
-    <cellStyle name="常规 8" xfId="11"/>
-    <cellStyle name="常规 8 2" xfId="20"/>
-    <cellStyle name="常规 8 3" xfId="18"/>
-    <cellStyle name="常规 9" xfId="1"/>
-    <cellStyle name="常规 9 2" xfId="19"/>
+    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 8 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="188">
+  <dxfs count="122">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -5611,807 +5778,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -7532,13 +6905,24 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[4月摆渡报表.xlsx]Sheet2!数据透视表2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -7679,7 +7063,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -7694,7 +7078,7 @@
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -7709,7 +7093,7 @@
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -7724,7 +7108,7 @@
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -7739,7 +7123,7 @@
         <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -7754,9 +7138,7 @@
         <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -7773,6 +7155,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7796,6 +7179,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$3:$A$8</c:f>
@@ -7834,7 +7218,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FF1-4B81-B114-DF579F74452B}"/>
             </c:ext>
@@ -7863,6 +7247,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$3:$A$8</c:f>
@@ -7901,7 +7286,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000015-4FF1-4B81-B114-DF579F74452B}"/>
             </c:ext>
@@ -7930,6 +7315,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$3:$A$8</c:f>
@@ -7971,7 +7357,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-4FF1-4B81-B114-DF579F74452B}"/>
             </c:ext>
@@ -8000,6 +7386,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$3:$A$8</c:f>
@@ -8041,7 +7428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000017-4FF1-4B81-B114-DF579F74452B}"/>
             </c:ext>
@@ -8070,6 +7457,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$3:$A$8</c:f>
@@ -8111,7 +7499,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-4FF1-4B81-B114-DF579F74452B}"/>
             </c:ext>
@@ -8140,6 +7528,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$3:$A$8</c:f>
@@ -8175,7 +7564,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-4FF1-4B81-B114-DF579F74452B}"/>
             </c:ext>
@@ -8206,6 +7595,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$3:$A$8</c:f>
@@ -8241,12 +7631,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001A-4FF1-4B81-B114-DF579F74452B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="64688896"/>
@@ -8257,9 +7655,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8299,12 +7699,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="64690432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8322,6 +7724,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8364,6 +7767,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8394,13 +7798,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8432,7 +7837,7 @@
     <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -9014,7 +8419,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C878D89-33DC-4675-90AC-A875001D4C75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C878D89-33DC-4675-90AC-A875001D4C75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9036,7 +8441,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="LENOVO" refreshedDate="43198.898892939818" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="242">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="LENOVO" refreshedDate="43198.898892939818" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="242" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R243" sheet="汇总明线"/>
   </cacheSource>
@@ -13980,7 +13385,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField numFmtId="14" showAll="0"/>
@@ -14204,7 +13609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14246,7 +13651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14278,9 +13683,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14312,6 +13735,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14487,7 +13928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH109"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -18501,10 +17942,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="duplicateValues" dxfId="187" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="duplicateValues" dxfId="186" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18512,7 +17953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BL33"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
@@ -20722,48 +20163,48 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I12:M14 I1:M1 I21:M1048576">
-    <cfRule type="duplicateValues" dxfId="125" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M11 M15:M28">
-    <cfRule type="duplicateValues" dxfId="124" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M28 I2:M11">
-    <cfRule type="duplicateValues" dxfId="123" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J11 I15:J28">
-    <cfRule type="duplicateValues" dxfId="122" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M14 M21:M33">
-    <cfRule type="duplicateValues" dxfId="121" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:M14 I21:M33">
-    <cfRule type="duplicateValues" dxfId="120" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J14 I21:J33">
-    <cfRule type="duplicateValues" dxfId="119" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:M33">
-    <cfRule type="duplicateValues" dxfId="118" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M33">
-    <cfRule type="duplicateValues" dxfId="117" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J33">
-    <cfRule type="duplicateValues" dxfId="116" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L31">
-    <cfRule type="duplicateValues" dxfId="115" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="G19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23723,29 +23164,1901 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K7:K64">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:M1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M64">
-    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:M64">
-    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J64">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K6">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E500237-2B72-4153-9AF0-CE8F2DE7DA75}">
+  <dimension ref="A1:BL65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="17.375" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.25" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" ht="21.75" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+    </row>
+    <row r="2" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A2" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1845</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N2" s="7" t="str">
+        <f t="shared" ref="N2" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O2" s="26" t="str">
+        <f>VLOOKUP(Q2,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AQQ353</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="7" t="str">
+        <f t="shared" ref="R2" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S2" s="14">
+        <v>14</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <f t="shared" ref="U2:U3" si="2">SUM(S2:T2)</f>
+        <v>14</v>
+      </c>
+      <c r="V2" s="7" t="str">
+        <f t="shared" ref="V2:V3" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A3" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1924</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2108</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3" si="4">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O3" s="26" t="str">
+        <f>VLOOKUP(Q3,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMR731</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="R3" s="7" t="str">
+        <f t="shared" ref="R3" si="5">IF(A3&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S3" s="14">
+        <v>14</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V3" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A4" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1929</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2115</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f t="shared" ref="N4" si="6">IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O4" s="26" t="str">
+        <f>VLOOKUP(Q4,ch!$A$1:$B$34,2,0)</f>
+        <v>粤BES791</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="29" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R4" s="7" t="str">
+        <f t="shared" ref="R4:R6" si="7">IF(A4&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S4" s="14">
+        <v>9</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <f t="shared" ref="U4:U6" si="8">SUM(S4:T4)</f>
+        <v>9</v>
+      </c>
+      <c r="V4" s="7" t="str">
+        <f t="shared" ref="V4:V6" si="9">IF(A4&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A5" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1740</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1920</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f t="shared" ref="N5" si="10">IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O5" s="26" t="str">
+        <f>VLOOKUP(Q5,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" s="7" t="str">
+        <f t="shared" ref="R5" si="11">IF(A5&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S5" s="14">
+        <v>14</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <f t="shared" ref="U5" si="12">SUM(S5:T5)</f>
+        <v>14</v>
+      </c>
+      <c r="V5" s="7" t="str">
+        <f t="shared" ref="V5" si="13">IF(A5&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A6" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C6" s="10">
+        <v>105</v>
+      </c>
+      <c r="D6" s="10">
+        <v>115</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f t="shared" ref="N6" si="14">IF(A6&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O6" s="26" t="str">
+        <f>VLOOKUP(Q6,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R6" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S6" s="14">
+        <v>14</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="V6" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A7" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C7" s="10">
+        <v>144</v>
+      </c>
+      <c r="D7" s="10">
+        <v>154</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f t="shared" ref="N7" si="15">IF(A7&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O7" s="26" t="str">
+        <f>VLOOKUP(Q7,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R7" s="7" t="str">
+        <f t="shared" ref="R7" si="16">IF(A7&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S7" s="14">
+        <v>9</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <f t="shared" ref="U7" si="17">SUM(S7:T7)</f>
+        <v>9</v>
+      </c>
+      <c r="V7" s="7" t="str">
+        <f t="shared" ref="V7" si="18">IF(A7&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A8" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="10">
+        <v>951</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f t="shared" ref="N8" si="19">IF(A8&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O8" s="26" t="str">
+        <f>VLOOKUP(Q8,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R8" s="7" t="str">
+        <f t="shared" ref="R8" si="20">IF(A8&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S8" s="14">
+        <v>14</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <f t="shared" ref="U8" si="21">SUM(S8:T8)</f>
+        <v>14</v>
+      </c>
+      <c r="V8" s="7" t="str">
+        <f t="shared" ref="V8" si="22">IF(A8&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A9" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="10">
+        <v>951</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="19" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f t="shared" ref="N9" si="23">IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O9" s="26" t="str">
+        <f>VLOOKUP(Q9,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R9" s="7" t="str">
+        <f t="shared" ref="R9" si="24">IF(A9&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S9" s="14">
+        <v>14</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <f t="shared" ref="U9" si="25">SUM(S9:T9)</f>
+        <v>14</v>
+      </c>
+      <c r="V9" s="7" t="str">
+        <f t="shared" ref="V9" si="26">IF(A9&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A10" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1337</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1347</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f t="shared" ref="N10:N13" si="27">IF(A10&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O10" s="26" t="str">
+        <f>VLOOKUP(Q10,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R10" s="7" t="str">
+        <f t="shared" ref="R10:R13" si="28">IF(A10&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S10" s="14">
+        <v>14</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <f t="shared" ref="U10:U15" si="29">SUM(S10:T10)</f>
+        <v>14</v>
+      </c>
+      <c r="V10" s="7" t="str">
+        <f t="shared" ref="V10:V15" si="30">IF(A10&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A11" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1556</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1606</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N11" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O11" s="26" t="str">
+        <f>VLOOKUP(Q11,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R11" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S11" s="14">
+        <v>12</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="V11" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A12" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1753</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1803</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O12" s="26" t="str">
+        <f>VLOOKUP(Q12,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R12" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S12" s="14">
+        <v>11</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="V12" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A13" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1921</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1931</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N13" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O13" s="26" t="str">
+        <f>VLOOKUP(Q13,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R13" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S13" s="14">
+        <v>14</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="V13" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A14" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2108</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="19" t="s">
+        <v>1304</v>
+      </c>
+      <c r="N14" s="7" t="str">
+        <f t="shared" ref="N14:N18" si="31">IF(A14&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O14" s="26" t="str">
+        <f>VLOOKUP(Q14,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMT870</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="R14" s="7" t="str">
+        <f t="shared" ref="R14:R18" si="32">IF(A14&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S14" s="14">
+        <v>13</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="V14" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A15" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1238</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1245</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N15" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O15" s="26" t="str">
+        <f>VLOOKUP(Q15,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="R15" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S15" s="14">
+        <v>13</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="V15" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" s="35" customFormat="1" ht="18.75">
+      <c r="A16" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2018</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O16" s="26" t="str">
+        <f>VLOOKUP(Q16,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="R16" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S16" s="14">
+        <v>14</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" ref="U16:U18" si="33">SUM(S16:T16)</f>
+        <v>14</v>
+      </c>
+      <c r="V16" s="7" t="str">
+        <f t="shared" ref="V16:V18" si="34">IF(A16&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A17" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2220</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2233</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O17" s="26" t="str">
+        <f>VLOOKUP(Q17,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="R17" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S17" s="14">
+        <v>11</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="V17" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A18" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1215</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1230</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="19" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O18" s="26" t="str">
+        <f>VLOOKUP(Q18,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="7" t="str">
+        <f t="shared" si="32"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S18" s="14">
+        <v>14</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="V18" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A19" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1756</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1802</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f t="shared" ref="N19:N21" si="35">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O19" s="26" t="str">
+        <f>VLOOKUP(Q19,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="7" t="str">
+        <f t="shared" ref="R19:R20" si="36">IF(A19&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S19" s="14">
+        <v>14</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="14">
+        <f t="shared" ref="U19:U20" si="37">SUM(S19:T19)</f>
+        <v>14</v>
+      </c>
+      <c r="V19" s="7" t="str">
+        <f t="shared" ref="V19:V20" si="38">IF(A19&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A20" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2231</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2241</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="19" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N20" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O20" s="26" t="str">
+        <f>VLOOKUP(Q20,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="R20" s="7" t="str">
+        <f t="shared" si="36"/>
+        <v>9.6米</v>
+      </c>
+      <c r="S20" s="14">
+        <v>13</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <f t="shared" si="37"/>
+        <v>13</v>
+      </c>
+      <c r="V20" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A21" s="8">
+        <v>43202</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2200</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="N21" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="O21" s="26" t="str">
+        <f>VLOOKUP(Q21,ch!$A$1:$B$34,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="R21" s="7" t="str">
+        <f t="shared" ref="R21" si="39">IF(A21&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="7"/>
+    </row>
+    <row r="29" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="7"/>
+    </row>
+    <row r="30" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="7"/>
+    </row>
+    <row r="31" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="7"/>
+    </row>
+    <row r="32" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="7"/>
+    </row>
+    <row r="33" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="7"/>
+    </row>
+    <row r="34" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="7"/>
+    </row>
+    <row r="35" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="7"/>
+    </row>
+    <row r="36" spans="1:22" s="35" customFormat="1" ht="18.75">
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="7"/>
+    </row>
+    <row r="37" spans="1:22" ht="15"/>
+    <row r="38" spans="1:22" ht="15"/>
+    <row r="39" spans="1:22" ht="15"/>
+    <row r="40" spans="1:22" ht="15"/>
+    <row r="41" spans="1:22" ht="15"/>
+    <row r="42" spans="1:22" ht="15"/>
+    <row r="43" spans="1:22" ht="15"/>
+    <row r="44" spans="1:22" ht="15"/>
+    <row r="45" spans="1:22" ht="15"/>
+    <row r="46" spans="1:22" ht="15"/>
+    <row r="47" spans="1:22" ht="15"/>
+    <row r="48" spans="1:22" ht="15"/>
+    <row r="49" ht="15"/>
+    <row r="50" ht="15"/>
+    <row r="51" ht="15"/>
+    <row r="52" ht="15"/>
+    <row r="53" ht="15"/>
+    <row r="54" ht="15"/>
+    <row r="55" ht="15"/>
+    <row r="56" ht="15"/>
+    <row r="57" ht="15"/>
+    <row r="58" ht="15"/>
+    <row r="59" ht="15"/>
+    <row r="60" ht="15"/>
+    <row r="61" ht="15"/>
+    <row r="62" ht="15"/>
+    <row r="63" ht="15"/>
+    <row r="64" ht="15"/>
+    <row r="65" ht="15"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="K28:K36">
+    <cfRule type="duplicateValues" dxfId="42" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:M1048576 I1:M1">
+    <cfRule type="duplicateValues" dxfId="41" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28:M36">
+    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:M36">
+    <cfRule type="duplicateValues" dxfId="39" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:J36">
+    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K27">
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J13 I2:J9 L2:M9 I10:M27">
+    <cfRule type="duplicateValues" dxfId="36" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M27">
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:M27">
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J27">
+    <cfRule type="duplicateValues" dxfId="33" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J13" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -24036,8 +25349,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24240,8 +25553,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BH243"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
@@ -39621,91 +40934,91 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J34">
-    <cfRule type="duplicateValues" dxfId="114" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="duplicateValues" dxfId="113" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="duplicateValues" dxfId="112" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="duplicateValues" dxfId="111" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I117 I124:I130">
-    <cfRule type="duplicateValues" dxfId="110" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:J117 J124:J130">
-    <cfRule type="duplicateValues" dxfId="109" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="duplicateValues" dxfId="108" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I143">
-    <cfRule type="duplicateValues" dxfId="107" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143">
-    <cfRule type="duplicateValues" dxfId="106" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:I140 I144:I160">
-    <cfRule type="duplicateValues" dxfId="105" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:J140 J144:J160">
-    <cfRule type="duplicateValues" dxfId="104" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:I142 I131:I133">
-    <cfRule type="duplicateValues" dxfId="103" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:J142 J131:J133">
-    <cfRule type="duplicateValues" dxfId="102" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:I160">
-    <cfRule type="duplicateValues" dxfId="101" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:J189">
-    <cfRule type="duplicateValues" dxfId="100" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:J219">
-    <cfRule type="duplicateValues" dxfId="99" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:J196">
-    <cfRule type="duplicateValues" dxfId="98" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J97">
-    <cfRule type="duplicateValues" dxfId="97" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:J122 I98:J107">
-    <cfRule type="duplicateValues" dxfId="96" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:J140 I145:J160">
-    <cfRule type="duplicateValues" dxfId="95" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J220:J243">
-    <cfRule type="duplicateValues" dxfId="94" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J239:J243">
-    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:I243">
-    <cfRule type="duplicateValues" dxfId="92" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I239:I243">
-    <cfRule type="duplicateValues" dxfId="91" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:I189">
-    <cfRule type="duplicateValues" dxfId="90" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197:I219">
-    <cfRule type="duplicateValues" dxfId="89" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190:I196">
-    <cfRule type="duplicateValues" dxfId="88" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:J243">
-    <cfRule type="duplicateValues" dxfId="87" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I239:J243">
-    <cfRule type="duplicateValues" dxfId="86" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39713,7 +41026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ84"/>
   <sheetViews>
     <sheetView topLeftCell="I40" workbookViewId="0">
@@ -44390,14 +45703,14 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:K1048576">
-    <cfRule type="duplicateValues" dxfId="185" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BJ109"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -48018,32 +49331,32 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I28">
-    <cfRule type="duplicateValues" dxfId="184" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="duplicateValues" dxfId="183" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I40">
-    <cfRule type="duplicateValues" dxfId="182" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K22 K29:K40">
-    <cfRule type="duplicateValues" dxfId="181" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22 I29:I109">
-    <cfRule type="duplicateValues" dxfId="180" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="duplicateValues" dxfId="179" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:K1048576 I23:K27 I1:K12">
-    <cfRule type="duplicateValues" dxfId="178" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ76"/>
   <sheetViews>
     <sheetView topLeftCell="H10" workbookViewId="0">
@@ -51195,44 +52508,44 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I6:K11 J12:K12 I1:K2 I17:K1048576">
-    <cfRule type="duplicateValues" dxfId="177" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="duplicateValues" dxfId="176" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="duplicateValues" dxfId="175" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11 J12 I16:I64">
-    <cfRule type="duplicateValues" dxfId="174" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K12 K16:K64">
-    <cfRule type="duplicateValues" dxfId="173" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14 I3:I5">
-    <cfRule type="duplicateValues" dxfId="172" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K14 K3:K5">
-    <cfRule type="duplicateValues" dxfId="171" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I11 I13:I76 J12">
-    <cfRule type="duplicateValues" dxfId="170" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="169" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="168" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="167" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -53678,16 +54991,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1048576">
-    <cfRule type="duplicateValues" dxfId="166" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J34">
-    <cfRule type="duplicateValues" dxfId="165" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L34">
-    <cfRule type="duplicateValues" dxfId="164" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J46">
-    <cfRule type="duplicateValues" dxfId="163" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="25"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53695,7 +55008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -57213,22 +58526,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L9:L89">
-    <cfRule type="duplicateValues" dxfId="162" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
-    <cfRule type="duplicateValues" dxfId="161" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:L89">
-    <cfRule type="duplicateValues" dxfId="160" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J89">
-    <cfRule type="duplicateValues" dxfId="159" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:L1048576 I1:L8">
-    <cfRule type="duplicateValues" dxfId="158" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="duplicateValues" dxfId="157" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="58"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57236,7 +58549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView topLeftCell="H13" workbookViewId="0">
@@ -59988,25 +61301,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I62:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="156" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L61">
-    <cfRule type="duplicateValues" dxfId="155" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L61">
-    <cfRule type="duplicateValues" dxfId="154" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J61">
-    <cfRule type="duplicateValues" dxfId="153" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L25">
-    <cfRule type="duplicateValues" dxfId="152" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:L25">
-    <cfRule type="duplicateValues" dxfId="151" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:J25">
-    <cfRule type="duplicateValues" dxfId="150" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60014,7 +61327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -62281,55 +63594,55 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I44:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="149" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L43 L2:L11">
-    <cfRule type="duplicateValues" dxfId="148" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:L43 I2:L11">
-    <cfRule type="duplicateValues" dxfId="147" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J43 I2:J11">
-    <cfRule type="duplicateValues" dxfId="146" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L15">
-    <cfRule type="duplicateValues" dxfId="145" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15 K13:L15">
-    <cfRule type="duplicateValues" dxfId="144" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="duplicateValues" dxfId="143" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="duplicateValues" dxfId="142" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="duplicateValues" dxfId="141" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="duplicateValues" dxfId="140" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:L12">
-    <cfRule type="duplicateValues" dxfId="139" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J12">
-    <cfRule type="duplicateValues" dxfId="138" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L18">
-    <cfRule type="duplicateValues" dxfId="137" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18 K16:L18">
-    <cfRule type="duplicateValues" dxfId="136" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18">
-    <cfRule type="duplicateValues" dxfId="135" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="duplicateValues" dxfId="134" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="duplicateValues" dxfId="133" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -62337,7 +63650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BK38"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -64405,25 +65718,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I39:L1048576 I1:L1">
-    <cfRule type="duplicateValues" dxfId="132" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="duplicateValues" dxfId="131" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L26">
-    <cfRule type="duplicateValues" dxfId="130" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J26">
-    <cfRule type="duplicateValues" dxfId="129" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L38">
-    <cfRule type="duplicateValues" dxfId="128" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:L38">
-    <cfRule type="duplicateValues" dxfId="127" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J38">
-    <cfRule type="duplicateValues" dxfId="126" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
